--- a/whales/holders.xlsx
+++ b/whales/holders.xlsx
@@ -512,7 +512,7 @@
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>761,162,863,019,330</t>
+          <t>761,164,086,613,816</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -1853,7 +1853,7 @@
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>12,000,523,943,691,467</t>
+          <t>12,000,525,167,285,953</t>
         </is>
       </c>
       <c r="D51" s="3" t="inlineStr">
@@ -1896,32 +1896,32 @@
       </c>
       <c r="B54" s="4" t="inlineStr">
         <is>
-          <t>0x505dd22c1bacced7531f319f5008318a440490bc</t>
+          <t>0x2bd6997bf6fcfde139eb1b9346fbf79defd4e8cc</t>
         </is>
       </c>
       <c r="C54" s="5" t="inlineStr">
         <is>
-          <t>90,055,783,444,045</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D54" s="5" t="inlineStr">
         <is>
-          <t>90 Trillion</t>
+          <t>0 Trillion</t>
         </is>
       </c>
       <c r="E54" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0950% </t>
+          <t xml:space="preserve">0.5497% </t>
         </is>
       </c>
       <c r="F54" s="6" t="inlineStr">
         <is>
-          <t>5 Trillion Less</t>
+          <t>550 Trillion Less</t>
         </is>
       </c>
       <c r="G54" s="7" t="inlineStr">
         <is>
-          <t>4,948,463,529,878</t>
+          <t>549,662,717,019,826</t>
         </is>
       </c>
     </row>
@@ -1931,32 +1931,32 @@
       </c>
       <c r="B55" s="4" t="inlineStr">
         <is>
-          <t>0x3d268cd580f89cfe6cc5dcf8764f51085f74a649</t>
+          <t>0x505dd22c1bacced7531f319f5008318a440490bc</t>
         </is>
       </c>
       <c r="C55" s="5" t="inlineStr">
         <is>
-          <t>4,788,212,804,945</t>
+          <t>90,056,129,846,728</t>
         </is>
       </c>
       <c r="D55" s="5" t="inlineStr">
         <is>
-          <t>5 Trillion</t>
+          <t>90 Trillion</t>
         </is>
       </c>
       <c r="E55" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1278% </t>
+          <t xml:space="preserve">0.0950% </t>
         </is>
       </c>
       <c r="F55" s="6" t="inlineStr">
         <is>
-          <t>123 Trillion Less</t>
+          <t>5 Trillion Less</t>
         </is>
       </c>
       <c r="G55" s="7" t="inlineStr">
         <is>
-          <t>123,043,254,976,892</t>
+          <t>4,948,117,127,195</t>
         </is>
       </c>
     </row>
@@ -1966,32 +1966,32 @@
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
-          <t>0x2bd6997bf6fcfde139eb1b9346fbf79defd4e8cc</t>
+          <t>0x3d268cd580f89cfe6cc5dcf8764f51085f74a649</t>
         </is>
       </c>
       <c r="C56" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4,788,231,222,971</t>
         </is>
       </c>
       <c r="D56" s="5" t="inlineStr">
         <is>
-          <t>0 Trillion</t>
+          <t>5 Trillion</t>
         </is>
       </c>
       <c r="E56" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.5497% </t>
+          <t xml:space="preserve">0.1278% </t>
         </is>
       </c>
       <c r="F56" s="6" t="inlineStr">
         <is>
-          <t>550 Trillion Less</t>
+          <t>123 Trillion Less</t>
         </is>
       </c>
       <c r="G56" s="7" t="inlineStr">
         <is>
-          <t>549,662,717,019,826</t>
+          <t>123,043,236,558,866</t>
         </is>
       </c>
     </row>
@@ -2009,7 +2009,7 @@
       </c>
       <c r="G58" s="6" t="inlineStr">
         <is>
-          <t>-709,084,111,067,757</t>
+          <t>-709,083,746,247,048</t>
         </is>
       </c>
     </row>

--- a/whales/holders.xlsx
+++ b/whales/holders.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,7 +512,7 @@
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>761,164,086,613,816</t>
+          <t>761,260,599,746,196</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -522,7 +522,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.7612% </t>
+          <t xml:space="preserve">0.7613% </t>
         </is>
       </c>
       <c r="F2" s="2" t="n"/>
@@ -539,7 +539,7 @@
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>756,193,608,270,292</t>
+          <t>756,344,152,450,413</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
@@ -549,7 +549,7 @@
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.7562% </t>
+          <t xml:space="preserve">0.7563% </t>
         </is>
       </c>
       <c r="F3" s="2" t="n"/>
@@ -566,7 +566,7 @@
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>604,006,555,483,506</t>
+          <t>604,092,719,959,930</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
@@ -576,7 +576,7 @@
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.6040% </t>
+          <t xml:space="preserve">0.6041% </t>
         </is>
       </c>
       <c r="F4" s="2" t="n"/>
@@ -593,7 +593,7 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>602,861,767,776,486</t>
+          <t>602,933,390,597,781</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
@@ -620,7 +620,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>529,273,233,399,985</t>
+          <t>529,369,375,205,795</t>
         </is>
       </c>
       <c r="D6" s="5" t="inlineStr">
@@ -630,7 +630,7 @@
       </c>
       <c r="E6" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.5293% </t>
+          <t xml:space="preserve">0.5294% </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
@@ -640,7 +640,7 @@
       </c>
       <c r="G6" s="5" t="inlineStr">
         <is>
-          <t>28,978,117,921,939</t>
+          <t>29,074,259,727,749</t>
         </is>
       </c>
     </row>
@@ -655,17 +655,17 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>524,355,454,029,402</t>
+          <t>524,522,571,993,165</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t>524 Trillion</t>
+          <t>525 Trillion</t>
         </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.5244% </t>
+          <t xml:space="preserve">0.5245% </t>
         </is>
       </c>
       <c r="F7" s="2" t="n"/>
@@ -709,7 +709,7 @@
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>420,029,625,185,313</t>
+          <t>420,096,383,552,093</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
@@ -719,7 +719,7 @@
       </c>
       <c r="E9" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.4200% </t>
+          <t xml:space="preserve">0.4201% </t>
         </is>
       </c>
       <c r="F9" s="2" t="n"/>
@@ -736,17 +736,17 @@
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>419,360,533,364,969</t>
+          <t>419,642,482,771,330</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>419 Trillion</t>
+          <t>420 Trillion</t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.4194% </t>
+          <t xml:space="preserve">0.4196% </t>
         </is>
       </c>
       <c r="F10" s="2" t="n"/>
@@ -790,7 +790,7 @@
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>405,536,251,101,224</t>
+          <t>405,606,608,849,364</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
@@ -800,7 +800,7 @@
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.4055% </t>
+          <t xml:space="preserve">0.4056% </t>
         </is>
       </c>
       <c r="F12" s="2" t="n"/>
@@ -861,66 +861,66 @@
       <c r="G14" s="2" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="n">
+      <c r="A15" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="inlineStr">
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>0xd96622a9099d758f8d6664ae702a59e9d548ed23</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>262,363,243,696,800</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>262 Trillion</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.2624% </t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="n"/>
+      <c r="G15" s="2" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
         <is>
           <t>0x69fe97ce030074b37cbaf3ee46e9f68ca8712099</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr">
-        <is>
-          <t>300,004,189,966,061</t>
-        </is>
-      </c>
-      <c r="D15" s="5" t="inlineStr">
-        <is>
-          <t>300 Trillion</t>
-        </is>
-      </c>
-      <c r="E15" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.3000% </t>
-        </is>
-      </c>
-      <c r="F15" s="6" t="inlineStr">
-        <is>
-          <t>107 Trillion Less</t>
-        </is>
-      </c>
-      <c r="G15" s="7" t="inlineStr">
-        <is>
-          <t>106,741,934,300,992</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>0xd96622a9099d758f8d6664ae702a59e9d548ed23</t>
-        </is>
-      </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>263,241,099,413,936</t>
-        </is>
-      </c>
-      <c r="D16" s="3" t="inlineStr">
-        <is>
-          <t>263 Trillion</t>
-        </is>
-      </c>
-      <c r="E16" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.2632% </t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="n"/>
-      <c r="G16" s="2" t="n"/>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>260,002,878,868,796</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="inlineStr">
+        <is>
+          <t>260 Trillion</t>
+        </is>
+      </c>
+      <c r="E16" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.2600% </t>
+        </is>
+      </c>
+      <c r="F16" s="6" t="inlineStr">
+        <is>
+          <t>147 Trillion Less</t>
+        </is>
+      </c>
+      <c r="G16" s="7" t="inlineStr">
+        <is>
+          <t>146,743,245,398,257</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -933,7 +933,7 @@
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>250,088,171,286,383</t>
+          <t>250,239,957,460,536</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
@@ -943,46 +943,38 @@
       </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.2501% </t>
+          <t xml:space="preserve">0.2502% </t>
         </is>
       </c>
       <c r="F17" s="2" t="n"/>
       <c r="G17" s="2" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="n">
+      <c r="A18" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="inlineStr">
-        <is>
-          <t>0x6111742b05e8ece0d9fedb82bcfdc597be7b43d9</t>
-        </is>
-      </c>
-      <c r="C18" s="5" t="inlineStr">
-        <is>
-          <t>226,872,477,762,525</t>
-        </is>
-      </c>
-      <c r="D18" s="5" t="inlineStr">
-        <is>
-          <t>227 Trillion</t>
-        </is>
-      </c>
-      <c r="E18" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.2269% </t>
-        </is>
-      </c>
-      <c r="F18" s="4" t="inlineStr">
-        <is>
-          <t>89 Trillion More</t>
-        </is>
-      </c>
-      <c r="G18" s="5" t="inlineStr">
-        <is>
-          <t>88,929,315,442,248</t>
-        </is>
-      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>0x84d1b0ae25aa0b535552d28455f4d00922baf624</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>217,702,871,652,260</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>218 Trillion</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.2177% </t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="n"/>
+      <c r="G18" s="2" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -995,17 +987,17 @@
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>217,372,420,035,141</t>
+          <t>217,526,979,511,502</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>217 Trillion</t>
+          <t>218 Trillion</t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.2174% </t>
+          <t xml:space="preserve">0.2175% </t>
         </is>
       </c>
       <c r="F19" s="2" t="n"/>
@@ -1130,7 +1122,7 @@
       </c>
       <c r="C24" s="5" t="inlineStr">
         <is>
-          <t>181,413,020,794,868</t>
+          <t>181,442,348,284,879</t>
         </is>
       </c>
       <c r="D24" s="5" t="inlineStr">
@@ -1150,7 +1142,7 @@
       </c>
       <c r="G24" s="5" t="inlineStr">
         <is>
-          <t>40,328,316,152,224</t>
+          <t>40,357,643,642,235</t>
         </is>
       </c>
     </row>
@@ -1219,7 +1211,7 @@
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>170,029,080,849,270</t>
+          <t>170,102,421,309,236</t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
@@ -1229,46 +1221,38 @@
       </c>
       <c r="E27" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1700% </t>
+          <t xml:space="preserve">0.1701% </t>
         </is>
       </c>
       <c r="F27" s="2" t="n"/>
       <c r="G27" s="2" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="n">
+      <c r="A28" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="4" t="inlineStr">
-        <is>
-          <t>0xd693658b31ef059354118ac2b8067b989ebf4b2b</t>
-        </is>
-      </c>
-      <c r="C28" s="5" t="inlineStr">
-        <is>
-          <t>161,400,659,117,802</t>
-        </is>
-      </c>
-      <c r="D28" s="5" t="inlineStr">
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>0xbdf119001cf9d44d902bf7d8e283e10ab66ddeea</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>161,124,973,977,117</t>
+        </is>
+      </c>
+      <c r="D28" s="3" t="inlineStr">
         <is>
           <t>161 Trillion</t>
         </is>
       </c>
-      <c r="E28" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.1614% </t>
-        </is>
-      </c>
-      <c r="F28" s="6" t="inlineStr">
-        <is>
-          <t>6 Trillion Less</t>
-        </is>
-      </c>
-      <c r="G28" s="7" t="inlineStr">
-        <is>
-          <t>5,934,869,144,095</t>
-        </is>
-      </c>
+      <c r="E28" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.1611% </t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="n"/>
+      <c r="G28" s="2" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1276,22 +1260,22 @@
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>0xbdf119001cf9d44d902bf7d8e283e10ab66ddeea</t>
+          <t>0xcc6833974ce5970eac45e7751573c30c7b41a4a5</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>161,124,973,977,117</t>
+          <t>156,714,474,435,293</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
         <is>
-          <t>161 Trillion</t>
+          <t>157 Trillion</t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1611% </t>
+          <t xml:space="preserve">0.1567% </t>
         </is>
       </c>
       <c r="F29" s="2" t="n"/>
@@ -1303,22 +1287,22 @@
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>0xcc6833974ce5970eac45e7751573c30c7b41a4a5</t>
+          <t>0x7b5b9b8d134bec76023cd6c20358d38714cc5c58</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>156,638,608,730,399</t>
+          <t>153,472,042,215,356</t>
         </is>
       </c>
       <c r="D30" s="3" t="inlineStr">
         <is>
-          <t>157 Trillion</t>
+          <t>153 Trillion</t>
         </is>
       </c>
       <c r="E30" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1566% </t>
+          <t xml:space="preserve">0.1535% </t>
         </is>
       </c>
       <c r="F30" s="2" t="n"/>
@@ -1330,22 +1314,22 @@
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>0x7b5b9b8d134bec76023cd6c20358d38714cc5c58</t>
+          <t>0x1ae48253b364374d3db52de311302fc501b87895</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>153,472,042,215,356</t>
+          <t>152,401,926,728,651</t>
         </is>
       </c>
       <c r="D31" s="3" t="inlineStr">
         <is>
-          <t>153 Trillion</t>
+          <t>152 Trillion</t>
         </is>
       </c>
       <c r="E31" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1535% </t>
+          <t xml:space="preserve">0.1524% </t>
         </is>
       </c>
       <c r="F31" s="2" t="n"/>
@@ -1357,22 +1341,22 @@
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>0x1ae48253b364374d3db52de311302fc501b87895</t>
+          <t>0x9a7e16cc5d152e60ea52d46d8e422d724bdb4dcf</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>152,401,926,728,651</t>
+          <t>150,058,675,230,722</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
         <is>
-          <t>152 Trillion</t>
+          <t>150 Trillion</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1524% </t>
+          <t xml:space="preserve">0.1501% </t>
         </is>
       </c>
       <c r="F32" s="2" t="n"/>
@@ -1384,22 +1368,22 @@
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>0x9a7e16cc5d152e60ea52d46d8e422d724bdb4dcf</t>
+          <t>0x30e9bda3cefff54d93fd5954b1961b8a5fea03e2</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>150,058,675,230,722</t>
+          <t>126,954,615,749,228</t>
         </is>
       </c>
       <c r="D33" s="3" t="inlineStr">
         <is>
-          <t>150 Trillion</t>
+          <t>127 Trillion</t>
         </is>
       </c>
       <c r="E33" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1501% </t>
+          <t xml:space="preserve">0.1270% </t>
         </is>
       </c>
       <c r="F33" s="2" t="n"/>
@@ -1411,22 +1395,22 @@
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>0x30e9bda3cefff54d93fd5954b1961b8a5fea03e2</t>
+          <t>0xa9adda56845662af63a16a02afe2512e0babe4f0</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>126,954,615,749,228</t>
+          <t>125,102,299,894,734</t>
         </is>
       </c>
       <c r="D34" s="3" t="inlineStr">
         <is>
-          <t>127 Trillion</t>
+          <t>125 Trillion</t>
         </is>
       </c>
       <c r="E34" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1270% </t>
+          <t xml:space="preserve">0.1251% </t>
         </is>
       </c>
       <c r="F34" s="2" t="n"/>
@@ -1438,22 +1422,22 @@
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>0xa9adda56845662af63a16a02afe2512e0babe4f0</t>
+          <t>0xf076f6f942eac10b48cea9ed1f25be813304ae42</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>125,102,299,894,734</t>
+          <t>116,910,581,367,992</t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr">
         <is>
-          <t>125 Trillion</t>
+          <t>117 Trillion</t>
         </is>
       </c>
       <c r="E35" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1251% </t>
+          <t xml:space="preserve">0.1169% </t>
         </is>
       </c>
       <c r="F35" s="2" t="n"/>
@@ -1465,22 +1449,22 @@
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>0xf076f6f942eac10b48cea9ed1f25be813304ae42</t>
+          <t>0x8117f26ab0e42ccae6009bd48675e2cdc94e95b6</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>116,910,581,367,992</t>
+          <t>115,770,730,436,412</t>
         </is>
       </c>
       <c r="D36" s="3" t="inlineStr">
         <is>
-          <t>117 Trillion</t>
+          <t>116 Trillion</t>
         </is>
       </c>
       <c r="E36" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1169% </t>
+          <t xml:space="preserve">0.1158% </t>
         </is>
       </c>
       <c r="F36" s="2" t="n"/>
@@ -1492,22 +1476,22 @@
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>0x8117f26ab0e42ccae6009bd48675e2cdc94e95b6</t>
+          <t>0x74beaeb59500b4486ec3c83b81552279b79c6728</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
         <is>
-          <t>115,770,730,436,412</t>
+          <t>115,059,068,116,820</t>
         </is>
       </c>
       <c r="D37" s="3" t="inlineStr">
         <is>
-          <t>116 Trillion</t>
+          <t>115 Trillion</t>
         </is>
       </c>
       <c r="E37" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1158% </t>
+          <t xml:space="preserve">0.1151% </t>
         </is>
       </c>
       <c r="F37" s="2" t="n"/>
@@ -1519,22 +1503,22 @@
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>0x74beaeb59500b4486ec3c83b81552279b79c6728</t>
+          <t>0x493d3d63b6e92869098d3ce8d733ce220633b829</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>115,059,068,116,820</t>
+          <t>110,825,174,828,856</t>
         </is>
       </c>
       <c r="D38" s="3" t="inlineStr">
         <is>
-          <t>115 Trillion</t>
+          <t>111 Trillion</t>
         </is>
       </c>
       <c r="E38" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1151% </t>
+          <t xml:space="preserve">0.1108% </t>
         </is>
       </c>
       <c r="F38" s="2" t="n"/>
@@ -1546,22 +1530,22 @@
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>0x493d3d63b6e92869098d3ce8d733ce220633b829</t>
+          <t>0x3efbd5727056766f2023a132d3de638b8e9bcf00</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>110,825,174,828,856</t>
+          <t>109,294,002,133,176</t>
         </is>
       </c>
       <c r="D39" s="3" t="inlineStr">
         <is>
-          <t>111 Trillion</t>
+          <t>109 Trillion</t>
         </is>
       </c>
       <c r="E39" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1108% </t>
+          <t xml:space="preserve">0.1093% </t>
         </is>
       </c>
       <c r="F39" s="2" t="n"/>
@@ -1573,22 +1557,22 @@
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>0x3efbd5727056766f2023a132d3de638b8e9bcf00</t>
+          <t>0xb2c5ae080a236fe89a87fdbd1f9d58ad4b57c6b2</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>109,294,002,133,176</t>
+          <t>107,359,482,135,805</t>
         </is>
       </c>
       <c r="D40" s="3" t="inlineStr">
         <is>
-          <t>109 Trillion</t>
+          <t>107 Trillion</t>
         </is>
       </c>
       <c r="E40" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1093% </t>
+          <t xml:space="preserve">0.1074% </t>
         </is>
       </c>
       <c r="F40" s="2" t="n"/>
@@ -1600,22 +1584,22 @@
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>0xb2c5ae080a236fe89a87fdbd1f9d58ad4b57c6b2</t>
+          <t>0x68bae0996364afaa2240f17c2055da0e12193337</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>107,359,482,135,805</t>
+          <t>105,551,878,645,914</t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
         <is>
-          <t>107 Trillion</t>
+          <t>106 Trillion</t>
         </is>
       </c>
       <c r="E41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1074% </t>
+          <t xml:space="preserve">0.1056% </t>
         </is>
       </c>
       <c r="F41" s="2" t="n"/>
@@ -1627,88 +1611,88 @@
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>0x68bae0996364afaa2240f17c2055da0e12193337</t>
+          <t>0xa4fd3063a3d831801c7791b5de3fb9e7a5dcbe23</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>105,551,878,645,914</t>
+          <t>102,426,922,337,291</t>
         </is>
       </c>
       <c r="D42" s="3" t="inlineStr">
         <is>
-          <t>106 Trillion</t>
+          <t>102 Trillion</t>
         </is>
       </c>
       <c r="E42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1056% </t>
+          <t xml:space="preserve">0.1024% </t>
         </is>
       </c>
       <c r="F42" s="2" t="n"/>
       <c r="G42" s="2" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n">
+      <c r="A43" s="4" t="n">
         <v>42</v>
       </c>
-      <c r="B43" s="2" t="inlineStr">
-        <is>
-          <t>0xa4fd3063a3d831801c7791b5de3fb9e7a5dcbe23</t>
-        </is>
-      </c>
-      <c r="C43" s="3" t="inlineStr">
-        <is>
-          <t>102,426,922,337,291</t>
-        </is>
-      </c>
-      <c r="D43" s="3" t="inlineStr">
+      <c r="B43" s="4" t="inlineStr">
+        <is>
+          <t>0xde58455ce16cb194a4dc90532326fbf9f3ba8513</t>
+        </is>
+      </c>
+      <c r="C43" s="5" t="inlineStr">
+        <is>
+          <t>102,131,737,141,842</t>
+        </is>
+      </c>
+      <c r="D43" s="5" t="inlineStr">
         <is>
           <t>102 Trillion</t>
         </is>
       </c>
-      <c r="E43" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.1024% </t>
-        </is>
-      </c>
-      <c r="F43" s="2" t="n"/>
-      <c r="G43" s="2" t="n"/>
+      <c r="E43" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.1021% </t>
+        </is>
+      </c>
+      <c r="F43" s="6" t="inlineStr">
+        <is>
+          <t>77 Trillion Less</t>
+        </is>
+      </c>
+      <c r="G43" s="7" t="inlineStr">
+        <is>
+          <t>76,921,539,703,882</t>
+        </is>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" s="4" t="n">
+      <c r="A44" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="B44" s="4" t="inlineStr">
-        <is>
-          <t>0xde58455ce16cb194a4dc90532326fbf9f3ba8513</t>
-        </is>
-      </c>
-      <c r="C44" s="5" t="inlineStr">
-        <is>
-          <t>102,064,655,233,239</t>
-        </is>
-      </c>
-      <c r="D44" s="5" t="inlineStr">
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>0xb762780fa3c41fee56387607135b74b37dd85d3c</t>
+        </is>
+      </c>
+      <c r="C44" s="3" t="inlineStr">
+        <is>
+          <t>101,756,739,446,246</t>
+        </is>
+      </c>
+      <c r="D44" s="3" t="inlineStr">
         <is>
           <t>102 Trillion</t>
         </is>
       </c>
-      <c r="E44" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.1021% </t>
-        </is>
-      </c>
-      <c r="F44" s="6" t="inlineStr">
-        <is>
-          <t>77 Trillion Less</t>
-        </is>
-      </c>
-      <c r="G44" s="7" t="inlineStr">
-        <is>
-          <t>76,988,621,612,485</t>
-        </is>
-      </c>
+      <c r="E44" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.1018% </t>
+        </is>
+      </c>
+      <c r="F44" s="2" t="n"/>
+      <c r="G44" s="2" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1716,22 +1700,22 @@
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>0xb762780fa3c41fee56387607135b74b37dd85d3c</t>
+          <t>0x3c2f70019d8d25bf0d3c73a7bba8061a32629659</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>101,678,788,166,514</t>
+          <t>101,197,121,851,195</t>
         </is>
       </c>
       <c r="D45" s="3" t="inlineStr">
         <is>
-          <t>102 Trillion</t>
+          <t>101 Trillion</t>
         </is>
       </c>
       <c r="E45" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1017% </t>
+          <t xml:space="preserve">0.1012% </t>
         </is>
       </c>
       <c r="F45" s="2" t="n"/>
@@ -1743,12 +1727,12 @@
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>0x3c2f70019d8d25bf0d3c73a7bba8061a32629659</t>
+          <t>0x34db618752319744a4a41e6ba4d5d58b3fffff48</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>101,119,599,269,434</t>
+          <t>101,039,018,487,468</t>
         </is>
       </c>
       <c r="D46" s="3" t="inlineStr">
@@ -1758,7 +1742,7 @@
       </c>
       <c r="E46" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1011% </t>
+          <t xml:space="preserve">0.1010% </t>
         </is>
       </c>
       <c r="F46" s="2" t="n"/>
@@ -1770,22 +1754,22 @@
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>0x34db618752319744a4a41e6ba4d5d58b3fffff48</t>
+          <t>0xe7af2280c3a70170f9e5cb67c6ea5885680d2838</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>100,961,617,021,611</t>
+          <t>100,449,627,594,844</t>
         </is>
       </c>
       <c r="D47" s="3" t="inlineStr">
         <is>
-          <t>101 Trillion</t>
+          <t>100 Trillion</t>
         </is>
       </c>
       <c r="E47" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1010% </t>
+          <t xml:space="preserve">0.1004% </t>
         </is>
       </c>
       <c r="F47" s="2" t="n"/>
@@ -1797,22 +1781,22 @@
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>0xe7af2280c3a70170f9e5cb67c6ea5885680d2838</t>
+          <t>0x302c44b648f5a84191f08551be26a2d2456a1fa1</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>100,433,827,216,923</t>
+          <t>93,352,193,845,014</t>
         </is>
       </c>
       <c r="D48" s="3" t="inlineStr">
         <is>
-          <t>100 Trillion</t>
+          <t>93 Trillion</t>
         </is>
       </c>
       <c r="E48" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1004% </t>
+          <t xml:space="preserve">0.0934% </t>
         </is>
       </c>
       <c r="F48" s="2" t="n"/>
@@ -1824,22 +1808,22 @@
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>0x302c44b648f5a84191f08551be26a2d2456a1fa1</t>
+          <t>0xba8d62918b242917cf67d04c7d68ecaad63df8b3</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>93,336,673,893,067</t>
+          <t>92,091,425,268,229</t>
         </is>
       </c>
       <c r="D49" s="3" t="inlineStr">
         <is>
-          <t>93 Trillion</t>
+          <t>92 Trillion</t>
         </is>
       </c>
       <c r="E49" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0933% </t>
+          <t xml:space="preserve">0.0921% </t>
         </is>
       </c>
       <c r="F49" s="2" t="n"/>
@@ -1853,27 +1837,27 @@
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>12,000,525,167,285,953</t>
+          <t>11,883,070,487,283,994</t>
         </is>
       </c>
       <c r="D51" s="3" t="inlineStr">
         <is>
-          <t>12001 Trillion</t>
+          <t>11883 Trillion</t>
         </is>
       </c>
       <c r="E51" s="3" t="inlineStr">
         <is>
-          <t>12.0%</t>
+          <t>11.88%</t>
         </is>
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>-31 Trillion</t>
+          <t>-154 Trillion</t>
         </is>
       </c>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>-31,429,675,541,161</t>
+          <t>-154,232,881,732,155</t>
         </is>
       </c>
     </row>
@@ -1936,7 +1920,7 @@
       </c>
       <c r="C55" s="5" t="inlineStr">
         <is>
-          <t>90,056,129,846,728</t>
+          <t>90,068,588,420,191</t>
         </is>
       </c>
       <c r="D55" s="5" t="inlineStr">
@@ -1956,7 +1940,7 @@
       </c>
       <c r="G55" s="7" t="inlineStr">
         <is>
-          <t>4,948,117,127,195</t>
+          <t>4,935,658,553,732</t>
         </is>
       </c>
     </row>
@@ -1966,50 +1950,120 @@
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
+          <t>0x6111742b05e8ece0d9fedb82bcfdc597be7b43d9</t>
+        </is>
+      </c>
+      <c r="C56" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D56" s="5" t="inlineStr">
+        <is>
+          <t>0 Trillion</t>
+        </is>
+      </c>
+      <c r="E56" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.1379% </t>
+        </is>
+      </c>
+      <c r="F56" s="6" t="inlineStr">
+        <is>
+          <t>138 Trillion Less</t>
+        </is>
+      </c>
+      <c r="G56" s="7" t="inlineStr">
+        <is>
+          <t>137,943,162,320,277</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B57" s="4" t="inlineStr">
+        <is>
+          <t>0xd693658b31ef059354118ac2b8067b989ebf4b2b</t>
+        </is>
+      </c>
+      <c r="C57" s="5" t="inlineStr">
+        <is>
+          <t>59,737,789,149,375</t>
+        </is>
+      </c>
+      <c r="D57" s="5" t="inlineStr">
+        <is>
+          <t>60 Trillion</t>
+        </is>
+      </c>
+      <c r="E57" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.1673% </t>
+        </is>
+      </c>
+      <c r="F57" s="6" t="inlineStr">
+        <is>
+          <t>108 Trillion Less</t>
+        </is>
+      </c>
+      <c r="G57" s="7" t="inlineStr">
+        <is>
+          <t>107,597,739,112,522</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B58" s="4" t="inlineStr">
+        <is>
           <t>0x3d268cd580f89cfe6cc5dcf8764f51085f74a649</t>
         </is>
       </c>
-      <c r="C56" s="5" t="inlineStr">
-        <is>
-          <t>4,788,231,222,971</t>
-        </is>
-      </c>
-      <c r="D56" s="5" t="inlineStr">
+      <c r="C58" s="5" t="inlineStr">
+        <is>
+          <t>4,788,893,637,962</t>
+        </is>
+      </c>
+      <c r="D58" s="5" t="inlineStr">
         <is>
           <t>5 Trillion</t>
         </is>
       </c>
-      <c r="E56" s="5" t="inlineStr">
+      <c r="E58" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">0.1278% </t>
         </is>
       </c>
-      <c r="F56" s="6" t="inlineStr">
+      <c r="F58" s="6" t="inlineStr">
         <is>
           <t>123 Trillion Less</t>
         </is>
       </c>
-      <c r="G56" s="7" t="inlineStr">
-        <is>
-          <t>123,043,236,558,866</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="D58" s="6" t="n"/>
-      <c r="E58" s="7" t="inlineStr">
+      <c r="G58" s="7" t="inlineStr">
+        <is>
+          <t>123,042,574,143,875</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="D60" s="6" t="n"/>
+      <c r="E60" s="7" t="inlineStr">
         <is>
           <t>Total loss / gain from all whales</t>
         </is>
       </c>
-      <c r="F58" s="6" t="inlineStr">
-        <is>
-          <t>-709 Trillion</t>
-        </is>
-      </c>
-      <c r="G58" s="6" t="inlineStr">
-        <is>
-          <t>-709,083,746,247,048</t>
+      <c r="F60" s="6" t="inlineStr">
+        <is>
+          <t>-1077 Trillion</t>
+        </is>
+      </c>
+      <c r="G60" s="6" t="inlineStr">
+        <is>
+          <t>-1,077,414,732,882,387</t>
         </is>
       </c>
     </row>

--- a/whales/holders.xlsx
+++ b/whales/holders.xlsx
@@ -512,7 +512,7 @@
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>770,835,907,402,306</t>
+          <t>771,252,972,389,803</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -522,7 +522,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.7708% </t>
+          <t xml:space="preserve">0.7713% </t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
@@ -532,7 +532,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>1,615,892,983,837</t>
+          <t>2,032,957,971,334</t>
         </is>
       </c>
     </row>
@@ -547,7 +547,7 @@
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>605,992,858,176,597</t>
+          <t>606,309,685,319,915</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
@@ -557,17 +557,17 @@
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.6060% </t>
+          <t xml:space="preserve">0.6063% </t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>1 Trillion More</t>
+          <t>2 Trillion More</t>
         </is>
       </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
-          <t>1,319,778,728,198</t>
+          <t>1,636,605,871,516</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>604,817,827,863,019</t>
+          <t>605,105,068,592,501</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
@@ -592,17 +592,17 @@
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.6048% </t>
+          <t xml:space="preserve">0.6051% </t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1 Trillion More</t>
+          <t>2 Trillion More</t>
         </is>
       </c>
       <c r="G4" s="3" t="inlineStr">
         <is>
-          <t>1,339,791,239,588</t>
+          <t>1,627,031,969,070</t>
         </is>
       </c>
     </row>
@@ -617,7 +617,7 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>526,146,294,134,607</t>
+          <t>526,397,380,939,355</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.5261% </t>
+          <t xml:space="preserve">0.5264% </t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -637,7 +637,7 @@
       </c>
       <c r="G5" s="3" t="inlineStr">
         <is>
-          <t>1,176,027,452,137</t>
+          <t>1,427,114,256,885</t>
         </is>
       </c>
     </row>
@@ -652,27 +652,27 @@
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>493,106,813,709,652</t>
+          <t>500,773,662,963,857</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>493 Trillion</t>
+          <t>501 Trillion</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.4931% </t>
+          <t xml:space="preserve">0.5008% </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>37 Trillion Less</t>
+          <t>29 Trillion Less</t>
         </is>
       </c>
       <c r="G6" s="5" t="inlineStr">
         <is>
-          <t>36,782,994,195,366</t>
+          <t>29,116,144,941,161</t>
         </is>
       </c>
     </row>
@@ -687,7 +687,7 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>425,539,962,534,487</t>
+          <t>425,742,060,428,483</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
@@ -697,17 +697,17 @@
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.4255% </t>
+          <t xml:space="preserve">0.4257% </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>8 Trillion Less</t>
+          <t>7 Trillion Less</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
-          <t>7,639,646,097,301</t>
+          <t>7,437,548,203,305</t>
         </is>
       </c>
     </row>
@@ -722,7 +722,7 @@
       </c>
       <c r="C8" s="7" t="inlineStr">
         <is>
-          <t>419,928,310,666,523</t>
+          <t>420,135,824,768,869</t>
         </is>
       </c>
       <c r="D8" s="7" t="inlineStr">
@@ -732,7 +732,7 @@
       </c>
       <c r="E8" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.4199% </t>
+          <t xml:space="preserve">0.4201% </t>
         </is>
       </c>
       <c r="F8" s="6" t="n"/>
@@ -749,17 +749,17 @@
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>411,416,425,339,463</t>
+          <t>411,603,579,732,127</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
         <is>
-          <t>411 Trillion</t>
+          <t>412 Trillion</t>
         </is>
       </c>
       <c r="E9" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.4114% </t>
+          <t xml:space="preserve">0.4116% </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="G9" s="5" t="inlineStr">
         <is>
-          <t>9,121,420,104,110</t>
+          <t>8,934,265,711,446</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="C10" s="7" t="inlineStr">
         <is>
-          <t>405,600,701,614,747</t>
+          <t>405,830,828,814,248</t>
         </is>
       </c>
       <c r="D10" s="7" t="inlineStr">
@@ -794,7 +794,7 @@
       </c>
       <c r="E10" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.4056% </t>
+          <t xml:space="preserve">0.4058% </t>
         </is>
       </c>
       <c r="F10" s="6" t="n"/>
@@ -811,56 +811,64 @@
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>373,496,138,357,024</t>
+          <t>373,656,464,612,929</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>373 Trillion</t>
+          <t>374 Trillion</t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.3735% </t>
+          <t xml:space="preserve">0.3737% </t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10 Trillion More</t>
+          <t>11 Trillion More</t>
         </is>
       </c>
       <c r="G11" s="3" t="inlineStr">
         <is>
-          <t>10,391,284,087,987</t>
+          <t>10,551,610,343,892</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="n">
+      <c r="A12" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="inlineStr">
-        <is>
-          <t>0xe9d2afff18f08375d5b7a8a804e272b6c81ceb9f</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="inlineStr">
-        <is>
-          <t>353,305,657,267,519</t>
-        </is>
-      </c>
-      <c r="D12" s="7" t="inlineStr">
-        <is>
-          <t>353 Trillion</t>
-        </is>
-      </c>
-      <c r="E12" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.3533% </t>
-        </is>
-      </c>
-      <c r="F12" s="6" t="n"/>
-      <c r="G12" s="6" t="n"/>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>0x7b11f31fc0d0a79717ec025d411ac5e899ac7116</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>344,177,666,332,119</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>344 Trillion</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.3442% </t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>29 Trillion More</t>
+        </is>
+      </c>
+      <c r="G12" s="3" t="inlineStr">
+        <is>
+          <t>29,496,518,142,735</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -868,96 +876,96 @@
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>0x7b11f31fc0d0a79717ec025d411ac5e899ac7116</t>
+          <t>0xf7625178ef07107edc2005a0e5d2fc411573f381</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>343,955,532,830,866</t>
+          <t>303,488,035,199,115</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>344 Trillion</t>
+          <t>303 Trillion</t>
         </is>
       </c>
       <c r="E13" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.3440% </t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>29 Trillion More</t>
-        </is>
-      </c>
-      <c r="G13" s="3" t="inlineStr">
-        <is>
-          <t>29,274,384,641,482</t>
+          <t xml:space="preserve">0.3035% </t>
+        </is>
+      </c>
+      <c r="F13" s="4" t="inlineStr">
+        <is>
+          <t>54 Trillion Less</t>
+        </is>
+      </c>
+      <c r="G13" s="5" t="inlineStr">
+        <is>
+          <t>53,951,435,260,249</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
+      <c r="A14" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="inlineStr">
+      <c r="B14" s="6" t="inlineStr">
+        <is>
+          <t>0x924e8fc81484781b8057db784266017fce1af136</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="inlineStr">
+        <is>
+          <t>251,009,558,989,462</t>
+        </is>
+      </c>
+      <c r="D14" s="7" t="inlineStr">
+        <is>
+          <t>251 Trillion</t>
+        </is>
+      </c>
+      <c r="E14" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.2510% </t>
+        </is>
+      </c>
+      <c r="F14" s="6" t="n"/>
+      <c r="G14" s="6" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
         <is>
           <t>0xd96622a9099d758f8d6664ae702a59e9d548ed23</t>
         </is>
       </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>261,343,246,745,621</t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="inlineStr">
-        <is>
-          <t>261 Trillion</t>
-        </is>
-      </c>
-      <c r="E14" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.2613% </t>
-        </is>
-      </c>
-      <c r="F14" s="4" t="inlineStr">
-        <is>
-          <t>1 Trillion Less</t>
-        </is>
-      </c>
-      <c r="G14" s="5" t="inlineStr">
-        <is>
-          <t>1,261,438,592,687</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="6" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" s="6" t="inlineStr">
-        <is>
-          <t>0x924e8fc81484781b8057db784266017fce1af136</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr">
-        <is>
-          <t>251,009,558,989,462</t>
-        </is>
-      </c>
-      <c r="D15" s="7" t="inlineStr">
-        <is>
-          <t>251 Trillion</t>
-        </is>
-      </c>
-      <c r="E15" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.2510% </t>
-        </is>
-      </c>
-      <c r="F15" s="6" t="n"/>
-      <c r="G15" s="6" t="n"/>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>235,005,957,502,171</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>235 Trillion</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.2350% </t>
+        </is>
+      </c>
+      <c r="F15" s="4" t="inlineStr">
+        <is>
+          <t>28 Trillion Less</t>
+        </is>
+      </c>
+      <c r="G15" s="5" t="inlineStr">
+        <is>
+          <t>27,598,727,836,137</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -970,17 +978,17 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>212,484,363,725,575</t>
+          <t>212,599,173,693,892</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>212 Trillion</t>
+          <t>213 Trillion</t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.2125% </t>
+          <t xml:space="preserve">0.2126% </t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -990,7 +998,7 @@
       </c>
       <c r="G16" s="3" t="inlineStr">
         <is>
-          <t>5,306,778,956,836</t>
+          <t>5,421,588,925,153</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1013,7 @@
       </c>
       <c r="C17" s="7" t="inlineStr">
         <is>
-          <t>196,065,619,732,155</t>
+          <t>196,225,205,892,679</t>
         </is>
       </c>
       <c r="D17" s="7" t="inlineStr">
@@ -1015,7 +1023,7 @@
       </c>
       <c r="E17" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1961% </t>
+          <t xml:space="preserve">0.1962% </t>
         </is>
       </c>
       <c r="F17" s="6" t="n"/>
@@ -1032,7 +1040,7 @@
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>194,266,468,308,329</t>
+          <t>194,383,262,980,733</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
@@ -1042,17 +1050,17 @@
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1943% </t>
+          <t xml:space="preserve">0.1944% </t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>6 Trillion Less</t>
+          <t>5 Trillion Less</t>
         </is>
       </c>
       <c r="G18" s="5" t="inlineStr">
         <is>
-          <t>5,601,467,379,332</t>
+          <t>5,484,672,706,928</t>
         </is>
       </c>
     </row>
@@ -1067,7 +1075,7 @@
       </c>
       <c r="C19" s="7" t="inlineStr">
         <is>
-          <t>187,360,238,884,820</t>
+          <t>187,436,850,472,173</t>
         </is>
       </c>
       <c r="D19" s="7" t="inlineStr">
@@ -1094,17 +1102,17 @@
       </c>
       <c r="C20" s="7" t="inlineStr">
         <is>
-          <t>179,405,340,729,590</t>
+          <t>179,508,184,018,389</t>
         </is>
       </c>
       <c r="D20" s="7" t="inlineStr">
         <is>
-          <t>179 Trillion</t>
+          <t>180 Trillion</t>
         </is>
       </c>
       <c r="E20" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1794% </t>
+          <t xml:space="preserve">0.1795% </t>
         </is>
       </c>
       <c r="F20" s="6" t="n"/>
@@ -1121,7 +1129,7 @@
       </c>
       <c r="C21" s="7" t="inlineStr">
         <is>
-          <t>173,773,638,017,572</t>
+          <t>173,739,657,749,335</t>
         </is>
       </c>
       <c r="D21" s="7" t="inlineStr">
@@ -1131,7 +1139,7 @@
       </c>
       <c r="E21" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1738% </t>
+          <t xml:space="preserve">0.1737% </t>
         </is>
       </c>
       <c r="F21" s="6" t="n"/>
@@ -1165,39 +1173,31 @@
       <c r="G22" s="6" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n">
+      <c r="A23" s="6" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="inlineStr">
-        <is>
-          <t>0x4159fcaefd2216a1b581587ca97da9f53e8ba163</t>
-        </is>
-      </c>
-      <c r="C23" s="3" t="inlineStr">
-        <is>
-          <t>163,519,420,546,323</t>
-        </is>
-      </c>
-      <c r="D23" s="3" t="inlineStr">
-        <is>
-          <t>164 Trillion</t>
-        </is>
-      </c>
-      <c r="E23" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.1635% </t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>14 Trillion More</t>
-        </is>
-      </c>
-      <c r="G23" s="3" t="inlineStr">
-        <is>
-          <t>13,518,976,850,538</t>
-        </is>
-      </c>
+      <c r="B23" s="6" t="inlineStr">
+        <is>
+          <t>0x0c706e89e383ca020cd5b1d1ffc4cd17a810a2d5</t>
+        </is>
+      </c>
+      <c r="C23" s="7" t="inlineStr">
+        <is>
+          <t>166,213,871,384,481</t>
+        </is>
+      </c>
+      <c r="D23" s="7" t="inlineStr">
+        <is>
+          <t>166 Trillion</t>
+        </is>
+      </c>
+      <c r="E23" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.1662% </t>
+        </is>
+      </c>
+      <c r="F23" s="6" t="n"/>
+      <c r="G23" s="6" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="6" t="n">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="C24" s="7" t="inlineStr">
         <is>
-          <t>161,641,853,298,530</t>
+          <t>161,646,476,329,709</t>
         </is>
       </c>
       <c r="D24" s="7" t="inlineStr">
@@ -1227,31 +1227,39 @@
       <c r="G24" s="6" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="6" t="n">
+      <c r="A25" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="6" t="inlineStr">
-        <is>
-          <t>0x7b5b9b8d134bec76023cd6c20358d38714cc5c58</t>
-        </is>
-      </c>
-      <c r="C25" s="7" t="inlineStr">
-        <is>
-          <t>153,472,042,215,356</t>
-        </is>
-      </c>
-      <c r="D25" s="7" t="inlineStr">
-        <is>
-          <t>153 Trillion</t>
-        </is>
-      </c>
-      <c r="E25" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.1535% </t>
-        </is>
-      </c>
-      <c r="F25" s="6" t="n"/>
-      <c r="G25" s="6" t="n"/>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>0x4159fcaefd2216a1b581587ca97da9f53e8ba163</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>160,376,700,546,127</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>160 Trillion</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.1604% </t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>10 Trillion More</t>
+        </is>
+      </c>
+      <c r="G25" s="3" t="inlineStr">
+        <is>
+          <t>10,376,256,850,342</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="6" t="n">
@@ -1259,88 +1267,88 @@
       </c>
       <c r="B26" s="6" t="inlineStr">
         <is>
-          <t>0x1ae48253b364374d3db52de311302fc501b87895</t>
+          <t>0x7b5b9b8d134bec76023cd6c20358d38714cc5c58</t>
         </is>
       </c>
       <c r="C26" s="7" t="inlineStr">
         <is>
-          <t>153,037,872,346,647</t>
+          <t>154,051,941,018,669</t>
         </is>
       </c>
       <c r="D26" s="7" t="inlineStr">
         <is>
-          <t>153 Trillion</t>
+          <t>154 Trillion</t>
         </is>
       </c>
       <c r="E26" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1530% </t>
+          <t xml:space="preserve">0.1541% </t>
         </is>
       </c>
       <c r="F26" s="6" t="n"/>
       <c r="G26" s="6" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n">
+      <c r="A27" s="6" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="inlineStr">
+      <c r="B27" s="6" t="inlineStr">
+        <is>
+          <t>0x1ae48253b364374d3db52de311302fc501b87895</t>
+        </is>
+      </c>
+      <c r="C27" s="7" t="inlineStr">
+        <is>
+          <t>153,103,003,145,466</t>
+        </is>
+      </c>
+      <c r="D27" s="7" t="inlineStr">
+        <is>
+          <t>153 Trillion</t>
+        </is>
+      </c>
+      <c r="E27" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.1531% </t>
+        </is>
+      </c>
+      <c r="F27" s="6" t="n"/>
+      <c r="G27" s="6" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
         <is>
           <t>0xd693658b31ef059354118ac2b8067b989ebf4b2b</t>
         </is>
       </c>
-      <c r="C27" s="3" t="inlineStr">
-        <is>
-          <t>131,131,172,370,590</t>
-        </is>
-      </c>
-      <c r="D27" s="3" t="inlineStr">
-        <is>
-          <t>131 Trillion</t>
-        </is>
-      </c>
-      <c r="E27" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.1311% </t>
-        </is>
-      </c>
-      <c r="F27" s="4" t="inlineStr">
-        <is>
-          <t>17 Trillion Less</t>
-        </is>
-      </c>
-      <c r="G27" s="5" t="inlineStr">
-        <is>
-          <t>17,214,625,492,676</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="B28" s="6" t="inlineStr">
-        <is>
-          <t>0x0c706e89e383ca020cd5b1d1ffc4cd17a810a2d5</t>
-        </is>
-      </c>
-      <c r="C28" s="7" t="inlineStr">
-        <is>
-          <t>128,000,045,260,928</t>
-        </is>
-      </c>
-      <c r="D28" s="7" t="inlineStr">
-        <is>
-          <t>128 Trillion</t>
-        </is>
-      </c>
-      <c r="E28" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.1280% </t>
-        </is>
-      </c>
-      <c r="F28" s="6" t="n"/>
-      <c r="G28" s="6" t="n"/>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>136,988,982,011,992</t>
+        </is>
+      </c>
+      <c r="D28" s="3" t="inlineStr">
+        <is>
+          <t>137 Trillion</t>
+        </is>
+      </c>
+      <c r="E28" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.1370% </t>
+        </is>
+      </c>
+      <c r="F28" s="4" t="inlineStr">
+        <is>
+          <t>11 Trillion Less</t>
+        </is>
+      </c>
+      <c r="G28" s="5" t="inlineStr">
+        <is>
+          <t>11,356,815,851,274</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="6" t="n">
@@ -1353,7 +1361,7 @@
       </c>
       <c r="C29" s="7" t="inlineStr">
         <is>
-          <t>127,380,714,488,037</t>
+          <t>127,488,461,958,839</t>
         </is>
       </c>
       <c r="D29" s="7" t="inlineStr">
@@ -1363,7 +1371,7 @@
       </c>
       <c r="E29" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1274% </t>
+          <t xml:space="preserve">0.1275% </t>
         </is>
       </c>
       <c r="F29" s="6" t="n"/>
@@ -1375,22 +1383,22 @@
       </c>
       <c r="B30" s="6" t="inlineStr">
         <is>
-          <t>0xde58455ce16cb194a4dc90532326fbf9f3ba8513</t>
+          <t>0x112344b8882619f5c8cfa9901d0b88e9eb11a25a</t>
         </is>
       </c>
       <c r="C30" s="7" t="inlineStr">
         <is>
-          <t>117,823,505,888,617</t>
+          <t>121,774,449,634,287</t>
         </is>
       </c>
       <c r="D30" s="7" t="inlineStr">
         <is>
-          <t>118 Trillion</t>
+          <t>122 Trillion</t>
         </is>
       </c>
       <c r="E30" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1178% </t>
+          <t xml:space="preserve">0.1218% </t>
         </is>
       </c>
       <c r="F30" s="6" t="n"/>
@@ -1407,27 +1415,27 @@
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>117,506,772,401,594</t>
+          <t>121,171,724,571,272</t>
         </is>
       </c>
       <c r="D31" s="3" t="inlineStr">
         <is>
-          <t>118 Trillion</t>
+          <t>121 Trillion</t>
         </is>
       </c>
       <c r="E31" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1175% </t>
+          <t xml:space="preserve">0.1212% </t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>13 Trillion More</t>
+          <t>17 Trillion More</t>
         </is>
       </c>
       <c r="G31" s="3" t="inlineStr">
         <is>
-          <t>13,435,999,871,257</t>
+          <t>17,100,952,040,935</t>
         </is>
       </c>
     </row>
@@ -1437,22 +1445,22 @@
       </c>
       <c r="B32" s="6" t="inlineStr">
         <is>
-          <t>0xf076f6f942eac10b48cea9ed1f25be813304ae42</t>
+          <t>0xde58455ce16cb194a4dc90532326fbf9f3ba8513</t>
         </is>
       </c>
       <c r="C32" s="7" t="inlineStr">
         <is>
-          <t>117,430,418,596,315</t>
+          <t>118,427,896,605,076</t>
         </is>
       </c>
       <c r="D32" s="7" t="inlineStr">
         <is>
-          <t>117 Trillion</t>
+          <t>118 Trillion</t>
         </is>
       </c>
       <c r="E32" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1174% </t>
+          <t xml:space="preserve">0.1184% </t>
         </is>
       </c>
       <c r="F32" s="6" t="n"/>
@@ -1464,61 +1472,53 @@
       </c>
       <c r="B33" s="6" t="inlineStr">
         <is>
-          <t>0x8117f26ab0e42ccae6009bd48675e2cdc94e95b6</t>
+          <t>0xf076f6f942eac10b48cea9ed1f25be813304ae42</t>
         </is>
       </c>
       <c r="C33" s="7" t="inlineStr">
         <is>
-          <t>116,082,657,452,720</t>
+          <t>117,484,403,310,482</t>
         </is>
       </c>
       <c r="D33" s="7" t="inlineStr">
         <is>
-          <t>116 Trillion</t>
+          <t>117 Trillion</t>
         </is>
       </c>
       <c r="E33" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1161% </t>
+          <t xml:space="preserve">0.1175% </t>
         </is>
       </c>
       <c r="F33" s="6" t="n"/>
       <c r="G33" s="6" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n">
+      <c r="A34" s="6" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="2" t="inlineStr">
-        <is>
-          <t>0x28e87335c43b9b28d658b6825811744c251f5974</t>
-        </is>
-      </c>
-      <c r="C34" s="3" t="inlineStr">
-        <is>
-          <t>114,766,436,705,800</t>
-        </is>
-      </c>
-      <c r="D34" s="3" t="inlineStr">
-        <is>
-          <t>115 Trillion</t>
-        </is>
-      </c>
-      <c r="E34" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.1148% </t>
-        </is>
-      </c>
-      <c r="F34" s="4" t="inlineStr">
-        <is>
-          <t>546 Trillion Less</t>
-        </is>
-      </c>
-      <c r="G34" s="5" t="inlineStr">
-        <is>
-          <t>546,214,551,626,124</t>
-        </is>
-      </c>
+      <c r="B34" s="6" t="inlineStr">
+        <is>
+          <t>0x8117f26ab0e42ccae6009bd48675e2cdc94e95b6</t>
+        </is>
+      </c>
+      <c r="C34" s="7" t="inlineStr">
+        <is>
+          <t>116,276,138,664,542</t>
+        </is>
+      </c>
+      <c r="D34" s="7" t="inlineStr">
+        <is>
+          <t>116 Trillion</t>
+        </is>
+      </c>
+      <c r="E34" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.1163% </t>
+        </is>
+      </c>
+      <c r="F34" s="6" t="n"/>
+      <c r="G34" s="6" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1526,32 +1526,32 @@
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>0x74beaeb59500b4486ec3c83b81552279b79c6728</t>
+          <t>0x28e87335c43b9b28d658b6825811744c251f5974</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>112,235,039,973,267</t>
+          <t>114,830,869,634,608</t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr">
         <is>
-          <t>112 Trillion</t>
+          <t>115 Trillion</t>
         </is>
       </c>
       <c r="E35" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1122% </t>
+          <t xml:space="preserve">0.1148% </t>
         </is>
       </c>
       <c r="F35" s="4" t="inlineStr">
         <is>
-          <t>3 Trillion Less</t>
+          <t>546 Trillion Less</t>
         </is>
       </c>
       <c r="G35" s="5" t="inlineStr">
         <is>
-          <t>2,960,649,026,921</t>
+          <t>546,150,118,697,316</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1566,7 @@
       </c>
       <c r="C36" s="7" t="inlineStr">
         <is>
-          <t>111,207,244,103,994</t>
+          <t>111,300,150,061,508</t>
         </is>
       </c>
       <c r="D36" s="7" t="inlineStr">
@@ -1576,38 +1576,46 @@
       </c>
       <c r="E36" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1112% </t>
+          <t xml:space="preserve">0.1113% </t>
         </is>
       </c>
       <c r="F36" s="6" t="n"/>
       <c r="G36" s="6" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="6" t="n">
+      <c r="A37" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="6" t="inlineStr">
-        <is>
-          <t>0xb2c5ae080a236fe89a87fdbd1f9d58ad4b57c6b2</t>
-        </is>
-      </c>
-      <c r="C37" s="7" t="inlineStr">
-        <is>
-          <t>107,762,777,611,238</t>
-        </is>
-      </c>
-      <c r="D37" s="7" t="inlineStr">
-        <is>
-          <t>108 Trillion</t>
-        </is>
-      </c>
-      <c r="E37" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.1078% </t>
-        </is>
-      </c>
-      <c r="F37" s="6" t="n"/>
-      <c r="G37" s="6" t="n"/>
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>0x74beaeb59500b4486ec3c83b81552279b79c6728</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="inlineStr">
+        <is>
+          <t>109,947,509,475,908</t>
+        </is>
+      </c>
+      <c r="D37" s="3" t="inlineStr">
+        <is>
+          <t>110 Trillion</t>
+        </is>
+      </c>
+      <c r="E37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.1099% </t>
+        </is>
+      </c>
+      <c r="F37" s="4" t="inlineStr">
+        <is>
+          <t>5 Trillion Less</t>
+        </is>
+      </c>
+      <c r="G37" s="5" t="inlineStr">
+        <is>
+          <t>5,248,179,524,280</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="6" t="n">
@@ -1615,22 +1623,22 @@
       </c>
       <c r="B38" s="6" t="inlineStr">
         <is>
-          <t>0x112344b8882619f5c8cfa9901d0b88e9eb11a25a</t>
+          <t>0xb2c5ae080a236fe89a87fdbd1f9d58ad4b57c6b2</t>
         </is>
       </c>
       <c r="C38" s="7" t="inlineStr">
         <is>
-          <t>103,005,174,919,678</t>
+          <t>107,819,604,080,873</t>
         </is>
       </c>
       <c r="D38" s="7" t="inlineStr">
         <is>
-          <t>103 Trillion</t>
+          <t>108 Trillion</t>
         </is>
       </c>
       <c r="E38" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1030% </t>
+          <t xml:space="preserve">0.1078% </t>
         </is>
       </c>
       <c r="F38" s="6" t="n"/>
@@ -1642,22 +1650,22 @@
       </c>
       <c r="B39" s="6" t="inlineStr">
         <is>
-          <t>0xa4fd3063a3d831801c7791b5de3fb9e7a5dcbe23</t>
+          <t>0x9648c280e112946f93bacbd0fd1dc81abb557908</t>
         </is>
       </c>
       <c r="C39" s="7" t="inlineStr">
         <is>
-          <t>102,821,005,584,387</t>
+          <t>106,613,759,437,750</t>
         </is>
       </c>
       <c r="D39" s="7" t="inlineStr">
         <is>
-          <t>103 Trillion</t>
+          <t>107 Trillion</t>
         </is>
       </c>
       <c r="E39" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1028% </t>
+          <t xml:space="preserve">0.1066% </t>
         </is>
       </c>
       <c r="F39" s="6" t="n"/>
@@ -1669,22 +1677,22 @@
       </c>
       <c r="B40" s="6" t="inlineStr">
         <is>
-          <t>0xba8d62918b242917cf67d04c7d68ecaad63df8b3</t>
+          <t>0xa4fd3063a3d831801c7791b5de3fb9e7a5dcbe23</t>
         </is>
       </c>
       <c r="C40" s="7" t="inlineStr">
         <is>
-          <t>102,172,727,532,589</t>
+          <t>102,821,005,584,387</t>
         </is>
       </c>
       <c r="D40" s="7" t="inlineStr">
         <is>
-          <t>102 Trillion</t>
+          <t>103 Trillion</t>
         </is>
       </c>
       <c r="E40" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1022% </t>
+          <t xml:space="preserve">0.1028% </t>
         </is>
       </c>
       <c r="F40" s="6" t="n"/>
@@ -1696,12 +1704,12 @@
       </c>
       <c r="B41" s="6" t="inlineStr">
         <is>
-          <t>0xb05a41293daf0fa7c71e4e035e2f477299fe10a1</t>
+          <t>0xba8d62918b242917cf67d04c7d68ecaad63df8b3</t>
         </is>
       </c>
       <c r="C41" s="7" t="inlineStr">
         <is>
-          <t>101,823,310,791,935</t>
+          <t>102,217,417,950,947</t>
         </is>
       </c>
       <c r="D41" s="7" t="inlineStr">
@@ -1711,7 +1719,7 @@
       </c>
       <c r="E41" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1018% </t>
+          <t xml:space="preserve">0.1022% </t>
         </is>
       </c>
       <c r="F41" s="6" t="n"/>
@@ -1723,22 +1731,22 @@
       </c>
       <c r="B42" s="6" t="inlineStr">
         <is>
-          <t>0x3c2f70019d8d25bf0d3c73a7bba8061a32629659</t>
+          <t>0xb05a41293daf0fa7c71e4e035e2f477299fe10a1</t>
         </is>
       </c>
       <c r="C42" s="7" t="inlineStr">
         <is>
-          <t>101,289,356,765,121</t>
+          <t>101,911,213,220,318</t>
         </is>
       </c>
       <c r="D42" s="7" t="inlineStr">
         <is>
-          <t>101 Trillion</t>
+          <t>102 Trillion</t>
         </is>
       </c>
       <c r="E42" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1013% </t>
+          <t xml:space="preserve">0.1019% </t>
         </is>
       </c>
       <c r="F42" s="6" t="n"/>
@@ -1750,61 +1758,53 @@
       </c>
       <c r="B43" s="6" t="inlineStr">
         <is>
-          <t>0x34db618752319744a4a41e6ba4d5d58b3fffff48</t>
+          <t>0x3c2f70019d8d25bf0d3c73a7bba8061a32629659</t>
         </is>
       </c>
       <c r="C43" s="7" t="inlineStr">
         <is>
-          <t>101,194,321,747,870</t>
+          <t>101,540,766,130,463</t>
         </is>
       </c>
       <c r="D43" s="7" t="inlineStr">
         <is>
-          <t>101 Trillion</t>
+          <t>102 Trillion</t>
         </is>
       </c>
       <c r="E43" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1012% </t>
+          <t xml:space="preserve">0.1015% </t>
         </is>
       </c>
       <c r="F43" s="6" t="n"/>
       <c r="G43" s="6" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="n">
+      <c r="A44" s="6" t="n">
         <v>43</v>
       </c>
-      <c r="B44" s="2" t="inlineStr">
-        <is>
-          <t>0x86437c0875fa78dc98c57bc010ef4ad07bc01715</t>
-        </is>
-      </c>
-      <c r="C44" s="3" t="inlineStr">
-        <is>
-          <t>100,901,274,641,032</t>
-        </is>
-      </c>
-      <c r="D44" s="3" t="inlineStr">
+      <c r="B44" s="6" t="inlineStr">
+        <is>
+          <t>0x34db618752319744a4a41e6ba4d5d58b3fffff48</t>
+        </is>
+      </c>
+      <c r="C44" s="7" t="inlineStr">
+        <is>
+          <t>101,404,824,316,000</t>
+        </is>
+      </c>
+      <c r="D44" s="7" t="inlineStr">
         <is>
           <t>101 Trillion</t>
         </is>
       </c>
-      <c r="E44" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.1009% </t>
-        </is>
-      </c>
-      <c r="F44" s="4" t="inlineStr">
-        <is>
-          <t>5 Trillion Less</t>
-        </is>
-      </c>
-      <c r="G44" s="5" t="inlineStr">
-        <is>
-          <t>4,802,643,483,355</t>
-        </is>
-      </c>
+      <c r="E44" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.1014% </t>
+        </is>
+      </c>
+      <c r="F44" s="6" t="n"/>
+      <c r="G44" s="6" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="6" t="n">
@@ -1844,7 +1844,7 @@
       </c>
       <c r="C46" s="7" t="inlineStr">
         <is>
-          <t>100,225,517,571,181</t>
+          <t>100,314,101,049,252</t>
         </is>
       </c>
       <c r="D46" s="7" t="inlineStr">
@@ -1854,7 +1854,7 @@
       </c>
       <c r="E46" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1002% </t>
+          <t xml:space="preserve">0.1003% </t>
         </is>
       </c>
       <c r="F46" s="6" t="n"/>
@@ -1866,12 +1866,12 @@
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>0x9a7e16cc5d152e60ea52d46d8e422d724bdb4dcf</t>
+          <t>0x86437c0875fa78dc98c57bc010ef4ad07bc01715</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>100,029,293,056,208</t>
+          <t>100,257,594,917,249</t>
         </is>
       </c>
       <c r="D47" s="3" t="inlineStr">
@@ -1881,17 +1881,17 @@
       </c>
       <c r="E47" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1000% </t>
+          <t xml:space="preserve">0.1003% </t>
         </is>
       </c>
       <c r="F47" s="4" t="inlineStr">
         <is>
-          <t>10 Trillion Less</t>
+          <t>5 Trillion Less</t>
         </is>
       </c>
       <c r="G47" s="5" t="inlineStr">
         <is>
-          <t>9,971,007,933,074</t>
+          <t>5,446,323,207,138</t>
         </is>
       </c>
     </row>
@@ -1906,7 +1906,7 @@
       </c>
       <c r="C48" s="7" t="inlineStr">
         <is>
-          <t>96,334,801,227,094</t>
+          <t>96,464,905,379,293</t>
         </is>
       </c>
       <c r="D48" s="7" t="inlineStr">
@@ -1916,7 +1916,7 @@
       </c>
       <c r="E48" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0963% </t>
+          <t xml:space="preserve">0.0965% </t>
         </is>
       </c>
       <c r="F48" s="6" t="n"/>
@@ -1933,7 +1933,7 @@
       </c>
       <c r="C49" s="7" t="inlineStr">
         <is>
-          <t>93,639,853,516,051</t>
+          <t>93,690,259,855,668</t>
         </is>
       </c>
       <c r="D49" s="7" t="inlineStr">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="E49" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0936% </t>
+          <t xml:space="preserve">0.0937% </t>
         </is>
       </c>
       <c r="F49" s="6" t="n"/>
@@ -1957,12 +1957,12 @@
       </c>
       <c r="C51" s="7" t="inlineStr">
         <is>
-          <t>10,698,034,250,153,912</t>
+          <t>10,702,267,846,178,197</t>
         </is>
       </c>
       <c r="D51" s="7" t="inlineStr">
         <is>
-          <t>10698 Trillion</t>
+          <t>10702 Trillion</t>
         </is>
       </c>
       <c r="E51" s="7" t="inlineStr">
@@ -1972,12 +1972,12 @@
       </c>
       <c r="F51" s="6" t="inlineStr">
         <is>
-          <t>-564 Trillion</t>
+          <t>-621 Trillion</t>
         </is>
       </c>
       <c r="G51" s="6" t="inlineStr">
         <is>
-          <t>-564,191,529,119,086</t>
+          <t>-621,053,595,567,372</t>
         </is>
       </c>
     </row>
@@ -2005,12 +2005,12 @@
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>66,091,510,044,183</t>
         </is>
       </c>
       <c r="D54" s="3" t="inlineStr">
         <is>
-          <t>0 Trillion</t>
+          <t>66 Trillion</t>
         </is>
       </c>
       <c r="E54" s="3" t="inlineStr">
@@ -2020,12 +2020,12 @@
       </c>
       <c r="F54" s="4" t="inlineStr">
         <is>
-          <t>182 Trillion Less</t>
+          <t>116 Trillion Less</t>
         </is>
       </c>
       <c r="G54" s="5" t="inlineStr">
         <is>
-          <t>181,610,957,757,469</t>
+          <t>115,519,447,713,286</t>
         </is>
       </c>
     </row>
@@ -2035,12 +2035,12 @@
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>0xf7625178ef07107edc2005a0e5d2fc411573f381</t>
+          <t>0xcc6833974ce5970eac45e7751573c30c7b41a4a5</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>100,034,382</t>
+          <t>162,496</t>
         </is>
       </c>
       <c r="D55" s="3" t="inlineStr">
@@ -2050,17 +2050,17 @@
       </c>
       <c r="E55" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.3574% </t>
+          <t xml:space="preserve">0.1568% </t>
         </is>
       </c>
       <c r="F55" s="4" t="inlineStr">
         <is>
-          <t>357 Trillion Less</t>
+          <t>157 Trillion Less</t>
         </is>
       </c>
       <c r="G55" s="5" t="inlineStr">
         <is>
-          <t>357,439,370,424,982</t>
+          <t>156,814,532,625,452</t>
         </is>
       </c>
     </row>
@@ -2070,12 +2070,12 @@
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>0xcc6833974ce5970eac45e7751573c30c7b41a4a5</t>
+          <t>0x68bae0996364afaa2240f17c2055da0e12193337</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>162,406</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D56" s="3" t="inlineStr">
@@ -2085,17 +2085,17 @@
       </c>
       <c r="E56" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1568% </t>
+          <t xml:space="preserve">0.1057% </t>
         </is>
       </c>
       <c r="F56" s="4" t="inlineStr">
         <is>
-          <t>157 Trillion Less</t>
+          <t>106 Trillion Less</t>
         </is>
       </c>
       <c r="G56" s="5" t="inlineStr">
         <is>
-          <t>156,814,532,625,542</t>
+          <t>105,729,917,987,290</t>
         </is>
       </c>
     </row>
@@ -2105,32 +2105,32 @@
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>0x68bae0996364afaa2240f17c2055da0e12193337</t>
+          <t>0x9a7e16cc5d152e60ea52d46d8e422d724bdb4dcf</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>50,018,904,055,361</t>
         </is>
       </c>
       <c r="D57" s="3" t="inlineStr">
         <is>
-          <t>0 Trillion</t>
+          <t>50 Trillion</t>
         </is>
       </c>
       <c r="E57" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1057% </t>
+          <t xml:space="preserve">0.1100% </t>
         </is>
       </c>
       <c r="F57" s="4" t="inlineStr">
         <is>
-          <t>106 Trillion Less</t>
+          <t>60 Trillion Less</t>
         </is>
       </c>
       <c r="G57" s="5" t="inlineStr">
         <is>
-          <t>105,729,917,987,290</t>
+          <t>59,981,396,933,921</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="C58" s="3" t="inlineStr">
         <is>
-          <t>17,314,313</t>
+          <t>17,323,940</t>
         </is>
       </c>
       <c r="D58" s="3" t="inlineStr">
@@ -2165,7 +2165,7 @@
       </c>
       <c r="G58" s="5" t="inlineStr">
         <is>
-          <t>101,849,600,210,716</t>
+          <t>101,849,600,201,089</t>
         </is>
       </c>
     </row>
@@ -2178,12 +2178,12 @@
       </c>
       <c r="F60" s="4" t="inlineStr">
         <is>
-          <t>-1468 Trillion</t>
+          <t>-1161 Trillion</t>
         </is>
       </c>
       <c r="G60" s="4" t="inlineStr">
         <is>
-          <t>-1,467,635,908,125,085</t>
+          <t>-1,160,948,491,028,410</t>
         </is>
       </c>
     </row>

--- a/whales/holders.xlsx
+++ b/whales/holders.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,7 +512,7 @@
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>771,252,972,389,803</t>
+          <t>771,338,349,766,659</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -532,7 +532,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2,032,957,971,334</t>
+          <t>2,078,062,216,871</t>
         </is>
       </c>
     </row>
@@ -547,7 +547,7 @@
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>606,309,685,319,915</t>
+          <t>606,387,938,172,422</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
@@ -557,7 +557,7 @@
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.6063% </t>
+          <t xml:space="preserve">0.6064% </t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
@@ -567,7 +567,7 @@
       </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
-          <t>1,636,605,871,516</t>
+          <t>1,714,858,724,023</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>605,105,068,592,501</t>
+          <t>605,223,877,549,822</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
@@ -592,7 +592,7 @@
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.6051% </t>
+          <t xml:space="preserve">0.6052% </t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="G4" s="3" t="inlineStr">
         <is>
-          <t>1,627,031,969,070</t>
+          <t>1,745,840,926,391</t>
         </is>
       </c>
     </row>
@@ -617,7 +617,7 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>526,397,380,939,355</t>
+          <t>526,488,987,366,724</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
@@ -627,17 +627,17 @@
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.5264% </t>
+          <t xml:space="preserve">0.5265% </t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1 Trillion More</t>
+          <t>2 Trillion More</t>
         </is>
       </c>
       <c r="G5" s="3" t="inlineStr">
         <is>
-          <t>1,427,114,256,885</t>
+          <t>1,518,720,684,254</t>
         </is>
       </c>
     </row>
@@ -647,158 +647,158 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
+          <t>0x7fcc2410d49222563a5cd46c0ceaffb72cf195d4</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>425,825,652,473,753</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>426 Trillion</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.4258% </t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t>7 Trillion Less</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>7,368,904,519,015</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="inlineStr">
+        <is>
+          <t>0xbd09e0594fbdbc5f73fe5db01bdc3bc2a19ec2d7</t>
+        </is>
+      </c>
+      <c r="C7" s="7" t="inlineStr">
+        <is>
+          <t>420,202,047,920,810</t>
+        </is>
+      </c>
+      <c r="D7" s="7" t="inlineStr">
+        <is>
+          <t>420 Trillion</t>
+        </is>
+      </c>
+      <c r="E7" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.4202% </t>
+        </is>
+      </c>
+      <c r="F7" s="6" t="n"/>
+      <c r="G7" s="6" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>0xac3e1d277c3442ac1c695a369d87004aed308a7d</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>411,684,391,922,364</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>412 Trillion</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.4117% </t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t>9 Trillion Less</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>8,853,453,521,209</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="inlineStr">
+        <is>
+          <t>0x7167d70b2e6b167633356254bf22f5d32aedcd5b</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr">
+        <is>
+          <t>405,920,705,438,135</t>
+        </is>
+      </c>
+      <c r="D9" s="7" t="inlineStr">
+        <is>
+          <t>406 Trillion</t>
+        </is>
+      </c>
+      <c r="E9" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.4059% </t>
+        </is>
+      </c>
+      <c r="F9" s="6" t="n"/>
+      <c r="G9" s="6" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
           <t>0xcdc162e71e7517e94c0c72de16ca6315349d47fc</t>
         </is>
       </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>500,773,662,963,857</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>501 Trillion</t>
-        </is>
-      </c>
-      <c r="E6" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.5008% </t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>29 Trillion Less</t>
-        </is>
-      </c>
-      <c r="G6" s="5" t="inlineStr">
-        <is>
-          <t>29,116,144,941,161</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>0x7fcc2410d49222563a5cd46c0ceaffb72cf195d4</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>425,742,060,428,483</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>426 Trillion</t>
-        </is>
-      </c>
-      <c r="E7" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.4257% </t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>7 Trillion Less</t>
-        </is>
-      </c>
-      <c r="G7" s="5" t="inlineStr">
-        <is>
-          <t>7,437,548,203,305</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6" t="inlineStr">
-        <is>
-          <t>0xbd09e0594fbdbc5f73fe5db01bdc3bc2a19ec2d7</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="inlineStr">
-        <is>
-          <t>420,135,824,768,869</t>
-        </is>
-      </c>
-      <c r="D8" s="7" t="inlineStr">
-        <is>
-          <t>420 Trillion</t>
-        </is>
-      </c>
-      <c r="E8" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.4201% </t>
-        </is>
-      </c>
-      <c r="F8" s="6" t="n"/>
-      <c r="G8" s="6" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>0xac3e1d277c3442ac1c695a369d87004aed308a7d</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>411,603,579,732,127</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>412 Trillion</t>
-        </is>
-      </c>
-      <c r="E9" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.4116% </t>
-        </is>
-      </c>
-      <c r="F9" s="4" t="inlineStr">
-        <is>
-          <t>9 Trillion Less</t>
-        </is>
-      </c>
-      <c r="G9" s="5" t="inlineStr">
-        <is>
-          <t>8,934,265,711,446</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="6" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6" t="inlineStr">
-        <is>
-          <t>0x7167d70b2e6b167633356254bf22f5d32aedcd5b</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="inlineStr">
-        <is>
-          <t>405,830,828,814,248</t>
-        </is>
-      </c>
-      <c r="D10" s="7" t="inlineStr">
-        <is>
-          <t>406 Trillion</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.4058% </t>
-        </is>
-      </c>
-      <c r="F10" s="6" t="n"/>
-      <c r="G10" s="6" t="n"/>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>400,004,303,518,595</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>400 Trillion</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.4000% </t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t>130 Trillion Less</t>
+        </is>
+      </c>
+      <c r="G10" s="5" t="inlineStr">
+        <is>
+          <t>129,914,646,244,981</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -811,7 +811,7 @@
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>373,656,464,612,929</t>
+          <t>373,747,011,993,228</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="G11" s="3" t="inlineStr">
         <is>
-          <t>10,551,610,343,892</t>
+          <t>10,603,838,144,087</t>
         </is>
       </c>
     </row>
@@ -846,27 +846,27 @@
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>344,177,666,332,119</t>
+          <t>370,447,527,939,653</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>344 Trillion</t>
+          <t>370 Trillion</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.3442% </t>
+          <t xml:space="preserve">0.3704% </t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>29 Trillion More</t>
+          <t>56 Trillion More</t>
         </is>
       </c>
       <c r="G12" s="3" t="inlineStr">
         <is>
-          <t>29,496,518,142,735</t>
+          <t>55,766,379,750,269</t>
         </is>
       </c>
     </row>
@@ -881,12 +881,12 @@
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>303,488,035,199,115</t>
+          <t>303,530,484,498,385</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>303 Trillion</t>
+          <t>304 Trillion</t>
         </is>
       </c>
       <c r="E13" s="3" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="G13" s="5" t="inlineStr">
         <is>
-          <t>53,951,435,260,249</t>
+          <t>53,908,985,960,979</t>
         </is>
       </c>
     </row>
@@ -916,7 +916,7 @@
       </c>
       <c r="C14" s="7" t="inlineStr">
         <is>
-          <t>251,009,558,989,462</t>
+          <t>251,178,233,121,536</t>
         </is>
       </c>
       <c r="D14" s="7" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="E14" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.2510% </t>
+          <t xml:space="preserve">0.2512% </t>
         </is>
       </c>
       <c r="F14" s="6" t="n"/>
@@ -943,27 +943,27 @@
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>235,005,957,502,171</t>
+          <t>228,745,447,817,045</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>235 Trillion</t>
+          <t>229 Trillion</t>
         </is>
       </c>
       <c r="E15" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.2350% </t>
+          <t xml:space="preserve">0.2287% </t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t>28 Trillion Less</t>
+          <t>34 Trillion Less</t>
         </is>
       </c>
       <c r="G15" s="5" t="inlineStr">
         <is>
-          <t>27,598,727,836,137</t>
+          <t>33,859,237,521,263</t>
         </is>
       </c>
     </row>
@@ -978,27 +978,27 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>212,599,173,693,892</t>
+          <t>213,636,120,548,283</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>213 Trillion</t>
+          <t>214 Trillion</t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.2126% </t>
+          <t xml:space="preserve">0.2136% </t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5 Trillion More</t>
+          <t>6 Trillion More</t>
         </is>
       </c>
       <c r="G16" s="3" t="inlineStr">
         <is>
-          <t>5,421,588,925,153</t>
+          <t>6,458,535,779,544</t>
         </is>
       </c>
     </row>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="C21" s="7" t="inlineStr">
         <is>
-          <t>173,739,657,749,335</t>
+          <t>173,760,876,253,612</t>
         </is>
       </c>
       <c r="D21" s="7" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="E21" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1737% </t>
+          <t xml:space="preserve">0.1738% </t>
         </is>
       </c>
       <c r="F21" s="6" t="n"/>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C23" s="7" t="inlineStr">
         <is>
-          <t>166,213,871,384,481</t>
+          <t>166,251,459,374,628</t>
         </is>
       </c>
       <c r="D23" s="7" t="inlineStr">
@@ -1193,73 +1193,73 @@
       </c>
       <c r="E23" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1662% </t>
+          <t xml:space="preserve">0.1663% </t>
         </is>
       </c>
       <c r="F23" s="6" t="n"/>
       <c r="G23" s="6" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="6" t="n">
+      <c r="A24" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="6" t="inlineStr">
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>0x4159fcaefd2216a1b581587ca97da9f53e8ba163</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>161,837,394,606,555</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="inlineStr">
+        <is>
+          <t>162 Trillion</t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.1618% </t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>5 Trillion More</t>
+        </is>
+      </c>
+      <c r="G24" s="3" t="inlineStr">
+        <is>
+          <t>5,168,887,226,997</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6" t="inlineStr">
         <is>
           <t>0xbdf119001cf9d44d902bf7d8e283e10ab66ddeea</t>
         </is>
       </c>
-      <c r="C24" s="7" t="inlineStr">
-        <is>
-          <t>161,646,476,329,709</t>
-        </is>
-      </c>
-      <c r="D24" s="7" t="inlineStr">
+      <c r="C25" s="7" t="inlineStr">
+        <is>
+          <t>161,750,386,614,209</t>
+        </is>
+      </c>
+      <c r="D25" s="7" t="inlineStr">
         <is>
           <t>162 Trillion</t>
         </is>
       </c>
-      <c r="E24" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.1616% </t>
-        </is>
-      </c>
-      <c r="F24" s="6" t="n"/>
-      <c r="G24" s="6" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>0x4159fcaefd2216a1b581587ca97da9f53e8ba163</t>
-        </is>
-      </c>
-      <c r="C25" s="3" t="inlineStr">
-        <is>
-          <t>160,376,700,546,127</t>
-        </is>
-      </c>
-      <c r="D25" s="3" t="inlineStr">
-        <is>
-          <t>160 Trillion</t>
-        </is>
-      </c>
-      <c r="E25" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.1604% </t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>10 Trillion More</t>
-        </is>
-      </c>
-      <c r="G25" s="3" t="inlineStr">
-        <is>
-          <t>10,376,256,850,342</t>
-        </is>
-      </c>
+      <c r="E25" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.1618% </t>
+        </is>
+      </c>
+      <c r="F25" s="6" t="n"/>
+      <c r="G25" s="6" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="6" t="n">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>136,988,982,011,992</t>
+          <t>137,002,881,323,760</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="G28" s="5" t="inlineStr">
         <is>
-          <t>11,356,815,851,274</t>
+          <t>11,342,916,539,506</t>
         </is>
       </c>
     </row>
@@ -1388,7 +1388,7 @@
       </c>
       <c r="C30" s="7" t="inlineStr">
         <is>
-          <t>121,774,449,634,287</t>
+          <t>121,782,698,854,653</t>
         </is>
       </c>
       <c r="D30" s="7" t="inlineStr">
@@ -1415,7 +1415,7 @@
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>121,171,724,571,272</t>
+          <t>121,195,085,883,522</t>
         </is>
       </c>
       <c r="D31" s="3" t="inlineStr">
@@ -1435,7 +1435,7 @@
       </c>
       <c r="G31" s="3" t="inlineStr">
         <is>
-          <t>17,100,952,040,935</t>
+          <t>17,124,313,353,185</t>
         </is>
       </c>
     </row>
@@ -1450,7 +1450,7 @@
       </c>
       <c r="C32" s="7" t="inlineStr">
         <is>
-          <t>118,427,896,605,076</t>
+          <t>118,464,087,088,417</t>
         </is>
       </c>
       <c r="D32" s="7" t="inlineStr">
@@ -1460,7 +1460,7 @@
       </c>
       <c r="E32" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1184% </t>
+          <t xml:space="preserve">0.1185% </t>
         </is>
       </c>
       <c r="F32" s="6" t="n"/>
@@ -1477,12 +1477,12 @@
       </c>
       <c r="C33" s="7" t="inlineStr">
         <is>
-          <t>117,484,403,310,482</t>
+          <t>117,503,438,361,705</t>
         </is>
       </c>
       <c r="D33" s="7" t="inlineStr">
         <is>
-          <t>117 Trillion</t>
+          <t>118 Trillion</t>
         </is>
       </c>
       <c r="E33" s="7" t="inlineStr">
@@ -1504,7 +1504,7 @@
       </c>
       <c r="C34" s="7" t="inlineStr">
         <is>
-          <t>116,276,138,664,542</t>
+          <t>116,286,228,127,196</t>
         </is>
       </c>
       <c r="D34" s="7" t="inlineStr">
@@ -1521,39 +1521,31 @@
       <c r="G34" s="6" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n">
+      <c r="A35" s="6" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="2" t="inlineStr">
+      <c r="B35" s="6" t="inlineStr">
         <is>
           <t>0x28e87335c43b9b28d658b6825811744c251f5974</t>
         </is>
       </c>
-      <c r="C35" s="3" t="inlineStr">
-        <is>
-          <t>114,830,869,634,608</t>
-        </is>
-      </c>
-      <c r="D35" s="3" t="inlineStr">
+      <c r="C35" s="7" t="inlineStr">
+        <is>
+          <t>114,852,046,259,466</t>
+        </is>
+      </c>
+      <c r="D35" s="7" t="inlineStr">
         <is>
           <t>115 Trillion</t>
         </is>
       </c>
-      <c r="E35" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.1148% </t>
-        </is>
-      </c>
-      <c r="F35" s="4" t="inlineStr">
-        <is>
-          <t>546 Trillion Less</t>
-        </is>
-      </c>
-      <c r="G35" s="5" t="inlineStr">
-        <is>
-          <t>546,150,118,697,316</t>
-        </is>
-      </c>
+      <c r="E35" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.1149% </t>
+        </is>
+      </c>
+      <c r="F35" s="6" t="n"/>
+      <c r="G35" s="6" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="6" t="n">
@@ -1566,7 +1558,7 @@
       </c>
       <c r="C36" s="7" t="inlineStr">
         <is>
-          <t>111,300,150,061,508</t>
+          <t>111,320,675,565,947</t>
         </is>
       </c>
       <c r="D36" s="7" t="inlineStr">
@@ -1588,32 +1580,32 @@
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>0x74beaeb59500b4486ec3c83b81552279b79c6728</t>
+          <t>0xba8d62918b242917cf67d04c7d68ecaad63df8b3</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
         <is>
-          <t>109,947,509,475,908</t>
+          <t>110,573,944,534,782</t>
         </is>
       </c>
       <c r="D37" s="3" t="inlineStr">
         <is>
-          <t>110 Trillion</t>
+          <t>111 Trillion</t>
         </is>
       </c>
       <c r="E37" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1099% </t>
-        </is>
-      </c>
-      <c r="F37" s="4" t="inlineStr">
-        <is>
-          <t>5 Trillion Less</t>
-        </is>
-      </c>
-      <c r="G37" s="5" t="inlineStr">
-        <is>
-          <t>5,248,179,524,280</t>
+          <t xml:space="preserve">0.1106% </t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>18 Trillion More</t>
+        </is>
+      </c>
+      <c r="G37" s="3" t="inlineStr">
+        <is>
+          <t>18,367,712,741,377</t>
         </is>
       </c>
     </row>
@@ -1623,22 +1615,22 @@
       </c>
       <c r="B38" s="6" t="inlineStr">
         <is>
-          <t>0xb2c5ae080a236fe89a87fdbd1f9d58ad4b57c6b2</t>
+          <t>0x9648c280e112946f93bacbd0fd1dc81abb557908</t>
         </is>
       </c>
       <c r="C38" s="7" t="inlineStr">
         <is>
-          <t>107,819,604,080,873</t>
+          <t>110,167,893,251,541</t>
         </is>
       </c>
       <c r="D38" s="7" t="inlineStr">
         <is>
-          <t>108 Trillion</t>
+          <t>110 Trillion</t>
         </is>
       </c>
       <c r="E38" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1078% </t>
+          <t xml:space="preserve">0.1102% </t>
         </is>
       </c>
       <c r="F38" s="6" t="n"/>
@@ -1650,22 +1642,22 @@
       </c>
       <c r="B39" s="6" t="inlineStr">
         <is>
-          <t>0x9648c280e112946f93bacbd0fd1dc81abb557908</t>
+          <t>0xb2c5ae080a236fe89a87fdbd1f9d58ad4b57c6b2</t>
         </is>
       </c>
       <c r="C39" s="7" t="inlineStr">
         <is>
-          <t>106,613,759,437,750</t>
+          <t>107,839,487,502,017</t>
         </is>
       </c>
       <c r="D39" s="7" t="inlineStr">
         <is>
-          <t>107 Trillion</t>
+          <t>108 Trillion</t>
         </is>
       </c>
       <c r="E39" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1066% </t>
+          <t xml:space="preserve">0.1078% </t>
         </is>
       </c>
       <c r="F39" s="6" t="n"/>
@@ -1682,7 +1674,7 @@
       </c>
       <c r="C40" s="7" t="inlineStr">
         <is>
-          <t>102,821,005,584,387</t>
+          <t>102,884,940,777,300</t>
         </is>
       </c>
       <c r="D40" s="7" t="inlineStr">
@@ -1692,7 +1684,7 @@
       </c>
       <c r="E40" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1028% </t>
+          <t xml:space="preserve">0.1029% </t>
         </is>
       </c>
       <c r="F40" s="6" t="n"/>
@@ -1704,12 +1696,12 @@
       </c>
       <c r="B41" s="6" t="inlineStr">
         <is>
-          <t>0xba8d62918b242917cf67d04c7d68ecaad63df8b3</t>
+          <t>0xb05a41293daf0fa7c71e4e035e2f477299fe10a1</t>
         </is>
       </c>
       <c r="C41" s="7" t="inlineStr">
         <is>
-          <t>102,217,417,950,947</t>
+          <t>101,911,213,220,318</t>
         </is>
       </c>
       <c r="D41" s="7" t="inlineStr">
@@ -1719,38 +1711,46 @@
       </c>
       <c r="E41" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1022% </t>
+          <t xml:space="preserve">0.1019% </t>
         </is>
       </c>
       <c r="F41" s="6" t="n"/>
       <c r="G41" s="6" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="6" t="n">
+      <c r="A42" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="B42" s="6" t="inlineStr">
-        <is>
-          <t>0xb05a41293daf0fa7c71e4e035e2f477299fe10a1</t>
-        </is>
-      </c>
-      <c r="C42" s="7" t="inlineStr">
-        <is>
-          <t>101,911,213,220,318</t>
-        </is>
-      </c>
-      <c r="D42" s="7" t="inlineStr">
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>0x74beaeb59500b4486ec3c83b81552279b79c6728</t>
+        </is>
+      </c>
+      <c r="C42" s="3" t="inlineStr">
+        <is>
+          <t>101,687,264,332,081</t>
+        </is>
+      </c>
+      <c r="D42" s="3" t="inlineStr">
         <is>
           <t>102 Trillion</t>
         </is>
       </c>
-      <c r="E42" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.1019% </t>
-        </is>
-      </c>
-      <c r="F42" s="6" t="n"/>
-      <c r="G42" s="6" t="n"/>
+      <c r="E42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.1017% </t>
+        </is>
+      </c>
+      <c r="F42" s="4" t="inlineStr">
+        <is>
+          <t>14 Trillion Less</t>
+        </is>
+      </c>
+      <c r="G42" s="5" t="inlineStr">
+        <is>
+          <t>13,508,424,668,107</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="6" t="n">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="C44" s="7" t="inlineStr">
         <is>
-          <t>101,404,824,316,000</t>
+          <t>101,414,549,934,496</t>
         </is>
       </c>
       <c r="D44" s="7" t="inlineStr">
@@ -1861,39 +1861,31 @@
       <c r="G46" s="6" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="n">
+      <c r="A47" s="6" t="n">
         <v>46</v>
       </c>
-      <c r="B47" s="2" t="inlineStr">
-        <is>
-          <t>0x86437c0875fa78dc98c57bc010ef4ad07bc01715</t>
-        </is>
-      </c>
-      <c r="C47" s="3" t="inlineStr">
-        <is>
-          <t>100,257,594,917,249</t>
-        </is>
-      </c>
-      <c r="D47" s="3" t="inlineStr">
-        <is>
-          <t>100 Trillion</t>
-        </is>
-      </c>
-      <c r="E47" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.1003% </t>
-        </is>
-      </c>
-      <c r="F47" s="4" t="inlineStr">
-        <is>
-          <t>5 Trillion Less</t>
-        </is>
-      </c>
-      <c r="G47" s="5" t="inlineStr">
-        <is>
-          <t>5,446,323,207,138</t>
-        </is>
-      </c>
+      <c r="B47" s="6" t="inlineStr">
+        <is>
+          <t>0xf4eaa3a2eb5e8e654eabc030f4395062fe597db3</t>
+        </is>
+      </c>
+      <c r="C47" s="7" t="inlineStr">
+        <is>
+          <t>96,464,905,379,293</t>
+        </is>
+      </c>
+      <c r="D47" s="7" t="inlineStr">
+        <is>
+          <t>96 Trillion</t>
+        </is>
+      </c>
+      <c r="E47" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.0965% </t>
+        </is>
+      </c>
+      <c r="F47" s="6" t="n"/>
+      <c r="G47" s="6" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="6" t="n">
@@ -1901,22 +1893,22 @@
       </c>
       <c r="B48" s="6" t="inlineStr">
         <is>
-          <t>0xf4eaa3a2eb5e8e654eabc030f4395062fe597db3</t>
+          <t>0x302c44b648f5a84191f08551be26a2d2456a1fa1</t>
         </is>
       </c>
       <c r="C48" s="7" t="inlineStr">
         <is>
-          <t>96,464,905,379,293</t>
+          <t>93,690,259,855,668</t>
         </is>
       </c>
       <c r="D48" s="7" t="inlineStr">
         <is>
-          <t>96 Trillion</t>
+          <t>94 Trillion</t>
         </is>
       </c>
       <c r="E48" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0965% </t>
+          <t xml:space="preserve">0.0937% </t>
         </is>
       </c>
       <c r="F48" s="6" t="n"/>
@@ -1928,22 +1920,22 @@
       </c>
       <c r="B49" s="6" t="inlineStr">
         <is>
-          <t>0x302c44b648f5a84191f08551be26a2d2456a1fa1</t>
+          <t>0xf8a002718fbba65dd1ca19e7027c943c54e20220</t>
         </is>
       </c>
       <c r="C49" s="7" t="inlineStr">
         <is>
-          <t>93,690,259,855,668</t>
+          <t>90,240,325,249,575</t>
         </is>
       </c>
       <c r="D49" s="7" t="inlineStr">
         <is>
-          <t>94 Trillion</t>
+          <t>90 Trillion</t>
         </is>
       </c>
       <c r="E49" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0937% </t>
+          <t xml:space="preserve">0.0902% </t>
         </is>
       </c>
       <c r="F49" s="6" t="n"/>
@@ -1957,27 +1949,27 @@
       </c>
       <c r="C51" s="7" t="inlineStr">
         <is>
-          <t>10,702,267,846,178,197</t>
+          <t>10,619,043,633,575,694</t>
         </is>
       </c>
       <c r="D51" s="7" t="inlineStr">
         <is>
-          <t>10702 Trillion</t>
+          <t>10619 Trillion</t>
         </is>
       </c>
       <c r="E51" s="7" t="inlineStr">
         <is>
-          <t>10.7%</t>
+          <t>10.62%</t>
         </is>
       </c>
       <c r="F51" s="6" t="inlineStr">
         <is>
-          <t>-621 Trillion</t>
+          <t>-144 Trillion</t>
         </is>
       </c>
       <c r="G51" s="6" t="inlineStr">
         <is>
-          <t>-621,053,595,567,372</t>
+          <t>-143,694,092,134,990</t>
         </is>
       </c>
     </row>
@@ -2000,32 +1992,32 @@
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>0x672c36fa22029369490bb5e33e6d16a7e1309c1e</t>
+          <t>0x86437c0875fa78dc98c57bc010ef4ad07bc01715</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>66,091,510,044,183</t>
+          <t>70,267,983,165,489</t>
         </is>
       </c>
       <c r="D54" s="3" t="inlineStr">
         <is>
-          <t>66 Trillion</t>
+          <t>70 Trillion</t>
         </is>
       </c>
       <c r="E54" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1816% </t>
+          <t xml:space="preserve">0.1057% </t>
         </is>
       </c>
       <c r="F54" s="4" t="inlineStr">
         <is>
-          <t>116 Trillion Less</t>
+          <t>35 Trillion Less</t>
         </is>
       </c>
       <c r="G54" s="5" t="inlineStr">
         <is>
-          <t>115,519,447,713,286</t>
+          <t>35,435,934,958,898</t>
         </is>
       </c>
     </row>
@@ -2040,7 +2032,7 @@
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>162,496</t>
+          <t>162,517</t>
         </is>
       </c>
       <c r="D55" s="3" t="inlineStr">
@@ -2060,7 +2052,7 @@
       </c>
       <c r="G55" s="5" t="inlineStr">
         <is>
-          <t>156,814,532,625,452</t>
+          <t>156,814,532,625,431</t>
         </is>
       </c>
     </row>
@@ -2070,32 +2062,32 @@
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>0x68bae0996364afaa2240f17c2055da0e12193337</t>
+          <t>0x672c36fa22029369490bb5e33e6d16a7e1309c1e</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>66,099,976,230,641</t>
         </is>
       </c>
       <c r="D56" s="3" t="inlineStr">
         <is>
-          <t>0 Trillion</t>
+          <t>66 Trillion</t>
         </is>
       </c>
       <c r="E56" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1057% </t>
+          <t xml:space="preserve">0.1700% </t>
         </is>
       </c>
       <c r="F56" s="4" t="inlineStr">
         <is>
-          <t>106 Trillion Less</t>
+          <t>104 Trillion Less</t>
         </is>
       </c>
       <c r="G56" s="5" t="inlineStr">
         <is>
-          <t>105,729,917,987,290</t>
+          <t>103,905,313,781,307</t>
         </is>
       </c>
     </row>
@@ -2105,32 +2097,32 @@
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>0x9a7e16cc5d152e60ea52d46d8e422d724bdb4dcf</t>
+          <t>0x68bae0996364afaa2240f17c2055da0e12193337</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
         <is>
-          <t>50,018,904,055,361</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D57" s="3" t="inlineStr">
         <is>
-          <t>50 Trillion</t>
+          <t>0 Trillion</t>
         </is>
       </c>
       <c r="E57" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1100% </t>
+          <t xml:space="preserve">0.1057% </t>
         </is>
       </c>
       <c r="F57" s="4" t="inlineStr">
         <is>
-          <t>60 Trillion Less</t>
+          <t>106 Trillion Less</t>
         </is>
       </c>
       <c r="G57" s="5" t="inlineStr">
         <is>
-          <t>59,981,396,933,921</t>
+          <t>105,729,917,987,290</t>
         </is>
       </c>
     </row>
@@ -2140,50 +2132,85 @@
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
+          <t>0x9a7e16cc5d152e60ea52d46d8e422d724bdb4dcf</t>
+        </is>
+      </c>
+      <c r="C58" s="3" t="inlineStr">
+        <is>
+          <t>50,025,311,374,060</t>
+        </is>
+      </c>
+      <c r="D58" s="3" t="inlineStr">
+        <is>
+          <t>50 Trillion</t>
+        </is>
+      </c>
+      <c r="E58" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.1100% </t>
+        </is>
+      </c>
+      <c r="F58" s="4" t="inlineStr">
+        <is>
+          <t>60 Trillion Less</t>
+        </is>
+      </c>
+      <c r="G58" s="5" t="inlineStr">
+        <is>
+          <t>59,974,989,615,222</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B59" s="2" t="inlineStr">
+        <is>
           <t>0xb762780fa3c41fee56387607135b74b37dd85d3c</t>
         </is>
       </c>
-      <c r="C58" s="3" t="inlineStr">
-        <is>
-          <t>17,323,940</t>
-        </is>
-      </c>
-      <c r="D58" s="3" t="inlineStr">
+      <c r="C59" s="3" t="inlineStr">
+        <is>
+          <t>17,326,159</t>
+        </is>
+      </c>
+      <c r="D59" s="3" t="inlineStr">
         <is>
           <t>0 Trillion</t>
         </is>
       </c>
-      <c r="E58" s="3" t="inlineStr">
+      <c r="E59" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">0.1018% </t>
         </is>
       </c>
-      <c r="F58" s="4" t="inlineStr">
+      <c r="F59" s="4" t="inlineStr">
         <is>
           <t>102 Trillion Less</t>
         </is>
       </c>
-      <c r="G58" s="5" t="inlineStr">
-        <is>
-          <t>101,849,600,201,089</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="D60" s="4" t="n"/>
-      <c r="E60" s="5" t="inlineStr">
+      <c r="G59" s="5" t="inlineStr">
+        <is>
+          <t>101,849,600,198,870</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="D61" s="4" t="n"/>
+      <c r="E61" s="5" t="inlineStr">
         <is>
           <t>Total loss / gain from all whales</t>
         </is>
       </c>
-      <c r="F60" s="4" t="inlineStr">
-        <is>
-          <t>-1161 Trillion</t>
-        </is>
-      </c>
-      <c r="G60" s="4" t="inlineStr">
-        <is>
-          <t>-1,160,948,491,028,410</t>
+      <c r="F61" s="4" t="inlineStr">
+        <is>
+          <t>-707 Trillion</t>
+        </is>
+      </c>
+      <c r="G61" s="4" t="inlineStr">
+        <is>
+          <t>-707,404,381,302,008</t>
         </is>
       </c>
     </row>

--- a/whales/holders.xlsx
+++ b/whales/holders.xlsx
@@ -70,16 +70,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,7 +512,7 @@
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>771,338,349,766,659</t>
+          <t>771,461,275,870,461</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -522,19 +522,11 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.7713% </t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>2 Trillion More</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>2,078,062,216,871</t>
-        </is>
-      </c>
+          <t xml:space="preserve">0.7715% </t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -547,7 +539,7 @@
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>606,387,938,172,422</t>
+          <t>606,484,249,445,932</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
@@ -557,19 +549,11 @@
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.6064% </t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>2 Trillion More</t>
-        </is>
-      </c>
-      <c r="G3" s="3" t="inlineStr">
-        <is>
-          <t>1,714,858,724,023</t>
-        </is>
-      </c>
+          <t xml:space="preserve">0.6065% </t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -582,7 +566,7 @@
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>605,223,877,549,822</t>
+          <t>605,301,759,422,925</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
@@ -592,19 +576,11 @@
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.6052% </t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>2 Trillion More</t>
-        </is>
-      </c>
-      <c r="G4" s="3" t="inlineStr">
-        <is>
-          <t>1,745,840,926,391</t>
-        </is>
-      </c>
+          <t xml:space="preserve">0.6053% </t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="n"/>
+      <c r="G4" s="2" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -617,29 +593,21 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>526,488,987,366,724</t>
+          <t>526,556,737,417,614</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>526 Trillion</t>
+          <t>527 Trillion</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.5265% </t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>2 Trillion More</t>
-        </is>
-      </c>
-      <c r="G5" s="3" t="inlineStr">
-        <is>
-          <t>1,518,720,684,254</t>
-        </is>
-      </c>
+          <t xml:space="preserve">0.5266% </t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="n"/>
+      <c r="G5" s="2" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -652,7 +620,7 @@
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>425,825,652,473,753</t>
+          <t>425,880,451,445,139</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
@@ -662,141 +630,133 @@
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.4258% </t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>7 Trillion Less</t>
-        </is>
-      </c>
-      <c r="G6" s="5" t="inlineStr">
-        <is>
-          <t>7,368,904,519,015</t>
-        </is>
-      </c>
+          <t xml:space="preserve">0.4259% </t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="n"/>
+      <c r="G6" s="2" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="n">
+      <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>0xbd09e0594fbdbc5f73fe5db01bdc3bc2a19ec2d7</t>
         </is>
       </c>
-      <c r="C7" s="7" t="inlineStr">
-        <is>
-          <t>420,202,047,920,810</t>
-        </is>
-      </c>
-      <c r="D7" s="7" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>420,255,896,516,838</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
         <is>
           <t>420 Trillion</t>
         </is>
       </c>
-      <c r="E7" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.4202% </t>
-        </is>
-      </c>
-      <c r="F7" s="6" t="n"/>
-      <c r="G7" s="6" t="n"/>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.4203% </t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="n"/>
+      <c r="G7" s="2" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="B8" s="4" t="inlineStr">
         <is>
           <t>0xac3e1d277c3442ac1c695a369d87004aed308a7d</t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>411,684,391,922,364</t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>412 Trillion</t>
-        </is>
-      </c>
-      <c r="E8" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.4117% </t>
-        </is>
-      </c>
-      <c r="F8" s="4" t="inlineStr">
-        <is>
-          <t>9 Trillion Less</t>
-        </is>
-      </c>
-      <c r="G8" s="5" t="inlineStr">
-        <is>
-          <t>8,853,453,521,209</t>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>407,973,267,704,255</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>408 Trillion</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.4080% </t>
+        </is>
+      </c>
+      <c r="F8" s="6" t="inlineStr">
+        <is>
+          <t>4 Trillion Less</t>
+        </is>
+      </c>
+      <c r="G8" s="7" t="inlineStr">
+        <is>
+          <t>3,630,312,027,872</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="n">
+      <c r="A9" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="inlineStr">
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>0x7167d70b2e6b167633356254bf22f5d32aedcd5b</t>
         </is>
       </c>
-      <c r="C9" s="7" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
         <is>
           <t>405,920,705,438,135</t>
         </is>
       </c>
-      <c r="D9" s="7" t="inlineStr">
+      <c r="D9" s="3" t="inlineStr">
         <is>
           <t>406 Trillion</t>
         </is>
       </c>
-      <c r="E9" s="7" t="inlineStr">
+      <c r="E9" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">0.4059% </t>
         </is>
       </c>
-      <c r="F9" s="6" t="n"/>
-      <c r="G9" s="6" t="n"/>
+      <c r="F9" s="2" t="n"/>
+      <c r="G9" s="2" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="B10" s="4" t="inlineStr">
         <is>
           <t>0xcdc162e71e7517e94c0c72de16ca6315349d47fc</t>
         </is>
       </c>
-      <c r="C10" s="3" t="inlineStr">
-        <is>
-          <t>400,004,303,518,595</t>
-        </is>
-      </c>
-      <c r="D10" s="3" t="inlineStr">
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>400,022,530,355,562</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
         <is>
           <t>400 Trillion</t>
         </is>
       </c>
-      <c r="E10" s="3" t="inlineStr">
+      <c r="E10" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">0.4000% </t>
         </is>
       </c>
-      <c r="F10" s="4" t="inlineStr">
-        <is>
-          <t>130 Trillion Less</t>
-        </is>
-      </c>
-      <c r="G10" s="5" t="inlineStr">
-        <is>
-          <t>129,914,646,244,981</t>
+      <c r="F10" s="6" t="inlineStr">
+        <is>
+          <t>101 Trillion Less</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="inlineStr">
+        <is>
+          <t>100,751,132,608,295</t>
         </is>
       </c>
     </row>
@@ -811,7 +771,7 @@
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>373,747,011,993,228</t>
+          <t>373,773,226,281,206</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
@@ -821,213 +781,205 @@
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.3737% </t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>11 Trillion More</t>
-        </is>
-      </c>
-      <c r="G11" s="3" t="inlineStr">
-        <is>
-          <t>10,603,838,144,087</t>
-        </is>
-      </c>
+          <t xml:space="preserve">0.3738% </t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="n"/>
+      <c r="G11" s="2" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="inlineStr">
+      <c r="B12" s="4" t="inlineStr">
         <is>
           <t>0x7b11f31fc0d0a79717ec025d411ac5e899ac7116</t>
         </is>
       </c>
-      <c r="C12" s="3" t="inlineStr">
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>370,447,527,939,653</t>
         </is>
       </c>
-      <c r="D12" s="3" t="inlineStr">
+      <c r="D12" s="5" t="inlineStr">
         <is>
           <t>370 Trillion</t>
         </is>
       </c>
-      <c r="E12" s="3" t="inlineStr">
+      <c r="E12" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">0.3704% </t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>56 Trillion More</t>
-        </is>
-      </c>
-      <c r="G12" s="3" t="inlineStr">
-        <is>
-          <t>55,766,379,750,269</t>
+      <c r="F12" s="4" t="inlineStr">
+        <is>
+          <t>26 Trillion More</t>
+        </is>
+      </c>
+      <c r="G12" s="5" t="inlineStr">
+        <is>
+          <t>26,269,861,607,534</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="inlineStr">
+      <c r="B13" s="4" t="inlineStr">
         <is>
           <t>0xf7625178ef07107edc2005a0e5d2fc411573f381</t>
         </is>
       </c>
-      <c r="C13" s="3" t="inlineStr">
-        <is>
-          <t>303,530,484,498,385</t>
-        </is>
-      </c>
-      <c r="D13" s="3" t="inlineStr">
-        <is>
-          <t>304 Trillion</t>
-        </is>
-      </c>
-      <c r="E13" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.3035% </t>
-        </is>
-      </c>
-      <c r="F13" s="4" t="inlineStr">
-        <is>
-          <t>54 Trillion Less</t>
-        </is>
-      </c>
-      <c r="G13" s="5" t="inlineStr">
-        <is>
-          <t>53,908,985,960,979</t>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>294,423,935,620,043</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
+        <is>
+          <t>294 Trillion</t>
+        </is>
+      </c>
+      <c r="E13" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.2944% </t>
+        </is>
+      </c>
+      <c r="F13" s="6" t="inlineStr">
+        <is>
+          <t>9 Trillion Less</t>
+        </is>
+      </c>
+      <c r="G13" s="7" t="inlineStr">
+        <is>
+          <t>9,064,099,579,072</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="n">
+      <c r="A14" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="inlineStr">
+      <c r="B14" s="2" t="inlineStr">
         <is>
           <t>0x924e8fc81484781b8057db784266017fce1af136</t>
         </is>
       </c>
-      <c r="C14" s="7" t="inlineStr">
+      <c r="C14" s="3" t="inlineStr">
         <is>
           <t>251,178,233,121,536</t>
         </is>
       </c>
-      <c r="D14" s="7" t="inlineStr">
+      <c r="D14" s="3" t="inlineStr">
         <is>
           <t>251 Trillion</t>
         </is>
       </c>
-      <c r="E14" s="7" t="inlineStr">
+      <c r="E14" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">0.2512% </t>
         </is>
       </c>
-      <c r="F14" s="6" t="n"/>
-      <c r="G14" s="6" t="n"/>
+      <c r="F14" s="2" t="n"/>
+      <c r="G14" s="2" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
+      <c r="A15" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="B15" s="4" t="inlineStr">
         <is>
           <t>0xd96622a9099d758f8d6664ae702a59e9d548ed23</t>
         </is>
       </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>228,745,447,817,045</t>
-        </is>
-      </c>
-      <c r="D15" s="3" t="inlineStr">
-        <is>
-          <t>229 Trillion</t>
-        </is>
-      </c>
-      <c r="E15" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.2287% </t>
-        </is>
-      </c>
-      <c r="F15" s="4" t="inlineStr">
-        <is>
-          <t>34 Trillion Less</t>
-        </is>
-      </c>
-      <c r="G15" s="5" t="inlineStr">
-        <is>
-          <t>33,859,237,521,263</t>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>225,009,186,968,837</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="inlineStr">
+        <is>
+          <t>225 Trillion</t>
+        </is>
+      </c>
+      <c r="E15" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.2250% </t>
+        </is>
+      </c>
+      <c r="F15" s="6" t="inlineStr">
+        <is>
+          <t>10 Trillion Less</t>
+        </is>
+      </c>
+      <c r="G15" s="7" t="inlineStr">
+        <is>
+          <t>9,996,770,533,334</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
+      <c r="A16" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="inlineStr">
+      <c r="B16" s="4" t="inlineStr">
         <is>
           <t>0xfdd50de023c9a705d9086bf821d15c7450ee93bf</t>
         </is>
       </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>213,636,120,548,283</t>
-        </is>
-      </c>
-      <c r="D16" s="3" t="inlineStr">
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>213,683,586,716,116</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="inlineStr">
         <is>
           <t>214 Trillion</t>
         </is>
       </c>
-      <c r="E16" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.2136% </t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>6 Trillion More</t>
-        </is>
-      </c>
-      <c r="G16" s="3" t="inlineStr">
-        <is>
-          <t>6,458,535,779,544</t>
+      <c r="E16" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.2137% </t>
+        </is>
+      </c>
+      <c r="F16" s="4" t="inlineStr">
+        <is>
+          <t>1 Trillion More</t>
+        </is>
+      </c>
+      <c r="G16" s="5" t="inlineStr">
+        <is>
+          <t>1,084,413,022,224</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="n">
+      <c r="A17" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="inlineStr">
+      <c r="B17" s="2" t="inlineStr">
         <is>
           <t>0x7146f34d166379b4ab5220f5eefd7c79835a3c04</t>
         </is>
       </c>
-      <c r="C17" s="7" t="inlineStr">
-        <is>
-          <t>196,225,205,892,679</t>
-        </is>
-      </c>
-      <c r="D17" s="7" t="inlineStr">
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>196,285,254,150,828</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
         <is>
           <t>196 Trillion</t>
         </is>
       </c>
-      <c r="E17" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.1962% </t>
-        </is>
-      </c>
-      <c r="F17" s="6" t="n"/>
-      <c r="G17" s="6" t="n"/>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.1963% </t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="n"/>
+      <c r="G17" s="2" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1040,7 +992,7 @@
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>194,383,262,980,733</t>
+          <t>194,466,626,545,802</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
@@ -1050,154 +1002,146 @@
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1944% </t>
-        </is>
-      </c>
-      <c r="F18" s="4" t="inlineStr">
-        <is>
-          <t>5 Trillion Less</t>
-        </is>
-      </c>
-      <c r="G18" s="5" t="inlineStr">
-        <is>
-          <t>5,484,672,706,928</t>
-        </is>
-      </c>
+          <t xml:space="preserve">0.1945% </t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="n"/>
+      <c r="G18" s="2" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="6" t="n">
+      <c r="A19" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="inlineStr">
+      <c r="B19" s="2" t="inlineStr">
         <is>
           <t>0x73149b3cd5e1b8536747048259419147e81a71a9</t>
         </is>
       </c>
-      <c r="C19" s="7" t="inlineStr">
-        <is>
-          <t>187,436,850,472,173</t>
-        </is>
-      </c>
-      <c r="D19" s="7" t="inlineStr">
-        <is>
-          <t>187 Trillion</t>
-        </is>
-      </c>
-      <c r="E19" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.1874% </t>
-        </is>
-      </c>
-      <c r="F19" s="6" t="n"/>
-      <c r="G19" s="6" t="n"/>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>187,514,951,867,350</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>188 Trillion</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.1875% </t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="n"/>
+      <c r="G19" s="2" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="n">
+      <c r="A20" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="inlineStr">
+      <c r="B20" s="2" t="inlineStr">
         <is>
           <t>0x497e289791fc2c2b355c259d9516f079d9b52a63</t>
         </is>
       </c>
-      <c r="C20" s="7" t="inlineStr">
+      <c r="C20" s="3" t="inlineStr">
         <is>
           <t>179,508,184,018,389</t>
         </is>
       </c>
-      <c r="D20" s="7" t="inlineStr">
+      <c r="D20" s="3" t="inlineStr">
         <is>
           <t>180 Trillion</t>
         </is>
       </c>
-      <c r="E20" s="7" t="inlineStr">
+      <c r="E20" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">0.1795% </t>
         </is>
       </c>
-      <c r="F20" s="6" t="n"/>
-      <c r="G20" s="6" t="n"/>
+      <c r="F20" s="2" t="n"/>
+      <c r="G20" s="2" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="6" t="n">
+      <c r="A21" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="inlineStr">
+      <c r="B21" s="2" t="inlineStr">
         <is>
           <t>0x0932767b51f1faedc5a86fb935eec8032f62eea8</t>
         </is>
       </c>
-      <c r="C21" s="7" t="inlineStr">
-        <is>
-          <t>173,760,876,253,612</t>
-        </is>
-      </c>
-      <c r="D21" s="7" t="inlineStr">
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>173,804,806,220,280</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
         <is>
           <t>174 Trillion</t>
         </is>
       </c>
-      <c r="E21" s="7" t="inlineStr">
+      <c r="E21" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">0.1738% </t>
         </is>
       </c>
-      <c r="F21" s="6" t="n"/>
-      <c r="G21" s="6" t="n"/>
+      <c r="F21" s="2" t="n"/>
+      <c r="G21" s="2" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="6" t="n">
+      <c r="A22" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="6" t="inlineStr">
+      <c r="B22" s="2" t="inlineStr">
         <is>
           <t>0xf3f83f6a5830e55b45b3c44010be0481baa1b9be</t>
         </is>
       </c>
-      <c r="C22" s="7" t="inlineStr">
-        <is>
-          <t>170,989,579,495,519</t>
-        </is>
-      </c>
-      <c r="D22" s="7" t="inlineStr">
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>171,326,679,373,107</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
         <is>
           <t>171 Trillion</t>
         </is>
       </c>
-      <c r="E22" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.1710% </t>
-        </is>
-      </c>
-      <c r="F22" s="6" t="n"/>
-      <c r="G22" s="6" t="n"/>
+      <c r="E22" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.1713% </t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="n"/>
+      <c r="G22" s="2" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="6" t="n">
+      <c r="A23" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="inlineStr">
+      <c r="B23" s="2" t="inlineStr">
         <is>
           <t>0x0c706e89e383ca020cd5b1d1ffc4cd17a810a2d5</t>
         </is>
       </c>
-      <c r="C23" s="7" t="inlineStr">
-        <is>
-          <t>166,251,459,374,628</t>
-        </is>
-      </c>
-      <c r="D23" s="7" t="inlineStr">
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>166,275,790,927,958</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
         <is>
           <t>166 Trillion</t>
         </is>
       </c>
-      <c r="E23" s="7" t="inlineStr">
+      <c r="E23" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">0.1663% </t>
         </is>
       </c>
-      <c r="F23" s="6" t="n"/>
-      <c r="G23" s="6" t="n"/>
+      <c r="F23" s="2" t="n"/>
+      <c r="G23" s="2" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1205,115 +1149,115 @@
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
+          <t>0xbdf119001cf9d44d902bf7d8e283e10ab66ddeea</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>161,778,581,483,799</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="inlineStr">
+        <is>
+          <t>162 Trillion</t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.1618% </t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="n"/>
+      <c r="G24" s="2" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>0x7b5b9b8d134bec76023cd6c20358d38714cc5c58</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>154,051,941,018,669</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>154 Trillion</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.1541% </t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="n"/>
+      <c r="G25" s="2" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>0x1ae48253b364374d3db52de311302fc501b87895</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>153,103,003,145,466</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="inlineStr">
+        <is>
+          <t>153 Trillion</t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.1531% </t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="n"/>
+      <c r="G26" s="2" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
           <t>0x4159fcaefd2216a1b581587ca97da9f53e8ba163</t>
         </is>
       </c>
-      <c r="C24" s="3" t="inlineStr">
-        <is>
-          <t>161,837,394,606,555</t>
-        </is>
-      </c>
-      <c r="D24" s="3" t="inlineStr">
-        <is>
-          <t>162 Trillion</t>
-        </is>
-      </c>
-      <c r="E24" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.1618% </t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>5 Trillion More</t>
-        </is>
-      </c>
-      <c r="G24" s="3" t="inlineStr">
-        <is>
-          <t>5,168,887,226,997</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="6" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" s="6" t="inlineStr">
-        <is>
-          <t>0xbdf119001cf9d44d902bf7d8e283e10ab66ddeea</t>
-        </is>
-      </c>
-      <c r="C25" s="7" t="inlineStr">
-        <is>
-          <t>161,750,386,614,209</t>
-        </is>
-      </c>
-      <c r="D25" s="7" t="inlineStr">
-        <is>
-          <t>162 Trillion</t>
-        </is>
-      </c>
-      <c r="E25" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.1618% </t>
-        </is>
-      </c>
-      <c r="F25" s="6" t="n"/>
-      <c r="G25" s="6" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="6" t="n">
-        <v>25</v>
-      </c>
-      <c r="B26" s="6" t="inlineStr">
-        <is>
-          <t>0x7b5b9b8d134bec76023cd6c20358d38714cc5c58</t>
-        </is>
-      </c>
-      <c r="C26" s="7" t="inlineStr">
-        <is>
-          <t>154,051,941,018,669</t>
-        </is>
-      </c>
-      <c r="D26" s="7" t="inlineStr">
-        <is>
-          <t>154 Trillion</t>
-        </is>
-      </c>
-      <c r="E26" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.1541% </t>
-        </is>
-      </c>
-      <c r="F26" s="6" t="n"/>
-      <c r="G26" s="6" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="6" t="n">
-        <v>26</v>
-      </c>
-      <c r="B27" s="6" t="inlineStr">
-        <is>
-          <t>0x1ae48253b364374d3db52de311302fc501b87895</t>
-        </is>
-      </c>
-      <c r="C27" s="7" t="inlineStr">
-        <is>
-          <t>153,103,003,145,466</t>
-        </is>
-      </c>
-      <c r="D27" s="7" t="inlineStr">
-        <is>
-          <t>153 Trillion</t>
-        </is>
-      </c>
-      <c r="E27" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.1531% </t>
-        </is>
-      </c>
-      <c r="F27" s="6" t="n"/>
-      <c r="G27" s="6" t="n"/>
+      <c r="C27" s="5" t="inlineStr">
+        <is>
+          <t>140,000,280,055,919</t>
+        </is>
+      </c>
+      <c r="D27" s="5" t="inlineStr">
+        <is>
+          <t>140 Trillion</t>
+        </is>
+      </c>
+      <c r="E27" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.1400% </t>
+        </is>
+      </c>
+      <c r="F27" s="6" t="inlineStr">
+        <is>
+          <t>20 Trillion Less</t>
+        </is>
+      </c>
+      <c r="G27" s="7" t="inlineStr">
+        <is>
+          <t>20,376,420,490,208</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1326,7 +1270,7 @@
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>137,002,881,323,760</t>
+          <t>137,028,043,471,791</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
@@ -1339,70 +1283,70 @@
           <t xml:space="preserve">0.1370% </t>
         </is>
       </c>
-      <c r="F28" s="4" t="inlineStr">
-        <is>
-          <t>11 Trillion Less</t>
-        </is>
-      </c>
-      <c r="G28" s="5" t="inlineStr">
-        <is>
-          <t>11,342,916,539,506</t>
-        </is>
-      </c>
+      <c r="F28" s="2" t="n"/>
+      <c r="G28" s="2" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="6" t="n">
+      <c r="A29" s="4" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="6" t="inlineStr">
+      <c r="B29" s="4" t="inlineStr">
+        <is>
+          <t>0x112344b8882619f5c8cfa9901d0b88e9eb11a25a</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="inlineStr">
+        <is>
+          <t>128,622,209,928,129</t>
+        </is>
+      </c>
+      <c r="D29" s="5" t="inlineStr">
+        <is>
+          <t>129 Trillion</t>
+        </is>
+      </c>
+      <c r="E29" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.1286% </t>
+        </is>
+      </c>
+      <c r="F29" s="4" t="inlineStr">
+        <is>
+          <t>7 Trillion More</t>
+        </is>
+      </c>
+      <c r="G29" s="5" t="inlineStr">
+        <is>
+          <t>6,847,760,293,842</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
         <is>
           <t>0x30e9bda3cefff54d93fd5954b1961b8a5fea03e2</t>
         </is>
       </c>
-      <c r="C29" s="7" t="inlineStr">
-        <is>
-          <t>127,488,461,958,839</t>
-        </is>
-      </c>
-      <c r="D29" s="7" t="inlineStr">
-        <is>
-          <t>127 Trillion</t>
-        </is>
-      </c>
-      <c r="E29" s="7" t="inlineStr">
+      <c r="C30" s="3" t="inlineStr">
+        <is>
+          <t>127,526,505,584,155</t>
+        </is>
+      </c>
+      <c r="D30" s="3" t="inlineStr">
+        <is>
+          <t>128 Trillion</t>
+        </is>
+      </c>
+      <c r="E30" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">0.1275% </t>
         </is>
       </c>
-      <c r="F29" s="6" t="n"/>
-      <c r="G29" s="6" t="n"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="6" t="n">
-        <v>29</v>
-      </c>
-      <c r="B30" s="6" t="inlineStr">
-        <is>
-          <t>0x112344b8882619f5c8cfa9901d0b88e9eb11a25a</t>
-        </is>
-      </c>
-      <c r="C30" s="7" t="inlineStr">
-        <is>
-          <t>121,782,698,854,653</t>
-        </is>
-      </c>
-      <c r="D30" s="7" t="inlineStr">
-        <is>
-          <t>122 Trillion</t>
-        </is>
-      </c>
-      <c r="E30" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.1218% </t>
-        </is>
-      </c>
-      <c r="F30" s="6" t="n"/>
-      <c r="G30" s="6" t="n"/>
+      <c r="F30" s="2" t="n"/>
+      <c r="G30" s="2" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1428,151 +1372,151 @@
           <t xml:space="preserve">0.1212% </t>
         </is>
       </c>
-      <c r="F31" s="2" t="inlineStr">
-        <is>
-          <t>17 Trillion More</t>
-        </is>
-      </c>
-      <c r="G31" s="3" t="inlineStr">
-        <is>
-          <t>17,124,313,353,185</t>
-        </is>
-      </c>
+      <c r="F31" s="2" t="n"/>
+      <c r="G31" s="2" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="6" t="n">
+      <c r="A32" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="6" t="inlineStr">
+      <c r="B32" s="2" t="inlineStr">
         <is>
           <t>0xde58455ce16cb194a4dc90532326fbf9f3ba8513</t>
         </is>
       </c>
-      <c r="C32" s="7" t="inlineStr">
+      <c r="C32" s="3" t="inlineStr">
         <is>
           <t>118,464,087,088,417</t>
         </is>
       </c>
-      <c r="D32" s="7" t="inlineStr">
+      <c r="D32" s="3" t="inlineStr">
         <is>
           <t>118 Trillion</t>
         </is>
       </c>
-      <c r="E32" s="7" t="inlineStr">
+      <c r="E32" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">0.1185% </t>
         </is>
       </c>
-      <c r="F32" s="6" t="n"/>
-      <c r="G32" s="6" t="n"/>
+      <c r="F32" s="2" t="n"/>
+      <c r="G32" s="2" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="6" t="n">
+      <c r="A33" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="6" t="inlineStr">
+      <c r="B33" s="2" t="inlineStr">
         <is>
           <t>0xf076f6f942eac10b48cea9ed1f25be813304ae42</t>
         </is>
       </c>
-      <c r="C33" s="7" t="inlineStr">
+      <c r="C33" s="3" t="inlineStr">
         <is>
           <t>117,503,438,361,705</t>
         </is>
       </c>
-      <c r="D33" s="7" t="inlineStr">
+      <c r="D33" s="3" t="inlineStr">
         <is>
           <t>118 Trillion</t>
         </is>
       </c>
-      <c r="E33" s="7" t="inlineStr">
+      <c r="E33" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">0.1175% </t>
         </is>
       </c>
-      <c r="F33" s="6" t="n"/>
-      <c r="G33" s="6" t="n"/>
+      <c r="F33" s="2" t="n"/>
+      <c r="G33" s="2" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="6" t="n">
+      <c r="A34" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="6" t="inlineStr">
+      <c r="B34" s="2" t="inlineStr">
         <is>
           <t>0x8117f26ab0e42ccae6009bd48675e2cdc94e95b6</t>
         </is>
       </c>
-      <c r="C34" s="7" t="inlineStr">
+      <c r="C34" s="3" t="inlineStr">
         <is>
           <t>116,286,228,127,196</t>
         </is>
       </c>
-      <c r="D34" s="7" t="inlineStr">
+      <c r="D34" s="3" t="inlineStr">
         <is>
           <t>116 Trillion</t>
         </is>
       </c>
-      <c r="E34" s="7" t="inlineStr">
+      <c r="E34" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">0.1163% </t>
         </is>
       </c>
-      <c r="F34" s="6" t="n"/>
-      <c r="G34" s="6" t="n"/>
+      <c r="F34" s="2" t="n"/>
+      <c r="G34" s="2" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="6" t="n">
+      <c r="A35" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="6" t="inlineStr">
+      <c r="B35" s="2" t="inlineStr">
         <is>
           <t>0x28e87335c43b9b28d658b6825811744c251f5974</t>
         </is>
       </c>
-      <c r="C35" s="7" t="inlineStr">
-        <is>
-          <t>114,852,046,259,466</t>
-        </is>
-      </c>
-      <c r="D35" s="7" t="inlineStr">
+      <c r="C35" s="3" t="inlineStr">
+        <is>
+          <t>114,878,301,154,275</t>
+        </is>
+      </c>
+      <c r="D35" s="3" t="inlineStr">
         <is>
           <t>115 Trillion</t>
         </is>
       </c>
-      <c r="E35" s="7" t="inlineStr">
+      <c r="E35" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">0.1149% </t>
         </is>
       </c>
-      <c r="F35" s="6" t="n"/>
-      <c r="G35" s="6" t="n"/>
+      <c r="F35" s="2" t="n"/>
+      <c r="G35" s="2" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="6" t="n">
+      <c r="A36" s="4" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="6" t="inlineStr">
-        <is>
-          <t>0x493d3d63b6e92869098d3ce8d733ce220633b829</t>
-        </is>
-      </c>
-      <c r="C36" s="7" t="inlineStr">
-        <is>
-          <t>111,320,675,565,947</t>
-        </is>
-      </c>
-      <c r="D36" s="7" t="inlineStr">
-        <is>
-          <t>111 Trillion</t>
-        </is>
-      </c>
-      <c r="E36" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.1113% </t>
-        </is>
-      </c>
-      <c r="F36" s="6" t="n"/>
-      <c r="G36" s="6" t="n"/>
+      <c r="B36" s="4" t="inlineStr">
+        <is>
+          <t>0x9648c280e112946f93bacbd0fd1dc81abb557908</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="inlineStr">
+        <is>
+          <t>112,754,155,786,534</t>
+        </is>
+      </c>
+      <c r="D36" s="5" t="inlineStr">
+        <is>
+          <t>113 Trillion</t>
+        </is>
+      </c>
+      <c r="E36" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.1128% </t>
+        </is>
+      </c>
+      <c r="F36" s="4" t="inlineStr">
+        <is>
+          <t>6 Trillion More</t>
+        </is>
+      </c>
+      <c r="G36" s="5" t="inlineStr">
+        <is>
+          <t>6,140,396,348,784</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1580,142 +1524,142 @@
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
+          <t>0x493d3d63b6e92869098d3ce8d733ce220633b829</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="inlineStr">
+        <is>
+          <t>111,320,675,565,947</t>
+        </is>
+      </c>
+      <c r="D37" s="3" t="inlineStr">
+        <is>
+          <t>111 Trillion</t>
+        </is>
+      </c>
+      <c r="E37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.1113% </t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="n"/>
+      <c r="G37" s="2" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="4" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4" t="inlineStr">
+        <is>
           <t>0xba8d62918b242917cf67d04c7d68ecaad63df8b3</t>
         </is>
       </c>
-      <c r="C37" s="3" t="inlineStr">
+      <c r="C38" s="5" t="inlineStr">
         <is>
           <t>110,573,944,534,782</t>
         </is>
       </c>
-      <c r="D37" s="3" t="inlineStr">
+      <c r="D38" s="5" t="inlineStr">
         <is>
           <t>111 Trillion</t>
         </is>
       </c>
-      <c r="E37" s="3" t="inlineStr">
+      <c r="E38" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">0.1106% </t>
         </is>
       </c>
-      <c r="F37" s="2" t="inlineStr">
-        <is>
-          <t>18 Trillion More</t>
-        </is>
-      </c>
-      <c r="G37" s="3" t="inlineStr">
-        <is>
-          <t>18,367,712,741,377</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="6" t="n">
-        <v>37</v>
-      </c>
-      <c r="B38" s="6" t="inlineStr">
-        <is>
-          <t>0x9648c280e112946f93bacbd0fd1dc81abb557908</t>
-        </is>
-      </c>
-      <c r="C38" s="7" t="inlineStr">
-        <is>
-          <t>110,167,893,251,541</t>
-        </is>
-      </c>
-      <c r="D38" s="7" t="inlineStr">
-        <is>
-          <t>110 Trillion</t>
-        </is>
-      </c>
-      <c r="E38" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.1102% </t>
-        </is>
-      </c>
-      <c r="F38" s="6" t="n"/>
-      <c r="G38" s="6" t="n"/>
+      <c r="F38" s="4" t="inlineStr">
+        <is>
+          <t>8 Trillion More</t>
+        </is>
+      </c>
+      <c r="G38" s="5" t="inlineStr">
+        <is>
+          <t>8,356,526,583,835</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="6" t="n">
+      <c r="A39" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="6" t="inlineStr">
+      <c r="B39" s="2" t="inlineStr">
         <is>
           <t>0xb2c5ae080a236fe89a87fdbd1f9d58ad4b57c6b2</t>
         </is>
       </c>
-      <c r="C39" s="7" t="inlineStr">
+      <c r="C39" s="3" t="inlineStr">
         <is>
           <t>107,839,487,502,017</t>
         </is>
       </c>
-      <c r="D39" s="7" t="inlineStr">
+      <c r="D39" s="3" t="inlineStr">
         <is>
           <t>108 Trillion</t>
         </is>
       </c>
-      <c r="E39" s="7" t="inlineStr">
+      <c r="E39" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">0.1078% </t>
         </is>
       </c>
-      <c r="F39" s="6" t="n"/>
-      <c r="G39" s="6" t="n"/>
+      <c r="F39" s="2" t="n"/>
+      <c r="G39" s="2" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="6" t="n">
+      <c r="A40" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="6" t="inlineStr">
+      <c r="B40" s="2" t="inlineStr">
         <is>
           <t>0xa4fd3063a3d831801c7791b5de3fb9e7a5dcbe23</t>
         </is>
       </c>
-      <c r="C40" s="7" t="inlineStr">
-        <is>
-          <t>102,884,940,777,300</t>
-        </is>
-      </c>
-      <c r="D40" s="7" t="inlineStr">
+      <c r="C40" s="3" t="inlineStr">
+        <is>
+          <t>102,897,117,673,108</t>
+        </is>
+      </c>
+      <c r="D40" s="3" t="inlineStr">
         <is>
           <t>103 Trillion</t>
         </is>
       </c>
-      <c r="E40" s="7" t="inlineStr">
+      <c r="E40" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">0.1029% </t>
         </is>
       </c>
-      <c r="F40" s="6" t="n"/>
-      <c r="G40" s="6" t="n"/>
+      <c r="F40" s="2" t="n"/>
+      <c r="G40" s="2" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="6" t="n">
+      <c r="A41" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="B41" s="6" t="inlineStr">
+      <c r="B41" s="2" t="inlineStr">
         <is>
           <t>0xb05a41293daf0fa7c71e4e035e2f477299fe10a1</t>
         </is>
       </c>
-      <c r="C41" s="7" t="inlineStr">
+      <c r="C41" s="3" t="inlineStr">
         <is>
           <t>101,911,213,220,318</t>
         </is>
       </c>
-      <c r="D41" s="7" t="inlineStr">
+      <c r="D41" s="3" t="inlineStr">
         <is>
           <t>102 Trillion</t>
         </is>
       </c>
-      <c r="E41" s="7" t="inlineStr">
+      <c r="E41" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">0.1019% </t>
         </is>
       </c>
-      <c r="F41" s="6" t="n"/>
-      <c r="G41" s="6" t="n"/>
+      <c r="F41" s="2" t="n"/>
+      <c r="G41" s="2" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1723,253 +1667,253 @@
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
+          <t>0x3c2f70019d8d25bf0d3c73a7bba8061a32629659</t>
+        </is>
+      </c>
+      <c r="C42" s="3" t="inlineStr">
+        <is>
+          <t>101,540,766,130,463</t>
+        </is>
+      </c>
+      <c r="D42" s="3" t="inlineStr">
+        <is>
+          <t>102 Trillion</t>
+        </is>
+      </c>
+      <c r="E42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.1015% </t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="n"/>
+      <c r="G42" s="2" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>0x34db618752319744a4a41e6ba4d5d58b3fffff48</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="inlineStr">
+        <is>
+          <t>101,435,385,854,065</t>
+        </is>
+      </c>
+      <c r="D43" s="3" t="inlineStr">
+        <is>
+          <t>101 Trillion</t>
+        </is>
+      </c>
+      <c r="E43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.1014% </t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="n"/>
+      <c r="G43" s="2" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>0xe7af2280c3a70170f9e5cb67c6ea5885680d2838</t>
+        </is>
+      </c>
+      <c r="C44" s="3" t="inlineStr">
+        <is>
+          <t>100,759,155,015,357</t>
+        </is>
+      </c>
+      <c r="D44" s="3" t="inlineStr">
+        <is>
+          <t>101 Trillion</t>
+        </is>
+      </c>
+      <c r="E44" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.1008% </t>
+        </is>
+      </c>
+      <c r="F44" s="2" t="n"/>
+      <c r="G44" s="2" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>0x69fe97ce030074b37cbaf3ee46e9f68ca8712099</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="inlineStr">
+        <is>
+          <t>100,314,101,049,252</t>
+        </is>
+      </c>
+      <c r="D45" s="3" t="inlineStr">
+        <is>
+          <t>100 Trillion</t>
+        </is>
+      </c>
+      <c r="E45" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.1003% </t>
+        </is>
+      </c>
+      <c r="F45" s="2" t="n"/>
+      <c r="G45" s="2" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="4" t="inlineStr">
+        <is>
           <t>0x74beaeb59500b4486ec3c83b81552279b79c6728</t>
         </is>
       </c>
-      <c r="C42" s="3" t="inlineStr">
-        <is>
-          <t>101,687,264,332,081</t>
-        </is>
-      </c>
-      <c r="D42" s="3" t="inlineStr">
-        <is>
-          <t>102 Trillion</t>
-        </is>
-      </c>
-      <c r="E42" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.1017% </t>
-        </is>
-      </c>
-      <c r="F42" s="4" t="inlineStr">
-        <is>
-          <t>14 Trillion Less</t>
-        </is>
-      </c>
-      <c r="G42" s="5" t="inlineStr">
-        <is>
-          <t>13,508,424,668,107</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="6" t="n">
-        <v>42</v>
-      </c>
-      <c r="B43" s="6" t="inlineStr">
-        <is>
-          <t>0x3c2f70019d8d25bf0d3c73a7bba8061a32629659</t>
-        </is>
-      </c>
-      <c r="C43" s="7" t="inlineStr">
-        <is>
-          <t>101,540,766,130,463</t>
-        </is>
-      </c>
-      <c r="D43" s="7" t="inlineStr">
-        <is>
-          <t>102 Trillion</t>
-        </is>
-      </c>
-      <c r="E43" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.1015% </t>
-        </is>
-      </c>
-      <c r="F43" s="6" t="n"/>
-      <c r="G43" s="6" t="n"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="6" t="n">
-        <v>43</v>
-      </c>
-      <c r="B44" s="6" t="inlineStr">
-        <is>
-          <t>0x34db618752319744a4a41e6ba4d5d58b3fffff48</t>
-        </is>
-      </c>
-      <c r="C44" s="7" t="inlineStr">
-        <is>
-          <t>101,414,549,934,496</t>
-        </is>
-      </c>
-      <c r="D44" s="7" t="inlineStr">
-        <is>
-          <t>101 Trillion</t>
-        </is>
-      </c>
-      <c r="E44" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.1014% </t>
-        </is>
-      </c>
-      <c r="F44" s="6" t="n"/>
-      <c r="G44" s="6" t="n"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="6" t="n">
-        <v>44</v>
-      </c>
-      <c r="B45" s="6" t="inlineStr">
-        <is>
-          <t>0xe7af2280c3a70170f9e5cb67c6ea5885680d2838</t>
-        </is>
-      </c>
-      <c r="C45" s="7" t="inlineStr">
-        <is>
-          <t>100,759,155,015,357</t>
-        </is>
-      </c>
-      <c r="D45" s="7" t="inlineStr">
-        <is>
-          <t>101 Trillion</t>
-        </is>
-      </c>
-      <c r="E45" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.1008% </t>
-        </is>
-      </c>
-      <c r="F45" s="6" t="n"/>
-      <c r="G45" s="6" t="n"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="6" t="n">
-        <v>45</v>
-      </c>
-      <c r="B46" s="6" t="inlineStr">
-        <is>
-          <t>0x69fe97ce030074b37cbaf3ee46e9f68ca8712099</t>
-        </is>
-      </c>
-      <c r="C46" s="7" t="inlineStr">
-        <is>
-          <t>100,314,101,049,252</t>
-        </is>
-      </c>
-      <c r="D46" s="7" t="inlineStr">
-        <is>
-          <t>100 Trillion</t>
-        </is>
-      </c>
-      <c r="E46" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.1003% </t>
-        </is>
-      </c>
-      <c r="F46" s="6" t="n"/>
-      <c r="G46" s="6" t="n"/>
+      <c r="C46" s="5" t="inlineStr">
+        <is>
+          <t>97,661,445,832,390</t>
+        </is>
+      </c>
+      <c r="D46" s="5" t="inlineStr">
+        <is>
+          <t>98 Trillion</t>
+        </is>
+      </c>
+      <c r="E46" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.0977% </t>
+        </is>
+      </c>
+      <c r="F46" s="6" t="inlineStr">
+        <is>
+          <t>12 Trillion Less</t>
+        </is>
+      </c>
+      <c r="G46" s="7" t="inlineStr">
+        <is>
+          <t>12,286,063,643,518</t>
+        </is>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="6" t="n">
+      <c r="A47" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="B47" s="6" t="inlineStr">
+      <c r="B47" s="2" t="inlineStr">
         <is>
           <t>0xf4eaa3a2eb5e8e654eabc030f4395062fe597db3</t>
         </is>
       </c>
-      <c r="C47" s="7" t="inlineStr">
-        <is>
-          <t>96,464,905,379,293</t>
-        </is>
-      </c>
-      <c r="D47" s="7" t="inlineStr">
+      <c r="C47" s="3" t="inlineStr">
+        <is>
+          <t>96,490,257,936,692</t>
+        </is>
+      </c>
+      <c r="D47" s="3" t="inlineStr">
         <is>
           <t>96 Trillion</t>
         </is>
       </c>
-      <c r="E47" s="7" t="inlineStr">
+      <c r="E47" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">0.0965% </t>
         </is>
       </c>
-      <c r="F47" s="6" t="n"/>
-      <c r="G47" s="6" t="n"/>
+      <c r="F47" s="2" t="n"/>
+      <c r="G47" s="2" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="6" t="n">
+      <c r="A48" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="B48" s="6" t="inlineStr">
+      <c r="B48" s="2" t="inlineStr">
         <is>
           <t>0x302c44b648f5a84191f08551be26a2d2456a1fa1</t>
         </is>
       </c>
-      <c r="C48" s="7" t="inlineStr">
-        <is>
-          <t>93,690,259,855,668</t>
-        </is>
-      </c>
-      <c r="D48" s="7" t="inlineStr">
+      <c r="C48" s="3" t="inlineStr">
+        <is>
+          <t>93,709,169,360,592</t>
+        </is>
+      </c>
+      <c r="D48" s="3" t="inlineStr">
         <is>
           <t>94 Trillion</t>
         </is>
       </c>
-      <c r="E48" s="7" t="inlineStr">
+      <c r="E48" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">0.0937% </t>
         </is>
       </c>
-      <c r="F48" s="6" t="n"/>
-      <c r="G48" s="6" t="n"/>
+      <c r="F48" s="2" t="n"/>
+      <c r="G48" s="2" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="6" t="n">
+      <c r="A49" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="B49" s="6" t="inlineStr">
+      <c r="B49" s="2" t="inlineStr">
         <is>
           <t>0xf8a002718fbba65dd1ca19e7027c943c54e20220</t>
         </is>
       </c>
-      <c r="C49" s="7" t="inlineStr">
-        <is>
-          <t>90,240,325,249,575</t>
-        </is>
-      </c>
-      <c r="D49" s="7" t="inlineStr">
+      <c r="C49" s="3" t="inlineStr">
+        <is>
+          <t>90,247,500,854,894</t>
+        </is>
+      </c>
+      <c r="D49" s="3" t="inlineStr">
         <is>
           <t>90 Trillion</t>
         </is>
       </c>
-      <c r="E49" s="7" t="inlineStr">
+      <c r="E49" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">0.0902% </t>
         </is>
       </c>
-      <c r="F49" s="6" t="n"/>
-      <c r="G49" s="6" t="n"/>
+      <c r="F49" s="2" t="n"/>
+      <c r="G49" s="2" t="n"/>
     </row>
     <row r="51">
-      <c r="B51" s="7" t="inlineStr">
+      <c r="B51" s="3" t="inlineStr">
         <is>
           <t>Total's for top 50 (actually 48)</t>
         </is>
       </c>
-      <c r="C51" s="7" t="inlineStr">
-        <is>
-          <t>10,619,043,633,575,694</t>
-        </is>
-      </c>
-      <c r="D51" s="7" t="inlineStr">
-        <is>
-          <t>10619 Trillion</t>
-        </is>
-      </c>
-      <c r="E51" s="7" t="inlineStr">
-        <is>
-          <t>10.62%</t>
-        </is>
-      </c>
-      <c r="F51" s="6" t="inlineStr">
-        <is>
-          <t>-144 Trillion</t>
-        </is>
-      </c>
-      <c r="G51" s="6" t="inlineStr">
-        <is>
-          <t>-143,694,092,134,990</t>
+      <c r="C51" s="3" t="inlineStr">
+        <is>
+          <t>10,587,446,944,987,420</t>
+        </is>
+      </c>
+      <c r="D51" s="3" t="inlineStr">
+        <is>
+          <t>10587 Trillion</t>
+        </is>
+      </c>
+      <c r="E51" s="3" t="inlineStr">
+        <is>
+          <t>10.59%</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>-107 Trillion</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>-107,405,841,026,080</t>
         </is>
       </c>
     </row>
@@ -1987,230 +1931,90 @@
       <c r="G53" s="8" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n">
+      <c r="A54" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B54" s="2" t="inlineStr">
+      <c r="B54" s="4" t="inlineStr">
+        <is>
+          <t>0x000000000000000000000000000000000000dead</t>
+        </is>
+      </c>
+      <c r="C54" s="5" t="inlineStr">
+        <is>
+          <t>65,183,927,401,028,500</t>
+        </is>
+      </c>
+      <c r="D54" s="5" t="inlineStr">
+        <is>
+          <t>65184 Trillion</t>
+        </is>
+      </c>
+      <c r="E54" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">65.1660% </t>
+        </is>
+      </c>
+      <c r="F54" s="4" t="inlineStr">
+        <is>
+          <t>18 Trillion More</t>
+        </is>
+      </c>
+      <c r="G54" s="5" t="inlineStr">
+        <is>
+          <t>17,917,109,046,200</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B55" s="4" t="inlineStr">
         <is>
           <t>0x86437c0875fa78dc98c57bc010ef4ad07bc01715</t>
         </is>
       </c>
-      <c r="C54" s="3" t="inlineStr">
-        <is>
-          <t>70,267,983,165,489</t>
-        </is>
-      </c>
-      <c r="D54" s="3" t="inlineStr">
-        <is>
-          <t>70 Trillion</t>
-        </is>
-      </c>
-      <c r="E54" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.1057% </t>
-        </is>
-      </c>
-      <c r="F54" s="4" t="inlineStr">
-        <is>
-          <t>35 Trillion Less</t>
-        </is>
-      </c>
-      <c r="G54" s="5" t="inlineStr">
-        <is>
-          <t>35,435,934,958,898</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B55" s="2" t="inlineStr">
-        <is>
-          <t>0xcc6833974ce5970eac45e7751573c30c7b41a4a5</t>
-        </is>
-      </c>
-      <c r="C55" s="3" t="inlineStr">
-        <is>
-          <t>162,517</t>
-        </is>
-      </c>
-      <c r="D55" s="3" t="inlineStr">
-        <is>
-          <t>0 Trillion</t>
-        </is>
-      </c>
-      <c r="E55" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.1568% </t>
-        </is>
-      </c>
-      <c r="F55" s="4" t="inlineStr">
-        <is>
-          <t>157 Trillion Less</t>
-        </is>
-      </c>
-      <c r="G55" s="5" t="inlineStr">
-        <is>
-          <t>156,814,532,625,431</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B56" s="2" t="inlineStr">
-        <is>
-          <t>0x672c36fa22029369490bb5e33e6d16a7e1309c1e</t>
-        </is>
-      </c>
-      <c r="C56" s="3" t="inlineStr">
-        <is>
-          <t>66,099,976,230,641</t>
-        </is>
-      </c>
-      <c r="D56" s="3" t="inlineStr">
-        <is>
-          <t>66 Trillion</t>
-        </is>
-      </c>
-      <c r="E56" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.1700% </t>
-        </is>
-      </c>
-      <c r="F56" s="4" t="inlineStr">
-        <is>
-          <t>104 Trillion Less</t>
-        </is>
-      </c>
-      <c r="G56" s="5" t="inlineStr">
-        <is>
-          <t>103,905,313,781,307</t>
+      <c r="C55" s="5" t="inlineStr">
+        <is>
+          <t>83,921,312,991,886</t>
+        </is>
+      </c>
+      <c r="D55" s="5" t="inlineStr">
+        <is>
+          <t>84 Trillion</t>
+        </is>
+      </c>
+      <c r="E55" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.1003% </t>
+        </is>
+      </c>
+      <c r="F55" s="6" t="inlineStr">
+        <is>
+          <t>16 Trillion Less</t>
+        </is>
+      </c>
+      <c r="G55" s="7" t="inlineStr">
+        <is>
+          <t>16,336,281,925,363</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B57" s="2" t="inlineStr">
-        <is>
-          <t>0x68bae0996364afaa2240f17c2055da0e12193337</t>
-        </is>
-      </c>
-      <c r="C57" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D57" s="3" t="inlineStr">
-        <is>
-          <t>0 Trillion</t>
-        </is>
-      </c>
-      <c r="E57" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.1057% </t>
-        </is>
-      </c>
-      <c r="F57" s="4" t="inlineStr">
-        <is>
-          <t>106 Trillion Less</t>
-        </is>
-      </c>
-      <c r="G57" s="5" t="inlineStr">
-        <is>
-          <t>105,729,917,987,290</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B58" s="2" t="inlineStr">
-        <is>
-          <t>0x9a7e16cc5d152e60ea52d46d8e422d724bdb4dcf</t>
-        </is>
-      </c>
-      <c r="C58" s="3" t="inlineStr">
-        <is>
-          <t>50,025,311,374,060</t>
-        </is>
-      </c>
-      <c r="D58" s="3" t="inlineStr">
-        <is>
-          <t>50 Trillion</t>
-        </is>
-      </c>
-      <c r="E58" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.1100% </t>
-        </is>
-      </c>
-      <c r="F58" s="4" t="inlineStr">
-        <is>
-          <t>60 Trillion Less</t>
-        </is>
-      </c>
-      <c r="G58" s="5" t="inlineStr">
-        <is>
-          <t>59,974,989,615,222</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B59" s="2" t="inlineStr">
-        <is>
-          <t>0xb762780fa3c41fee56387607135b74b37dd85d3c</t>
-        </is>
-      </c>
-      <c r="C59" s="3" t="inlineStr">
-        <is>
-          <t>17,326,159</t>
-        </is>
-      </c>
-      <c r="D59" s="3" t="inlineStr">
-        <is>
-          <t>0 Trillion</t>
-        </is>
-      </c>
-      <c r="E59" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.1018% </t>
-        </is>
-      </c>
-      <c r="F59" s="4" t="inlineStr">
-        <is>
-          <t>102 Trillion Less</t>
-        </is>
-      </c>
-      <c r="G59" s="5" t="inlineStr">
-        <is>
-          <t>101,849,600,198,870</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="D61" s="4" t="n"/>
-      <c r="E61" s="5" t="inlineStr">
+      <c r="D57" s="6" t="n"/>
+      <c r="E57" s="7" t="inlineStr">
         <is>
           <t>Total loss / gain from all whales</t>
         </is>
       </c>
-      <c r="F61" s="4" t="inlineStr">
-        <is>
-          <t>-707 Trillion</t>
-        </is>
-      </c>
-      <c r="G61" s="4" t="inlineStr">
-        <is>
-          <t>-707,404,381,302,008</t>
+      <c r="F57" s="6" t="inlineStr">
+        <is>
+          <t>-106 Trillion</t>
+        </is>
+      </c>
+      <c r="G57" s="6" t="inlineStr">
+        <is>
+          <t>-105,825,013,905,243</t>
         </is>
       </c>
     </row>

--- a/whales/holders.xlsx
+++ b/whales/holders.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,17 +512,17 @@
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>771,461,275,870,461</t>
+          <t>771,644,853,709,860</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>771 Trillion</t>
+          <t>772 Trillion</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.7715% </t>
+          <t xml:space="preserve">0.7716% </t>
         </is>
       </c>
       <c r="F2" s="2" t="n"/>
@@ -539,17 +539,17 @@
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>606,484,249,445,932</t>
+          <t>606,628,614,699,206</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>606 Trillion</t>
+          <t>607 Trillion</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.6065% </t>
+          <t xml:space="preserve">0.6066% </t>
         </is>
       </c>
       <c r="F3" s="2" t="n"/>
@@ -566,7 +566,7 @@
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>605,301,759,422,925</t>
+          <t>605,427,286,588,796</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
@@ -576,7 +576,7 @@
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.6053% </t>
+          <t xml:space="preserve">0.6054% </t>
         </is>
       </c>
       <c r="F4" s="2" t="n"/>
@@ -593,7 +593,7 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>526,556,737,417,614</t>
+          <t>526,695,446,678,495</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
@@ -603,7 +603,7 @@
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.5266% </t>
+          <t xml:space="preserve">0.5267% </t>
         </is>
       </c>
       <c r="F5" s="2" t="n"/>
@@ -620,7 +620,7 @@
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>425,880,451,445,139</t>
+          <t>425,957,234,832,158</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
@@ -630,7 +630,7 @@
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.4259% </t>
+          <t xml:space="preserve">0.4260% </t>
         </is>
       </c>
       <c r="F6" s="2" t="n"/>
@@ -647,7 +647,7 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>420,255,896,516,838</t>
+          <t>420,331,665,834,354</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
@@ -664,39 +664,31 @@
       <c r="G7" s="2" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="n">
+      <c r="A8" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>0xac3e1d277c3442ac1c695a369d87004aed308a7d</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr">
-        <is>
-          <t>407,973,267,704,255</t>
-        </is>
-      </c>
-      <c r="D8" s="5" t="inlineStr">
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>408,058,144,513,800</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
         <is>
           <t>408 Trillion</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.4080% </t>
-        </is>
-      </c>
-      <c r="F8" s="6" t="inlineStr">
-        <is>
-          <t>4 Trillion Less</t>
-        </is>
-      </c>
-      <c r="G8" s="7" t="inlineStr">
-        <is>
-          <t>3,630,312,027,872</t>
-        </is>
-      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.4081% </t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="n"/>
+      <c r="G8" s="2" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -709,7 +701,7 @@
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>405,920,705,438,135</t>
+          <t>406,046,137,063,583</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
@@ -719,46 +711,38 @@
       </c>
       <c r="E9" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.4059% </t>
+          <t xml:space="preserve">0.4060% </t>
         </is>
       </c>
       <c r="F9" s="2" t="n"/>
       <c r="G9" s="2" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="n">
+      <c r="A10" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="inlineStr">
-        <is>
-          <t>0xcdc162e71e7517e94c0c72de16ca6315349d47fc</t>
-        </is>
-      </c>
-      <c r="C10" s="5" t="inlineStr">
-        <is>
-          <t>400,022,530,355,562</t>
-        </is>
-      </c>
-      <c r="D10" s="5" t="inlineStr">
-        <is>
-          <t>400 Trillion</t>
-        </is>
-      </c>
-      <c r="E10" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.4000% </t>
-        </is>
-      </c>
-      <c r="F10" s="6" t="inlineStr">
-        <is>
-          <t>101 Trillion Less</t>
-        </is>
-      </c>
-      <c r="G10" s="7" t="inlineStr">
-        <is>
-          <t>100,751,132,608,295</t>
-        </is>
-      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>0x7395cb62e4405b6c1174c2329f444af6ee7bdfd9</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>373,869,226,173,956</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>374 Trillion</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.3739% </t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="n"/>
+      <c r="G10" s="2" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -766,96 +750,80 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>0x7395cb62e4405b6c1174c2329f444af6ee7bdfd9</t>
+          <t>0x7b11f31fc0d0a79717ec025d411ac5e899ac7116</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>373,773,226,281,206</t>
+          <t>370,447,527,939,653</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>374 Trillion</t>
+          <t>370 Trillion</t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.3738% </t>
+          <t xml:space="preserve">0.3704% </t>
         </is>
       </c>
       <c r="F11" s="2" t="n"/>
       <c r="G11" s="2" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="n">
+      <c r="A12" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="inlineStr">
-        <is>
-          <t>0x7b11f31fc0d0a79717ec025d411ac5e899ac7116</t>
-        </is>
-      </c>
-      <c r="C12" s="5" t="inlineStr">
-        <is>
-          <t>370,447,527,939,653</t>
-        </is>
-      </c>
-      <c r="D12" s="5" t="inlineStr">
-        <is>
-          <t>370 Trillion</t>
-        </is>
-      </c>
-      <c r="E12" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.3704% </t>
-        </is>
-      </c>
-      <c r="F12" s="4" t="inlineStr">
-        <is>
-          <t>26 Trillion More</t>
-        </is>
-      </c>
-      <c r="G12" s="5" t="inlineStr">
-        <is>
-          <t>26,269,861,607,534</t>
-        </is>
-      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>0xf7625178ef07107edc2005a0e5d2fc411573f381</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>294,473,304,422,359</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>294 Trillion</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.2945% </t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="n"/>
+      <c r="G12" s="2" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="n">
+      <c r="A13" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="inlineStr">
-        <is>
-          <t>0xf7625178ef07107edc2005a0e5d2fc411573f381</t>
-        </is>
-      </c>
-      <c r="C13" s="5" t="inlineStr">
-        <is>
-          <t>294,423,935,620,043</t>
-        </is>
-      </c>
-      <c r="D13" s="5" t="inlineStr">
-        <is>
-          <t>294 Trillion</t>
-        </is>
-      </c>
-      <c r="E13" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.2944% </t>
-        </is>
-      </c>
-      <c r="F13" s="6" t="inlineStr">
-        <is>
-          <t>9 Trillion Less</t>
-        </is>
-      </c>
-      <c r="G13" s="7" t="inlineStr">
-        <is>
-          <t>9,064,099,579,072</t>
-        </is>
-      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>0x924e8fc81484781b8057db784266017fce1af136</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>251,178,233,121,536</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>251 Trillion</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.2512% </t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="n"/>
+      <c r="G13" s="2" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -863,12 +831,12 @@
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>0x924e8fc81484781b8057db784266017fce1af136</t>
+          <t>0x0c706e89e383ca020cd5b1d1ffc4cd17a810a2d5</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>251,178,233,121,536</t>
+          <t>250,790,894,340,704</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
@@ -878,46 +846,38 @@
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.2512% </t>
+          <t xml:space="preserve">0.2508% </t>
         </is>
       </c>
       <c r="F14" s="2" t="n"/>
       <c r="G14" s="2" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="n">
+      <c r="A15" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="inlineStr">
-        <is>
-          <t>0xd96622a9099d758f8d6664ae702a59e9d548ed23</t>
-        </is>
-      </c>
-      <c r="C15" s="5" t="inlineStr">
-        <is>
-          <t>225,009,186,968,837</t>
-        </is>
-      </c>
-      <c r="D15" s="5" t="inlineStr">
-        <is>
-          <t>225 Trillion</t>
-        </is>
-      </c>
-      <c r="E15" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.2250% </t>
-        </is>
-      </c>
-      <c r="F15" s="6" t="inlineStr">
-        <is>
-          <t>10 Trillion Less</t>
-        </is>
-      </c>
-      <c r="G15" s="7" t="inlineStr">
-        <is>
-          <t>9,996,770,533,334</t>
-        </is>
-      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>0xfdd50de023c9a705d9086bf821d15c7450ee93bf</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>213,683,586,716,116</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>214 Trillion</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.2137% </t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="n"/>
+      <c r="G15" s="2" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="4" t="n">
@@ -925,32 +885,32 @@
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>0xfdd50de023c9a705d9086bf821d15c7450ee93bf</t>
+          <t>0xd96622a9099d758f8d6664ae702a59e9d548ed23</t>
         </is>
       </c>
       <c r="C16" s="5" t="inlineStr">
         <is>
-          <t>213,683,586,716,116</t>
+          <t>201,585,924,904,630</t>
         </is>
       </c>
       <c r="D16" s="5" t="inlineStr">
         <is>
-          <t>214 Trillion</t>
+          <t>202 Trillion</t>
         </is>
       </c>
       <c r="E16" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.2137% </t>
-        </is>
-      </c>
-      <c r="F16" s="4" t="inlineStr">
-        <is>
-          <t>1 Trillion More</t>
-        </is>
-      </c>
-      <c r="G16" s="5" t="inlineStr">
-        <is>
-          <t>1,084,413,022,224</t>
+          <t xml:space="preserve">0.2016% </t>
+        </is>
+      </c>
+      <c r="F16" s="6" t="inlineStr">
+        <is>
+          <t>1 Trillion Less</t>
+        </is>
+      </c>
+      <c r="G16" s="7" t="inlineStr">
+        <is>
+          <t>1,211,088,764,893</t>
         </is>
       </c>
     </row>
@@ -1073,7 +1033,7 @@
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>173,804,806,220,280</t>
+          <t>173,828,212,648,958</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
@@ -1122,22 +1082,22 @@
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>0x0c706e89e383ca020cd5b1d1ffc4cd17a810a2d5</t>
+          <t>0x7b5b9b8d134bec76023cd6c20358d38714cc5c58</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>166,275,790,927,958</t>
+          <t>154,051,941,018,669</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
         <is>
-          <t>166 Trillion</t>
+          <t>154 Trillion</t>
         </is>
       </c>
       <c r="E23" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1663% </t>
+          <t xml:space="preserve">0.1541% </t>
         </is>
       </c>
       <c r="F23" s="2" t="n"/>
@@ -1149,22 +1109,22 @@
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>0xbdf119001cf9d44d902bf7d8e283e10ab66ddeea</t>
+          <t>0x1ae48253b364374d3db52de311302fc501b87895</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>161,778,581,483,799</t>
+          <t>153,169,514,183,082</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
         <is>
-          <t>162 Trillion</t>
+          <t>153 Trillion</t>
         </is>
       </c>
       <c r="E24" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1618% </t>
+          <t xml:space="preserve">0.1532% </t>
         </is>
       </c>
       <c r="F24" s="2" t="n"/>
@@ -1176,22 +1136,22 @@
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>0x7b5b9b8d134bec76023cd6c20358d38714cc5c58</t>
+          <t>0xcdc162e71e7517e94c0c72de16ca6315349d47fc</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>154,051,941,018,669</t>
+          <t>150,019,734,629,320</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
         <is>
-          <t>154 Trillion</t>
+          <t>150 Trillion</t>
         </is>
       </c>
       <c r="E25" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1541% </t>
+          <t xml:space="preserve">0.1500% </t>
         </is>
       </c>
       <c r="F25" s="2" t="n"/>
@@ -1203,22 +1163,22 @@
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>0x1ae48253b364374d3db52de311302fc501b87895</t>
+          <t>0xd693658b31ef059354118ac2b8067b989ebf4b2b</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>153,103,003,145,466</t>
+          <t>139,100,895,071,433</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t>153 Trillion</t>
+          <t>139 Trillion</t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1531% </t>
+          <t xml:space="preserve">0.1391% </t>
         </is>
       </c>
       <c r="F26" s="2" t="n"/>
@@ -1235,27 +1195,27 @@
       </c>
       <c r="C27" s="5" t="inlineStr">
         <is>
-          <t>140,000,280,055,919</t>
+          <t>136,751,270,047,207</t>
         </is>
       </c>
       <c r="D27" s="5" t="inlineStr">
         <is>
-          <t>140 Trillion</t>
+          <t>137 Trillion</t>
         </is>
       </c>
       <c r="E27" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1400% </t>
+          <t xml:space="preserve">0.1368% </t>
         </is>
       </c>
       <c r="F27" s="6" t="inlineStr">
         <is>
-          <t>20 Trillion Less</t>
+          <t>3 Trillion Less</t>
         </is>
       </c>
       <c r="G27" s="7" t="inlineStr">
         <is>
-          <t>20,376,420,490,208</t>
+          <t>3,249,010,008,712</t>
         </is>
       </c>
     </row>
@@ -1265,88 +1225,88 @@
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>0xd693658b31ef059354118ac2b8067b989ebf4b2b</t>
+          <t>0x112344b8882619f5c8cfa9901d0b88e9eb11a25a</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>137,028,043,471,791</t>
+          <t>128,635,602,638,240</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
         <is>
-          <t>137 Trillion</t>
+          <t>129 Trillion</t>
         </is>
       </c>
       <c r="E28" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1370% </t>
+          <t xml:space="preserve">0.1286% </t>
         </is>
       </c>
       <c r="F28" s="2" t="n"/>
       <c r="G28" s="2" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="n">
+      <c r="A29" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="4" t="inlineStr">
-        <is>
-          <t>0x112344b8882619f5c8cfa9901d0b88e9eb11a25a</t>
-        </is>
-      </c>
-      <c r="C29" s="5" t="inlineStr">
-        <is>
-          <t>128,622,209,928,129</t>
-        </is>
-      </c>
-      <c r="D29" s="5" t="inlineStr">
-        <is>
-          <t>129 Trillion</t>
-        </is>
-      </c>
-      <c r="E29" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.1286% </t>
-        </is>
-      </c>
-      <c r="F29" s="4" t="inlineStr">
-        <is>
-          <t>7 Trillion More</t>
-        </is>
-      </c>
-      <c r="G29" s="5" t="inlineStr">
-        <is>
-          <t>6,847,760,293,842</t>
-        </is>
-      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>0x30e9bda3cefff54d93fd5954b1961b8a5fea03e2</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t>127,558,428,460,891</t>
+        </is>
+      </c>
+      <c r="D29" s="3" t="inlineStr">
+        <is>
+          <t>128 Trillion</t>
+        </is>
+      </c>
+      <c r="E29" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.1276% </t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="n"/>
+      <c r="G29" s="2" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n">
+      <c r="A30" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="inlineStr">
-        <is>
-          <t>0x30e9bda3cefff54d93fd5954b1961b8a5fea03e2</t>
-        </is>
-      </c>
-      <c r="C30" s="3" t="inlineStr">
-        <is>
-          <t>127,526,505,584,155</t>
-        </is>
-      </c>
-      <c r="D30" s="3" t="inlineStr">
-        <is>
-          <t>128 Trillion</t>
-        </is>
-      </c>
-      <c r="E30" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.1275% </t>
-        </is>
-      </c>
-      <c r="F30" s="2" t="n"/>
-      <c r="G30" s="2" t="n"/>
+      <c r="B30" s="4" t="inlineStr">
+        <is>
+          <t>0xba8d62918b242917cf67d04c7d68ecaad63df8b3</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>123,116,600,854,674</t>
+        </is>
+      </c>
+      <c r="D30" s="5" t="inlineStr">
+        <is>
+          <t>123 Trillion</t>
+        </is>
+      </c>
+      <c r="E30" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.1231% </t>
+        </is>
+      </c>
+      <c r="F30" s="4" t="inlineStr">
+        <is>
+          <t>13 Trillion More</t>
+        </is>
+      </c>
+      <c r="G30" s="5" t="inlineStr">
+        <is>
+          <t>12,542,656,319,892</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1359,7 +1319,7 @@
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>121,195,085,883,522</t>
+          <t>121,240,329,960,995</t>
         </is>
       </c>
       <c r="D31" s="3" t="inlineStr">
@@ -1381,12 +1341,12 @@
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>0xde58455ce16cb194a4dc90532326fbf9f3ba8513</t>
+          <t>0xf076f6f942eac10b48cea9ed1f25be813304ae42</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>118,464,087,088,417</t>
+          <t>117,547,304,052,606</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
@@ -1396,7 +1356,7 @@
       </c>
       <c r="E32" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1185% </t>
+          <t xml:space="preserve">0.1175% </t>
         </is>
       </c>
       <c r="F32" s="2" t="n"/>
@@ -1408,22 +1368,22 @@
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>0xf076f6f942eac10b48cea9ed1f25be813304ae42</t>
+          <t>0x8117f26ab0e42ccae6009bd48675e2cdc94e95b6</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>117,503,438,361,705</t>
+          <t>116,329,639,416,348</t>
         </is>
       </c>
       <c r="D33" s="3" t="inlineStr">
         <is>
-          <t>118 Trillion</t>
+          <t>116 Trillion</t>
         </is>
       </c>
       <c r="E33" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1175% </t>
+          <t xml:space="preserve">0.1163% </t>
         </is>
       </c>
       <c r="F33" s="2" t="n"/>
@@ -1435,88 +1395,88 @@
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>0x8117f26ab0e42ccae6009bd48675e2cdc94e95b6</t>
+          <t>0x28e87335c43b9b28d658b6825811744c251f5974</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>116,286,228,127,196</t>
+          <t>114,897,327,215,449</t>
         </is>
       </c>
       <c r="D34" s="3" t="inlineStr">
         <is>
-          <t>116 Trillion</t>
+          <t>115 Trillion</t>
         </is>
       </c>
       <c r="E34" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1163% </t>
+          <t xml:space="preserve">0.1149% </t>
         </is>
       </c>
       <c r="F34" s="2" t="n"/>
       <c r="G34" s="2" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n">
+      <c r="A35" s="4" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="2" t="inlineStr">
-        <is>
-          <t>0x28e87335c43b9b28d658b6825811744c251f5974</t>
-        </is>
-      </c>
-      <c r="C35" s="3" t="inlineStr">
-        <is>
-          <t>114,878,301,154,275</t>
-        </is>
-      </c>
-      <c r="D35" s="3" t="inlineStr">
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>0x74beaeb59500b4486ec3c83b81552279b79c6728</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="inlineStr">
+        <is>
+          <t>114,597,396,540,482</t>
+        </is>
+      </c>
+      <c r="D35" s="5" t="inlineStr">
         <is>
           <t>115 Trillion</t>
         </is>
       </c>
-      <c r="E35" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.1149% </t>
-        </is>
-      </c>
-      <c r="F35" s="2" t="n"/>
-      <c r="G35" s="2" t="n"/>
+      <c r="E35" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.1146% </t>
+        </is>
+      </c>
+      <c r="F35" s="4" t="inlineStr">
+        <is>
+          <t>17 Trillion More</t>
+        </is>
+      </c>
+      <c r="G35" s="5" t="inlineStr">
+        <is>
+          <t>16,935,950,708,092</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="4" t="n">
+      <c r="A36" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="4" t="inlineStr">
+      <c r="B36" s="2" t="inlineStr">
         <is>
           <t>0x9648c280e112946f93bacbd0fd1dc81abb557908</t>
         </is>
       </c>
-      <c r="C36" s="5" t="inlineStr">
-        <is>
-          <t>112,754,155,786,534</t>
-        </is>
-      </c>
-      <c r="D36" s="5" t="inlineStr">
-        <is>
-          <t>113 Trillion</t>
-        </is>
-      </c>
-      <c r="E36" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.1128% </t>
-        </is>
-      </c>
-      <c r="F36" s="4" t="inlineStr">
-        <is>
-          <t>6 Trillion More</t>
-        </is>
-      </c>
-      <c r="G36" s="5" t="inlineStr">
-        <is>
-          <t>6,140,396,348,784</t>
-        </is>
-      </c>
+      <c r="C36" s="3" t="inlineStr">
+        <is>
+          <t>113,943,536,411,277</t>
+        </is>
+      </c>
+      <c r="D36" s="3" t="inlineStr">
+        <is>
+          <t>114 Trillion</t>
+        </is>
+      </c>
+      <c r="E36" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.1139% </t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="n"/>
+      <c r="G36" s="2" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1546,39 +1506,31 @@
       <c r="G37" s="2" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="4" t="n">
+      <c r="A38" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="4" t="inlineStr">
-        <is>
-          <t>0xba8d62918b242917cf67d04c7d68ecaad63df8b3</t>
-        </is>
-      </c>
-      <c r="C38" s="5" t="inlineStr">
-        <is>
-          <t>110,573,944,534,782</t>
-        </is>
-      </c>
-      <c r="D38" s="5" t="inlineStr">
-        <is>
-          <t>111 Trillion</t>
-        </is>
-      </c>
-      <c r="E38" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.1106% </t>
-        </is>
-      </c>
-      <c r="F38" s="4" t="inlineStr">
-        <is>
-          <t>8 Trillion More</t>
-        </is>
-      </c>
-      <c r="G38" s="5" t="inlineStr">
-        <is>
-          <t>8,356,526,583,835</t>
-        </is>
-      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>0xb2c5ae080a236fe89a87fdbd1f9d58ad4b57c6b2</t>
+        </is>
+      </c>
+      <c r="C38" s="3" t="inlineStr">
+        <is>
+          <t>107,879,745,719,514</t>
+        </is>
+      </c>
+      <c r="D38" s="3" t="inlineStr">
+        <is>
+          <t>108 Trillion</t>
+        </is>
+      </c>
+      <c r="E38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.1079% </t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="n"/>
+      <c r="G38" s="2" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1586,22 +1538,22 @@
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>0xb2c5ae080a236fe89a87fdbd1f9d58ad4b57c6b2</t>
+          <t>0xa4fd3063a3d831801c7791b5de3fb9e7a5dcbe23</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>107,839,487,502,017</t>
+          <t>102,897,117,673,108</t>
         </is>
       </c>
       <c r="D39" s="3" t="inlineStr">
         <is>
-          <t>108 Trillion</t>
+          <t>103 Trillion</t>
         </is>
       </c>
       <c r="E39" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1078% </t>
+          <t xml:space="preserve">0.1029% </t>
         </is>
       </c>
       <c r="F39" s="2" t="n"/>
@@ -1613,22 +1565,22 @@
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>0xa4fd3063a3d831801c7791b5de3fb9e7a5dcbe23</t>
+          <t>0xb05a41293daf0fa7c71e4e035e2f477299fe10a1</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>102,897,117,673,108</t>
+          <t>101,911,213,220,318</t>
         </is>
       </c>
       <c r="D40" s="3" t="inlineStr">
         <is>
-          <t>103 Trillion</t>
+          <t>102 Trillion</t>
         </is>
       </c>
       <c r="E40" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1029% </t>
+          <t xml:space="preserve">0.1019% </t>
         </is>
       </c>
       <c r="F40" s="2" t="n"/>
@@ -1640,12 +1592,12 @@
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>0xb05a41293daf0fa7c71e4e035e2f477299fe10a1</t>
+          <t>0x3c2f70019d8d25bf0d3c73a7bba8061a32629659</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>101,911,213,220,318</t>
+          <t>101,611,510,538,063</t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
@@ -1655,7 +1607,7 @@
       </c>
       <c r="E41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1019% </t>
+          <t xml:space="preserve">0.1016% </t>
         </is>
       </c>
       <c r="F41" s="2" t="n"/>
@@ -1667,22 +1619,22 @@
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>0x3c2f70019d8d25bf0d3c73a7bba8061a32629659</t>
+          <t>0x34db618752319744a4a41e6ba4d5d58b3fffff48</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>101,540,766,130,463</t>
+          <t>101,435,385,854,065</t>
         </is>
       </c>
       <c r="D42" s="3" t="inlineStr">
         <is>
-          <t>102 Trillion</t>
+          <t>101 Trillion</t>
         </is>
       </c>
       <c r="E42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1015% </t>
+          <t xml:space="preserve">0.1014% </t>
         </is>
       </c>
       <c r="F42" s="2" t="n"/>
@@ -1694,12 +1646,12 @@
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>0x34db618752319744a4a41e6ba4d5d58b3fffff48</t>
+          <t>0xe7af2280c3a70170f9e5cb67c6ea5885680d2838</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>101,435,385,854,065</t>
+          <t>100,759,155,015,357</t>
         </is>
       </c>
       <c r="D43" s="3" t="inlineStr">
@@ -1709,7 +1661,7 @@
       </c>
       <c r="E43" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1014% </t>
+          <t xml:space="preserve">0.1008% </t>
         </is>
       </c>
       <c r="F43" s="2" t="n"/>
@@ -1721,22 +1673,22 @@
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>0xe7af2280c3a70170f9e5cb67c6ea5885680d2838</t>
+          <t>0x69fe97ce030074b37cbaf3ee46e9f68ca8712099</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>100,759,155,015,357</t>
+          <t>100,314,101,049,252</t>
         </is>
       </c>
       <c r="D44" s="3" t="inlineStr">
         <is>
-          <t>101 Trillion</t>
+          <t>100 Trillion</t>
         </is>
       </c>
       <c r="E44" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1008% </t>
+          <t xml:space="preserve">0.1003% </t>
         </is>
       </c>
       <c r="F44" s="2" t="n"/>
@@ -1748,61 +1700,53 @@
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>0x69fe97ce030074b37cbaf3ee46e9f68ca8712099</t>
+          <t>0xf4eaa3a2eb5e8e654eabc030f4395062fe597db3</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>100,314,101,049,252</t>
+          <t>96,501,439,951,511</t>
         </is>
       </c>
       <c r="D45" s="3" t="inlineStr">
         <is>
-          <t>100 Trillion</t>
+          <t>97 Trillion</t>
         </is>
       </c>
       <c r="E45" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1003% </t>
+          <t xml:space="preserve">0.0965% </t>
         </is>
       </c>
       <c r="F45" s="2" t="n"/>
       <c r="G45" s="2" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="4" t="n">
+      <c r="A46" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B46" s="4" t="inlineStr">
-        <is>
-          <t>0x74beaeb59500b4486ec3c83b81552279b79c6728</t>
-        </is>
-      </c>
-      <c r="C46" s="5" t="inlineStr">
-        <is>
-          <t>97,661,445,832,390</t>
-        </is>
-      </c>
-      <c r="D46" s="5" t="inlineStr">
-        <is>
-          <t>98 Trillion</t>
-        </is>
-      </c>
-      <c r="E46" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.0977% </t>
-        </is>
-      </c>
-      <c r="F46" s="6" t="inlineStr">
-        <is>
-          <t>12 Trillion Less</t>
-        </is>
-      </c>
-      <c r="G46" s="7" t="inlineStr">
-        <is>
-          <t>12,286,063,643,518</t>
-        </is>
-      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>0x302c44b648f5a84191f08551be26a2d2456a1fa1</t>
+        </is>
+      </c>
+      <c r="C46" s="3" t="inlineStr">
+        <is>
+          <t>93,720,110,938,117</t>
+        </is>
+      </c>
+      <c r="D46" s="3" t="inlineStr">
+        <is>
+          <t>94 Trillion</t>
+        </is>
+      </c>
+      <c r="E46" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.0937% </t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="n"/>
+      <c r="G46" s="2" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1810,22 +1754,22 @@
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>0xf4eaa3a2eb5e8e654eabc030f4395062fe597db3</t>
+          <t>0xf8a002718fbba65dd1ca19e7027c943c54e20220</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>96,490,257,936,692</t>
+          <t>90,261,215,391,323</t>
         </is>
       </c>
       <c r="D47" s="3" t="inlineStr">
         <is>
-          <t>96 Trillion</t>
+          <t>90 Trillion</t>
         </is>
       </c>
       <c r="E47" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0965% </t>
+          <t xml:space="preserve">0.0903% </t>
         </is>
       </c>
       <c r="F47" s="2" t="n"/>
@@ -1837,22 +1781,22 @@
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>0x302c44b648f5a84191f08551be26a2d2456a1fa1</t>
+          <t>0xb501e46d0e187cd9e2e0b3611fe17ed477f998e1</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>93,709,169,360,592</t>
+          <t>87,591,080,005,807</t>
         </is>
       </c>
       <c r="D48" s="3" t="inlineStr">
         <is>
-          <t>94 Trillion</t>
+          <t>88 Trillion</t>
         </is>
       </c>
       <c r="E48" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0937% </t>
+          <t xml:space="preserve">0.0876% </t>
         </is>
       </c>
       <c r="F48" s="2" t="n"/>
@@ -1864,22 +1808,22 @@
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>0xf8a002718fbba65dd1ca19e7027c943c54e20220</t>
+          <t>0xa6864e154b64a8ce94020a8c1b43f191d3523c47</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>90,247,500,854,894</t>
+          <t>80,931,796,071,595</t>
         </is>
       </c>
       <c r="D49" s="3" t="inlineStr">
         <is>
-          <t>90 Trillion</t>
+          <t>81 Trillion</t>
         </is>
       </c>
       <c r="E49" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0902% </t>
+          <t xml:space="preserve">0.0809% </t>
         </is>
       </c>
       <c r="F49" s="2" t="n"/>
@@ -1893,27 +1837,27 @@
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>10,587,446,944,987,420</t>
+          <t>10,317,842,057,638,290</t>
         </is>
       </c>
       <c r="D51" s="3" t="inlineStr">
         <is>
-          <t>10587 Trillion</t>
+          <t>10318 Trillion</t>
         </is>
       </c>
       <c r="E51" s="3" t="inlineStr">
         <is>
-          <t>10.59%</t>
+          <t>10.32%</t>
         </is>
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>-107 Trillion</t>
+          <t>25 Trillion</t>
         </is>
       </c>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>-107,405,841,026,080</t>
+          <t>25,018,508,254,379</t>
         </is>
       </c>
     </row>
@@ -1936,85 +1880,50 @@
       </c>
       <c r="B54" s="4" t="inlineStr">
         <is>
-          <t>0x000000000000000000000000000000000000dead</t>
+          <t>0xbdf119001cf9d44d902bf7d8e283e10ab66ddeea</t>
         </is>
       </c>
       <c r="C54" s="5" t="inlineStr">
         <is>
-          <t>65,183,927,401,028,500</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D54" s="5" t="inlineStr">
         <is>
-          <t>65184 Trillion</t>
+          <t>0 Trillion</t>
         </is>
       </c>
       <c r="E54" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">65.1660% </t>
-        </is>
-      </c>
-      <c r="F54" s="4" t="inlineStr">
-        <is>
-          <t>18 Trillion More</t>
-        </is>
-      </c>
-      <c r="G54" s="5" t="inlineStr">
-        <is>
-          <t>17,917,109,046,200</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B55" s="4" t="inlineStr">
-        <is>
-          <t>0x86437c0875fa78dc98c57bc010ef4ad07bc01715</t>
-        </is>
-      </c>
-      <c r="C55" s="5" t="inlineStr">
-        <is>
-          <t>83,921,312,991,886</t>
-        </is>
-      </c>
-      <c r="D55" s="5" t="inlineStr">
-        <is>
-          <t>84 Trillion</t>
-        </is>
-      </c>
-      <c r="E55" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.1003% </t>
-        </is>
-      </c>
-      <c r="F55" s="6" t="inlineStr">
-        <is>
-          <t>16 Trillion Less</t>
-        </is>
-      </c>
-      <c r="G55" s="7" t="inlineStr">
-        <is>
-          <t>16,336,281,925,363</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="D57" s="6" t="n"/>
-      <c r="E57" s="7" t="inlineStr">
+          <t xml:space="preserve">0.1618% </t>
+        </is>
+      </c>
+      <c r="F54" s="6" t="inlineStr">
+        <is>
+          <t>162 Trillion Less</t>
+        </is>
+      </c>
+      <c r="G54" s="7" t="inlineStr">
+        <is>
+          <t>161,784,148,511,929</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="D56" s="6" t="n"/>
+      <c r="E56" s="7" t="inlineStr">
         <is>
           <t>Total loss / gain from all whales</t>
         </is>
       </c>
-      <c r="F57" s="6" t="inlineStr">
-        <is>
-          <t>-106 Trillion</t>
-        </is>
-      </c>
-      <c r="G57" s="6" t="inlineStr">
-        <is>
-          <t>-105,825,013,905,243</t>
+      <c r="F56" s="6" t="inlineStr">
+        <is>
+          <t>-137 Trillion</t>
+        </is>
+      </c>
+      <c r="G56" s="6" t="inlineStr">
+        <is>
+          <t>-136,765,640,257,550</t>
         </is>
       </c>
     </row>

--- a/whales/holders.xlsx
+++ b/whales/holders.xlsx
@@ -512,7 +512,7 @@
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>771,644,853,709,860</t>
+          <t>771,752,072,589,225</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -522,7 +522,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.7716% </t>
+          <t xml:space="preserve">0.7718% </t>
         </is>
       </c>
       <c r="F2" s="2" t="n"/>
@@ -539,7 +539,7 @@
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>606,628,614,699,206</t>
+          <t>606,701,059,028,796</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
@@ -549,7 +549,7 @@
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.6066% </t>
+          <t xml:space="preserve">0.6067% </t>
         </is>
       </c>
       <c r="F3" s="2" t="n"/>
@@ -566,7 +566,7 @@
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>605,427,286,588,796</t>
+          <t>605,485,054,350,447</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
@@ -576,7 +576,7 @@
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.6054% </t>
+          <t xml:space="preserve">0.6055% </t>
         </is>
       </c>
       <c r="F4" s="2" t="n"/>
@@ -593,7 +593,7 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>526,695,446,678,495</t>
+          <t>526,716,187,109,473</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
@@ -620,7 +620,7 @@
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>425,957,234,832,158</t>
+          <t>426,056,764,834,862</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
@@ -630,7 +630,7 @@
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.4260% </t>
+          <t xml:space="preserve">0.4261% </t>
         </is>
       </c>
       <c r="F6" s="2" t="n"/>
@@ -647,7 +647,7 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>420,331,665,834,354</t>
+          <t>420,429,881,355,575</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.4203% </t>
+          <t xml:space="preserve">0.4204% </t>
         </is>
       </c>
       <c r="F7" s="2" t="n"/>
@@ -674,7 +674,7 @@
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>408,058,144,513,800</t>
+          <t>408,096,805,184,854</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>406,046,137,063,583</t>
+          <t>406,095,875,445,609</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="E9" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.4060% </t>
+          <t xml:space="preserve">0.4061% </t>
         </is>
       </c>
       <c r="F9" s="2" t="n"/>
@@ -728,7 +728,7 @@
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>373,869,226,173,956</t>
+          <t>373,908,297,845,384</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
@@ -755,17 +755,17 @@
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>370,447,527,939,653</t>
+          <t>370,609,153,032,211</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>370 Trillion</t>
+          <t>371 Trillion</t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.3704% </t>
+          <t xml:space="preserve">0.3706% </t>
         </is>
       </c>
       <c r="F11" s="2" t="n"/>
@@ -782,12 +782,12 @@
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>294,473,304,422,359</t>
+          <t>294,505,453,399,679</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>294 Trillion</t>
+          <t>295 Trillion</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>250,790,894,340,704</t>
+          <t>250,837,546,644,418</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
@@ -853,66 +853,66 @@
       <c r="G14" s="2" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
+      <c r="A15" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="B15" s="4" t="inlineStr">
         <is>
           <t>0xfdd50de023c9a705d9086bf821d15c7450ee93bf</t>
         </is>
       </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>213,683,586,716,116</t>
-        </is>
-      </c>
-      <c r="D15" s="3" t="inlineStr">
-        <is>
-          <t>214 Trillion</t>
-        </is>
-      </c>
-      <c r="E15" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.2137% </t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="n"/>
-      <c r="G15" s="2" t="n"/>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>215,846,756,793,235</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="inlineStr">
+        <is>
+          <t>216 Trillion</t>
+        </is>
+      </c>
+      <c r="E15" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.2158% </t>
+        </is>
+      </c>
+      <c r="F15" s="4" t="inlineStr">
+        <is>
+          <t>2 Trillion More</t>
+        </is>
+      </c>
+      <c r="G15" s="5" t="inlineStr">
+        <is>
+          <t>2,163,170,077,119</t>
+        </is>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="n">
+      <c r="A16" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="inlineStr">
-        <is>
-          <t>0xd96622a9099d758f8d6664ae702a59e9d548ed23</t>
-        </is>
-      </c>
-      <c r="C16" s="5" t="inlineStr">
-        <is>
-          <t>201,585,924,904,630</t>
-        </is>
-      </c>
-      <c r="D16" s="5" t="inlineStr">
-        <is>
-          <t>202 Trillion</t>
-        </is>
-      </c>
-      <c r="E16" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.2016% </t>
-        </is>
-      </c>
-      <c r="F16" s="6" t="inlineStr">
-        <is>
-          <t>1 Trillion Less</t>
-        </is>
-      </c>
-      <c r="G16" s="7" t="inlineStr">
-        <is>
-          <t>1,211,088,764,893</t>
-        </is>
-      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>0x7146f34d166379b4ab5220f5eefd7c79835a3c04</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>196,285,254,150,828</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>196 Trillion</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.1963% </t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="n"/>
+      <c r="G16" s="2" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -920,22 +920,22 @@
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>0x7146f34d166379b4ab5220f5eefd7c79835a3c04</t>
+          <t>0x84d1b0ae25aa0b535552d28455f4d00922baf624</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>196,285,254,150,828</t>
+          <t>194,466,626,545,802</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>196 Trillion</t>
+          <t>194 Trillion</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1963% </t>
+          <t xml:space="preserve">0.1945% </t>
         </is>
       </c>
       <c r="F17" s="2" t="n"/>
@@ -947,22 +947,22 @@
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>0x84d1b0ae25aa0b535552d28455f4d00922baf624</t>
+          <t>0x73149b3cd5e1b8536747048259419147e81a71a9</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>194,466,626,545,802</t>
+          <t>187,514,951,867,350</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>194 Trillion</t>
+          <t>188 Trillion</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1945% </t>
+          <t xml:space="preserve">0.1875% </t>
         </is>
       </c>
       <c r="F18" s="2" t="n"/>
@@ -974,53 +974,61 @@
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>0x73149b3cd5e1b8536747048259419147e81a71a9</t>
+          <t>0x497e289791fc2c2b355c259d9516f079d9b52a63</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>187,514,951,867,350</t>
+          <t>179,508,184,018,389</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>188 Trillion</t>
+          <t>180 Trillion</t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1875% </t>
+          <t xml:space="preserve">0.1795% </t>
         </is>
       </c>
       <c r="F19" s="2" t="n"/>
       <c r="G19" s="2" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
+      <c r="A20" s="4" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>0x497e289791fc2c2b355c259d9516f079d9b52a63</t>
-        </is>
-      </c>
-      <c r="C20" s="3" t="inlineStr">
-        <is>
-          <t>179,508,184,018,389</t>
-        </is>
-      </c>
-      <c r="D20" s="3" t="inlineStr">
-        <is>
-          <t>180 Trillion</t>
-        </is>
-      </c>
-      <c r="E20" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.1795% </t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="n"/>
-      <c r="G20" s="2" t="n"/>
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>0xd96622a9099d758f8d6664ae702a59e9d548ed23</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>176,001,648,758,329</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="inlineStr">
+        <is>
+          <t>176 Trillion</t>
+        </is>
+      </c>
+      <c r="E20" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.1760% </t>
+        </is>
+      </c>
+      <c r="F20" s="6" t="inlineStr">
+        <is>
+          <t>27 Trillion Less</t>
+        </is>
+      </c>
+      <c r="G20" s="7" t="inlineStr">
+        <is>
+          <t>26,795,364,911,194</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1060,7 +1068,7 @@
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>171,326,679,373,107</t>
+          <t>171,405,259,860,568</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
@@ -1070,7 +1078,7 @@
       </c>
       <c r="E22" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1713% </t>
+          <t xml:space="preserve">0.1714% </t>
         </is>
       </c>
       <c r="F22" s="2" t="n"/>
@@ -1141,7 +1149,7 @@
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>150,019,734,629,320</t>
+          <t>150,041,262,982,363</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
@@ -1158,66 +1166,66 @@
       <c r="G25" s="2" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
+      <c r="A26" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="inlineStr">
-        <is>
-          <t>0xd693658b31ef059354118ac2b8067b989ebf4b2b</t>
-        </is>
-      </c>
-      <c r="C26" s="3" t="inlineStr">
-        <is>
-          <t>139,100,895,071,433</t>
-        </is>
-      </c>
-      <c r="D26" s="3" t="inlineStr">
-        <is>
-          <t>139 Trillion</t>
-        </is>
-      </c>
-      <c r="E26" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.1391% </t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="n"/>
-      <c r="G26" s="2" t="n"/>
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t>0x4159fcaefd2216a1b581587ca97da9f53e8ba163</t>
+        </is>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>136,530,023,719,184</t>
+        </is>
+      </c>
+      <c r="D26" s="5" t="inlineStr">
+        <is>
+          <t>137 Trillion</t>
+        </is>
+      </c>
+      <c r="E26" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.1365% </t>
+        </is>
+      </c>
+      <c r="F26" s="6" t="inlineStr">
+        <is>
+          <t>3 Trillion Less</t>
+        </is>
+      </c>
+      <c r="G26" s="7" t="inlineStr">
+        <is>
+          <t>3,470,256,336,735</t>
+        </is>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="4" t="n">
+      <c r="A27" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="4" t="inlineStr">
-        <is>
-          <t>0x4159fcaefd2216a1b581587ca97da9f53e8ba163</t>
-        </is>
-      </c>
-      <c r="C27" s="5" t="inlineStr">
-        <is>
-          <t>136,751,270,047,207</t>
-        </is>
-      </c>
-      <c r="D27" s="5" t="inlineStr">
-        <is>
-          <t>137 Trillion</t>
-        </is>
-      </c>
-      <c r="E27" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.1368% </t>
-        </is>
-      </c>
-      <c r="F27" s="6" t="inlineStr">
-        <is>
-          <t>3 Trillion Less</t>
-        </is>
-      </c>
-      <c r="G27" s="7" t="inlineStr">
-        <is>
-          <t>3,249,010,008,712</t>
-        </is>
-      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>0x112344b8882619f5c8cfa9901d0b88e9eb11a25a</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>128,665,550,500,127</t>
+        </is>
+      </c>
+      <c r="D27" s="3" t="inlineStr">
+        <is>
+          <t>129 Trillion</t>
+        </is>
+      </c>
+      <c r="E27" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.1287% </t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="n"/>
+      <c r="G27" s="2" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1225,115 +1233,123 @@
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>0x112344b8882619f5c8cfa9901d0b88e9eb11a25a</t>
+          <t>0x30e9bda3cefff54d93fd5954b1961b8a5fea03e2</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>128,635,602,638,240</t>
+          <t>127,558,428,460,891</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
         <is>
-          <t>129 Trillion</t>
+          <t>128 Trillion</t>
         </is>
       </c>
       <c r="E28" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1286% </t>
+          <t xml:space="preserve">0.1276% </t>
         </is>
       </c>
       <c r="F28" s="2" t="n"/>
       <c r="G28" s="2" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n">
+      <c r="A29" s="4" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="inlineStr">
-        <is>
-          <t>0x30e9bda3cefff54d93fd5954b1961b8a5fea03e2</t>
-        </is>
-      </c>
-      <c r="C29" s="3" t="inlineStr">
-        <is>
-          <t>127,558,428,460,891</t>
-        </is>
-      </c>
-      <c r="D29" s="3" t="inlineStr">
-        <is>
-          <t>128 Trillion</t>
-        </is>
-      </c>
-      <c r="E29" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.1276% </t>
-        </is>
-      </c>
-      <c r="F29" s="2" t="n"/>
-      <c r="G29" s="2" t="n"/>
+      <c r="B29" s="4" t="inlineStr">
+        <is>
+          <t>0xba8d62918b242917cf67d04c7d68ecaad63df8b3</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="inlineStr">
+        <is>
+          <t>123,116,600,854,674</t>
+        </is>
+      </c>
+      <c r="D29" s="5" t="inlineStr">
+        <is>
+          <t>123 Trillion</t>
+        </is>
+      </c>
+      <c r="E29" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.1231% </t>
+        </is>
+      </c>
+      <c r="F29" s="4" t="inlineStr">
+        <is>
+          <t>13 Trillion More</t>
+        </is>
+      </c>
+      <c r="G29" s="5" t="inlineStr">
+        <is>
+          <t>12,542,656,319,892</t>
+        </is>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="n">
+      <c r="A30" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="4" t="inlineStr">
-        <is>
-          <t>0xba8d62918b242917cf67d04c7d68ecaad63df8b3</t>
-        </is>
-      </c>
-      <c r="C30" s="5" t="inlineStr">
-        <is>
-          <t>123,116,600,854,674</t>
-        </is>
-      </c>
-      <c r="D30" s="5" t="inlineStr">
-        <is>
-          <t>123 Trillion</t>
-        </is>
-      </c>
-      <c r="E30" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.1231% </t>
-        </is>
-      </c>
-      <c r="F30" s="4" t="inlineStr">
-        <is>
-          <t>13 Trillion More</t>
-        </is>
-      </c>
-      <c r="G30" s="5" t="inlineStr">
-        <is>
-          <t>12,542,656,319,892</t>
-        </is>
-      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>0xf08ae27b3b1c31d1cfc2879e2ae567d81d42bdeb</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="inlineStr">
+        <is>
+          <t>121,263,627,340,142</t>
+        </is>
+      </c>
+      <c r="D30" s="3" t="inlineStr">
+        <is>
+          <t>121 Trillion</t>
+        </is>
+      </c>
+      <c r="E30" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.1213% </t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="n"/>
+      <c r="G30" s="2" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n">
+      <c r="A31" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="inlineStr">
-        <is>
-          <t>0xf08ae27b3b1c31d1cfc2879e2ae567d81d42bdeb</t>
-        </is>
-      </c>
-      <c r="C31" s="3" t="inlineStr">
-        <is>
-          <t>121,240,329,960,995</t>
-        </is>
-      </c>
-      <c r="D31" s="3" t="inlineStr">
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>0xd693658b31ef059354118ac2b8067b989ebf4b2b</t>
+        </is>
+      </c>
+      <c r="C31" s="5" t="inlineStr">
+        <is>
+          <t>121,228,644,257,953</t>
+        </is>
+      </c>
+      <c r="D31" s="5" t="inlineStr">
         <is>
           <t>121 Trillion</t>
         </is>
       </c>
-      <c r="E31" s="3" t="inlineStr">
+      <c r="E31" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">0.1212% </t>
         </is>
       </c>
-      <c r="F31" s="2" t="n"/>
-      <c r="G31" s="2" t="n"/>
+      <c r="F31" s="6" t="inlineStr">
+        <is>
+          <t>18 Trillion Less</t>
+        </is>
+      </c>
+      <c r="G31" s="7" t="inlineStr">
+        <is>
+          <t>17,872,250,813,480</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1373,7 +1389,7 @@
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>116,329,639,416,348</t>
+          <t>116,346,430,908,203</t>
         </is>
       </c>
       <c r="D33" s="3" t="inlineStr">
@@ -1462,7 +1478,7 @@
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>113,943,536,411,277</t>
+          <t>113,963,014,448,946</t>
         </is>
       </c>
       <c r="D36" s="3" t="inlineStr">
@@ -1472,7 +1488,7 @@
       </c>
       <c r="E36" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1139% </t>
+          <t xml:space="preserve">0.1140% </t>
         </is>
       </c>
       <c r="F36" s="2" t="n"/>
@@ -1489,7 +1505,7 @@
       </c>
       <c r="C37" s="3" t="inlineStr">
         <is>
-          <t>111,320,675,565,947</t>
+          <t>111,385,883,928,356</t>
         </is>
       </c>
       <c r="D37" s="3" t="inlineStr">
@@ -1499,7 +1515,7 @@
       </c>
       <c r="E37" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1113% </t>
+          <t xml:space="preserve">0.1114% </t>
         </is>
       </c>
       <c r="F37" s="2" t="n"/>
@@ -1641,31 +1657,39 @@
       <c r="G42" s="2" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n">
+      <c r="A43" s="4" t="n">
         <v>42</v>
       </c>
-      <c r="B43" s="2" t="inlineStr">
-        <is>
-          <t>0xe7af2280c3a70170f9e5cb67c6ea5885680d2838</t>
-        </is>
-      </c>
-      <c r="C43" s="3" t="inlineStr">
-        <is>
-          <t>100,759,155,015,357</t>
-        </is>
-      </c>
-      <c r="D43" s="3" t="inlineStr">
+      <c r="B43" s="4" t="inlineStr">
+        <is>
+          <t>0xf4eaa3a2eb5e8e654eabc030f4395062fe597db3</t>
+        </is>
+      </c>
+      <c r="C43" s="5" t="inlineStr">
+        <is>
+          <t>101,285,115,616,309</t>
+        </is>
+      </c>
+      <c r="D43" s="5" t="inlineStr">
         <is>
           <t>101 Trillion</t>
         </is>
       </c>
-      <c r="E43" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.1008% </t>
-        </is>
-      </c>
-      <c r="F43" s="2" t="n"/>
-      <c r="G43" s="2" t="n"/>
+      <c r="E43" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.1013% </t>
+        </is>
+      </c>
+      <c r="F43" s="4" t="inlineStr">
+        <is>
+          <t>5 Trillion More</t>
+        </is>
+      </c>
+      <c r="G43" s="5" t="inlineStr">
+        <is>
+          <t>4,783,675,664,798</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1673,22 +1697,22 @@
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>0x69fe97ce030074b37cbaf3ee46e9f68ca8712099</t>
+          <t>0xe7af2280c3a70170f9e5cb67c6ea5885680d2838</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>100,314,101,049,252</t>
+          <t>100,759,155,015,357</t>
         </is>
       </c>
       <c r="D44" s="3" t="inlineStr">
         <is>
-          <t>100 Trillion</t>
+          <t>101 Trillion</t>
         </is>
       </c>
       <c r="E44" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1003% </t>
+          <t xml:space="preserve">0.1008% </t>
         </is>
       </c>
       <c r="F44" s="2" t="n"/>
@@ -1700,22 +1724,22 @@
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>0xf4eaa3a2eb5e8e654eabc030f4395062fe597db3</t>
+          <t>0x69fe97ce030074b37cbaf3ee46e9f68ca8712099</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>96,501,439,951,511</t>
+          <t>100,314,101,049,252</t>
         </is>
       </c>
       <c r="D45" s="3" t="inlineStr">
         <is>
-          <t>97 Trillion</t>
+          <t>100 Trillion</t>
         </is>
       </c>
       <c r="E45" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0965% </t>
+          <t xml:space="preserve">0.1003% </t>
         </is>
       </c>
       <c r="F45" s="2" t="n"/>
@@ -1781,22 +1805,22 @@
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>0xb501e46d0e187cd9e2e0b3611fe17ed477f998e1</t>
+          <t>0xfe63b36ca9a63bff12f3fcd163482a5c772df526</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>87,591,080,005,807</t>
+          <t>89,579,509,764,428</t>
         </is>
       </c>
       <c r="D48" s="3" t="inlineStr">
         <is>
-          <t>88 Trillion</t>
+          <t>90 Trillion</t>
         </is>
       </c>
       <c r="E48" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0876% </t>
+          <t xml:space="preserve">0.0896% </t>
         </is>
       </c>
       <c r="F48" s="2" t="n"/>
@@ -1808,22 +1832,22 @@
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>0xa6864e154b64a8ce94020a8c1b43f191d3523c47</t>
+          <t>0xb501e46d0e187cd9e2e0b3611fe17ed477f998e1</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>80,931,796,071,595</t>
+          <t>87,591,080,005,807</t>
         </is>
       </c>
       <c r="D49" s="3" t="inlineStr">
         <is>
-          <t>81 Trillion</t>
+          <t>88 Trillion</t>
         </is>
       </c>
       <c r="E49" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0809% </t>
+          <t xml:space="preserve">0.0876% </t>
         </is>
       </c>
       <c r="F49" s="2" t="n"/>
@@ -1837,27 +1861,27 @@
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>10,317,842,057,638,290</t>
+          <t>10,290,837,489,782,316</t>
         </is>
       </c>
       <c r="D51" s="3" t="inlineStr">
         <is>
-          <t>10318 Trillion</t>
+          <t>10291 Trillion</t>
         </is>
       </c>
       <c r="E51" s="3" t="inlineStr">
         <is>
-          <t>10.32%</t>
+          <t>10.29%</t>
         </is>
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>25 Trillion</t>
+          <t>-12 Trillion</t>
         </is>
       </c>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>25,018,508,254,379</t>
+          <t>-11,712,419,291,508</t>
         </is>
       </c>
     </row>
@@ -1918,12 +1942,12 @@
       </c>
       <c r="F56" s="6" t="inlineStr">
         <is>
-          <t>-137 Trillion</t>
+          <t>-173 Trillion</t>
         </is>
       </c>
       <c r="G56" s="6" t="inlineStr">
         <is>
-          <t>-136,765,640,257,550</t>
+          <t>-173,496,567,803,437</t>
         </is>
       </c>
     </row>

--- a/whales/holders.xlsx
+++ b/whales/holders.xlsx
@@ -512,7 +512,7 @@
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>771,752,072,589,225</t>
+          <t>771,833,915,882,515</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -539,7 +539,7 @@
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>606,701,059,028,796</t>
+          <t>606,765,760,701,504</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
@@ -549,7 +549,7 @@
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.6067% </t>
+          <t xml:space="preserve">0.6068% </t>
         </is>
       </c>
       <c r="F3" s="2" t="n"/>
@@ -566,17 +566,17 @@
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>605,485,054,350,447</t>
+          <t>605,601,301,440,392</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>605 Trillion</t>
+          <t>606 Trillion</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.6055% </t>
+          <t xml:space="preserve">0.6056% </t>
         </is>
       </c>
       <c r="F4" s="2" t="n"/>
@@ -593,7 +593,7 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>526,716,187,109,473</t>
+          <t>526,822,672,204,591</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
@@ -603,7 +603,7 @@
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.5267% </t>
+          <t xml:space="preserve">0.5268% </t>
         </is>
       </c>
       <c r="F5" s="2" t="n"/>
@@ -620,7 +620,7 @@
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>426,056,764,834,862</t>
+          <t>426,091,201,769,514</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>420,429,881,355,575</t>
+          <t>420,464,482,776,237</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.4204% </t>
+          <t xml:space="preserve">0.4205% </t>
         </is>
       </c>
       <c r="F7" s="2" t="n"/>
@@ -674,7 +674,7 @@
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>408,096,805,184,854</t>
+          <t>408,175,155,700,161</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
@@ -684,38 +684,46 @@
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.4081% </t>
+          <t xml:space="preserve">0.4082% </t>
         </is>
       </c>
       <c r="F8" s="2" t="n"/>
       <c r="G8" s="2" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="B9" s="4" t="inlineStr">
         <is>
           <t>0x7167d70b2e6b167633356254bf22f5d32aedcd5b</t>
         </is>
       </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>406,095,875,445,609</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>406 Trillion</t>
-        </is>
-      </c>
-      <c r="E9" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.4061% </t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="n"/>
-      <c r="G9" s="2" t="n"/>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>404,961,648,344,689</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>405 Trillion</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.4050% </t>
+        </is>
+      </c>
+      <c r="F9" s="6" t="inlineStr">
+        <is>
+          <t>1 Trillion Less</t>
+        </is>
+      </c>
+      <c r="G9" s="7" t="inlineStr">
+        <is>
+          <t>1,084,488,718,894</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -728,7 +736,7 @@
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>373,908,297,845,384</t>
+          <t>373,980,084,508,355</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
@@ -738,7 +746,7 @@
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.3739% </t>
+          <t xml:space="preserve">0.3740% </t>
         </is>
       </c>
       <c r="F10" s="2" t="n"/>
@@ -755,7 +763,7 @@
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>370,609,153,032,211</t>
+          <t>370,678,542,862,284</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
@@ -765,7 +773,7 @@
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.3706% </t>
+          <t xml:space="preserve">0.3707% </t>
         </is>
       </c>
       <c r="F11" s="2" t="n"/>
@@ -782,7 +790,7 @@
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>294,505,453,399,679</t>
+          <t>294,560,594,194,772</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
@@ -792,7 +800,7 @@
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.2945% </t>
+          <t xml:space="preserve">0.2946% </t>
         </is>
       </c>
       <c r="F12" s="2" t="n"/>
@@ -809,7 +817,7 @@
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>251,178,233,121,536</t>
+          <t>251,338,151,845,346</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
@@ -819,7 +827,7 @@
       </c>
       <c r="E13" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.2512% </t>
+          <t xml:space="preserve">0.2513% </t>
         </is>
       </c>
       <c r="F13" s="2" t="n"/>
@@ -836,7 +844,7 @@
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>250,837,546,644,418</t>
+          <t>250,864,576,086,933</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
@@ -846,7 +854,7 @@
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.2508% </t>
+          <t xml:space="preserve">0.2509% </t>
         </is>
       </c>
       <c r="F14" s="2" t="n"/>
@@ -863,7 +871,7 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>215,846,756,793,235</t>
+          <t>215,889,240,989,843</t>
         </is>
       </c>
       <c r="D15" s="5" t="inlineStr">
@@ -873,7 +881,7 @@
       </c>
       <c r="E15" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.2158% </t>
+          <t xml:space="preserve">0.2159% </t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
@@ -883,7 +891,7 @@
       </c>
       <c r="G15" s="5" t="inlineStr">
         <is>
-          <t>2,163,170,077,119</t>
+          <t>2,205,654,273,727</t>
         </is>
       </c>
     </row>
@@ -898,7 +906,7 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>196,285,254,150,828</t>
+          <t>196,393,969,576,843</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
@@ -908,7 +916,7 @@
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1963% </t>
+          <t xml:space="preserve">0.1964% </t>
         </is>
       </c>
       <c r="F16" s="2" t="n"/>
@@ -925,17 +933,17 @@
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>194,466,626,545,802</t>
+          <t>194,553,985,054,914</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>194 Trillion</t>
+          <t>195 Trillion</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1945% </t>
+          <t xml:space="preserve">0.1946% </t>
         </is>
       </c>
       <c r="F17" s="2" t="n"/>
@@ -952,7 +960,7 @@
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>187,514,951,867,350</t>
+          <t>187,599,187,537,615</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
@@ -962,7 +970,7 @@
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1875% </t>
+          <t xml:space="preserve">0.1876% </t>
         </is>
       </c>
       <c r="F18" s="2" t="n"/>
@@ -979,7 +987,7 @@
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>179,508,184,018,389</t>
+          <t>179,709,225,350,952</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
@@ -989,7 +997,7 @@
       </c>
       <c r="E19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1795% </t>
+          <t xml:space="preserve">0.1797% </t>
         </is>
       </c>
       <c r="F19" s="2" t="n"/>
@@ -1006,7 +1014,7 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>176,001,648,758,329</t>
+          <t>176,027,216,491,331</t>
         </is>
       </c>
       <c r="D20" s="5" t="inlineStr">
@@ -1021,12 +1029,12 @@
       </c>
       <c r="F20" s="6" t="inlineStr">
         <is>
-          <t>27 Trillion Less</t>
+          <t>26 Trillion Less</t>
         </is>
       </c>
       <c r="G20" s="7" t="inlineStr">
         <is>
-          <t>26,795,364,911,194</t>
+          <t>25,558,708,413,299</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1049,7 @@
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>173,828,212,648,958</t>
+          <t>173,882,883,004,032</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
@@ -1051,7 +1059,7 @@
       </c>
       <c r="E21" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1738% </t>
+          <t xml:space="preserve">0.1739% </t>
         </is>
       </c>
       <c r="F21" s="2" t="n"/>
@@ -1068,7 +1076,7 @@
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>171,405,259,860,568</t>
+          <t>171,421,497,114,632</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
@@ -1095,7 +1103,7 @@
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>154,051,941,018,669</t>
+          <t>154,168,258,222,150</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
@@ -1105,7 +1113,7 @@
       </c>
       <c r="E23" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1541% </t>
+          <t xml:space="preserve">0.1542% </t>
         </is>
       </c>
       <c r="F23" s="2" t="n"/>
@@ -1149,7 +1157,7 @@
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>150,041,262,982,363</t>
+          <t>150,051,727,113,058</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
@@ -1159,7 +1167,7 @@
       </c>
       <c r="E25" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1500% </t>
+          <t xml:space="preserve">0.1501% </t>
         </is>
       </c>
       <c r="F25" s="2" t="n"/>
@@ -1176,118 +1184,126 @@
       </c>
       <c r="C26" s="5" t="inlineStr">
         <is>
-          <t>136,530,023,719,184</t>
+          <t>135,079,279,666,162</t>
         </is>
       </c>
       <c r="D26" s="5" t="inlineStr">
         <is>
-          <t>137 Trillion</t>
+          <t>135 Trillion</t>
         </is>
       </c>
       <c r="E26" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1365% </t>
+          <t xml:space="preserve">0.1351% </t>
         </is>
       </c>
       <c r="F26" s="6" t="inlineStr">
         <is>
-          <t>3 Trillion Less</t>
+          <t>2 Trillion Less</t>
         </is>
       </c>
       <c r="G26" s="7" t="inlineStr">
         <is>
-          <t>3,470,256,336,735</t>
+          <t>1,671,990,381,045</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n">
+      <c r="A27" s="4" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="inlineStr">
+      <c r="B27" s="4" t="inlineStr">
         <is>
           <t>0x112344b8882619f5c8cfa9901d0b88e9eb11a25a</t>
         </is>
       </c>
-      <c r="C27" s="3" t="inlineStr">
-        <is>
-          <t>128,665,550,500,127</t>
-        </is>
-      </c>
-      <c r="D27" s="3" t="inlineStr">
+      <c r="C27" s="5" t="inlineStr">
+        <is>
+          <t>130,810,457,602,832</t>
+        </is>
+      </c>
+      <c r="D27" s="5" t="inlineStr">
+        <is>
+          <t>131 Trillion</t>
+        </is>
+      </c>
+      <c r="E27" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.1308% </t>
+        </is>
+      </c>
+      <c r="F27" s="4" t="inlineStr">
+        <is>
+          <t>2 Trillion More</t>
+        </is>
+      </c>
+      <c r="G27" s="5" t="inlineStr">
+        <is>
+          <t>2,174,854,964,592</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="inlineStr">
+        <is>
+          <t>0xd693658b31ef059354118ac2b8067b989ebf4b2b</t>
+        </is>
+      </c>
+      <c r="C28" s="5" t="inlineStr">
+        <is>
+          <t>129,092,915,079,929</t>
+        </is>
+      </c>
+      <c r="D28" s="5" t="inlineStr">
         <is>
           <t>129 Trillion</t>
         </is>
       </c>
-      <c r="E27" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.1287% </t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="n"/>
-      <c r="G27" s="2" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2" t="inlineStr">
+      <c r="E28" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.1291% </t>
+        </is>
+      </c>
+      <c r="F28" s="6" t="inlineStr">
+        <is>
+          <t>10 Trillion Less</t>
+        </is>
+      </c>
+      <c r="G28" s="7" t="inlineStr">
+        <is>
+          <t>10,007,979,991,504</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
         <is>
           <t>0x30e9bda3cefff54d93fd5954b1961b8a5fea03e2</t>
         </is>
       </c>
-      <c r="C28" s="3" t="inlineStr">
+      <c r="C29" s="3" t="inlineStr">
         <is>
           <t>127,558,428,460,891</t>
         </is>
       </c>
-      <c r="D28" s="3" t="inlineStr">
+      <c r="D29" s="3" t="inlineStr">
         <is>
           <t>128 Trillion</t>
         </is>
       </c>
-      <c r="E28" s="3" t="inlineStr">
+      <c r="E29" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">0.1276% </t>
         </is>
       </c>
-      <c r="F28" s="2" t="n"/>
-      <c r="G28" s="2" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="4" t="n">
-        <v>28</v>
-      </c>
-      <c r="B29" s="4" t="inlineStr">
-        <is>
-          <t>0xba8d62918b242917cf67d04c7d68ecaad63df8b3</t>
-        </is>
-      </c>
-      <c r="C29" s="5" t="inlineStr">
-        <is>
-          <t>123,116,600,854,674</t>
-        </is>
-      </c>
-      <c r="D29" s="5" t="inlineStr">
-        <is>
-          <t>123 Trillion</t>
-        </is>
-      </c>
-      <c r="E29" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.1231% </t>
-        </is>
-      </c>
-      <c r="F29" s="4" t="inlineStr">
-        <is>
-          <t>13 Trillion More</t>
-        </is>
-      </c>
-      <c r="G29" s="5" t="inlineStr">
-        <is>
-          <t>12,542,656,319,892</t>
-        </is>
-      </c>
+      <c r="F29" s="2" t="n"/>
+      <c r="G29" s="2" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1295,61 +1311,53 @@
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>0xf08ae27b3b1c31d1cfc2879e2ae567d81d42bdeb</t>
+          <t>0xba8d62918b242917cf67d04c7d68ecaad63df8b3</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>121,263,627,340,142</t>
+          <t>123,116,600,854,674</t>
         </is>
       </c>
       <c r="D30" s="3" t="inlineStr">
         <is>
-          <t>121 Trillion</t>
+          <t>123 Trillion</t>
         </is>
       </c>
       <c r="E30" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1213% </t>
+          <t xml:space="preserve">0.1231% </t>
         </is>
       </c>
       <c r="F30" s="2" t="n"/>
       <c r="G30" s="2" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="4" t="n">
+      <c r="A31" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="4" t="inlineStr">
-        <is>
-          <t>0xd693658b31ef059354118ac2b8067b989ebf4b2b</t>
-        </is>
-      </c>
-      <c r="C31" s="5" t="inlineStr">
-        <is>
-          <t>121,228,644,257,953</t>
-        </is>
-      </c>
-      <c r="D31" s="5" t="inlineStr">
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>0xf08ae27b3b1c31d1cfc2879e2ae567d81d42bdeb</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>121,273,959,435,675</t>
+        </is>
+      </c>
+      <c r="D31" s="3" t="inlineStr">
         <is>
           <t>121 Trillion</t>
         </is>
       </c>
-      <c r="E31" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.1212% </t>
-        </is>
-      </c>
-      <c r="F31" s="6" t="inlineStr">
-        <is>
-          <t>18 Trillion Less</t>
-        </is>
-      </c>
-      <c r="G31" s="7" t="inlineStr">
-        <is>
-          <t>17,872,250,813,480</t>
-        </is>
-      </c>
+      <c r="E31" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.1213% </t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="n"/>
+      <c r="G31" s="2" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1416,7 +1424,7 @@
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>114,897,327,215,449</t>
+          <t>114,925,950,678,124</t>
         </is>
       </c>
       <c r="D34" s="3" t="inlineStr">
@@ -1433,39 +1441,31 @@
       <c r="G34" s="2" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="4" t="n">
+      <c r="A35" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="4" t="inlineStr">
+      <c r="B35" s="2" t="inlineStr">
         <is>
           <t>0x74beaeb59500b4486ec3c83b81552279b79c6728</t>
         </is>
       </c>
-      <c r="C35" s="5" t="inlineStr">
+      <c r="C35" s="3" t="inlineStr">
         <is>
           <t>114,597,396,540,482</t>
         </is>
       </c>
-      <c r="D35" s="5" t="inlineStr">
+      <c r="D35" s="3" t="inlineStr">
         <is>
           <t>115 Trillion</t>
         </is>
       </c>
-      <c r="E35" s="5" t="inlineStr">
+      <c r="E35" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">0.1146% </t>
         </is>
       </c>
-      <c r="F35" s="4" t="inlineStr">
-        <is>
-          <t>17 Trillion More</t>
-        </is>
-      </c>
-      <c r="G35" s="5" t="inlineStr">
-        <is>
-          <t>16,935,950,708,092</t>
-        </is>
-      </c>
+      <c r="F35" s="2" t="n"/>
+      <c r="G35" s="2" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1478,7 +1478,7 @@
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>113,963,014,448,946</t>
+          <t>113,974,585,958,522</t>
         </is>
       </c>
       <c r="D36" s="3" t="inlineStr">
@@ -1667,7 +1667,7 @@
       </c>
       <c r="C43" s="5" t="inlineStr">
         <is>
-          <t>101,285,115,616,309</t>
+          <t>101,305,351,177,183</t>
         </is>
       </c>
       <c r="D43" s="5" t="inlineStr">
@@ -1687,7 +1687,7 @@
       </c>
       <c r="G43" s="5" t="inlineStr">
         <is>
-          <t>4,783,675,664,798</t>
+          <t>4,803,911,225,672</t>
         </is>
       </c>
     </row>
@@ -1756,7 +1756,7 @@
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>93,720,110,938,117</t>
+          <t>93,761,590,132,526</t>
         </is>
       </c>
       <c r="D46" s="3" t="inlineStr">
@@ -1766,7 +1766,7 @@
       </c>
       <c r="E46" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0937% </t>
+          <t xml:space="preserve">0.0938% </t>
         </is>
       </c>
       <c r="F46" s="2" t="n"/>
@@ -1783,7 +1783,7 @@
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>90,261,215,391,323</t>
+          <t>90,297,867,318,217</t>
         </is>
       </c>
       <c r="D47" s="3" t="inlineStr">
@@ -1837,7 +1837,7 @@
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>87,591,080,005,807</t>
+          <t>87,633,272,240,304</t>
         </is>
       </c>
       <c r="D49" s="3" t="inlineStr">
@@ -1861,27 +1861,27 @@
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>10,290,837,489,782,316</t>
+          <t>10,300,099,805,824,536</t>
         </is>
       </c>
       <c r="D51" s="3" t="inlineStr">
         <is>
-          <t>10291 Trillion</t>
+          <t>10300 Trillion</t>
         </is>
       </c>
       <c r="E51" s="3" t="inlineStr">
         <is>
-          <t>10.29%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>-12 Trillion</t>
+          <t>-29 Trillion</t>
         </is>
       </c>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>-11,712,419,291,508</t>
+          <t>-29,138,747,040,751</t>
         </is>
       </c>
     </row>
@@ -1899,39 +1899,31 @@
       <c r="G53" s="8" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="4" t="n">
+      <c r="A54" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B54" s="4" t="inlineStr">
-        <is>
-          <t>0xbdf119001cf9d44d902bf7d8e283e10ab66ddeea</t>
-        </is>
-      </c>
-      <c r="C54" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D54" s="5" t="inlineStr">
-        <is>
-          <t>0 Trillion</t>
-        </is>
-      </c>
-      <c r="E54" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.1618% </t>
-        </is>
-      </c>
-      <c r="F54" s="6" t="inlineStr">
-        <is>
-          <t>162 Trillion Less</t>
-        </is>
-      </c>
-      <c r="G54" s="7" t="inlineStr">
-        <is>
-          <t>161,784,148,511,929</t>
-        </is>
-      </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>0xa6864e154b64a8ce94020a8c1b43f191d3523c47</t>
+        </is>
+      </c>
+      <c r="C54" s="3" t="inlineStr">
+        <is>
+          <t>80,956,818,806,741</t>
+        </is>
+      </c>
+      <c r="D54" s="3" t="inlineStr">
+        <is>
+          <t>81 Trillion</t>
+        </is>
+      </c>
+      <c r="E54" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.0809% </t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="n"/>
+      <c r="G54" s="2" t="n"/>
     </row>
     <row r="56">
       <c r="D56" s="6" t="n"/>
@@ -1942,12 +1934,12 @@
       </c>
       <c r="F56" s="6" t="inlineStr">
         <is>
-          <t>-173 Trillion</t>
+          <t>-29 Trillion</t>
         </is>
       </c>
       <c r="G56" s="6" t="inlineStr">
         <is>
-          <t>-173,496,567,803,437</t>
+          <t>-29,138,747,040,751</t>
         </is>
       </c>
     </row>

--- a/whales/holders.xlsx
+++ b/whales/holders.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,7 +512,7 @@
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>771,833,915,882,515</t>
+          <t>771,907,644,164,113</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -522,7 +522,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.7718% </t>
+          <t xml:space="preserve">0.7719% </t>
         </is>
       </c>
       <c r="F2" s="2" t="n"/>
@@ -593,7 +593,7 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>526,822,672,204,591</t>
+          <t>526,879,756,919,683</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
@@ -603,7 +603,7 @@
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.5268% </t>
+          <t xml:space="preserve">0.5269% </t>
         </is>
       </c>
       <c r="F5" s="2" t="n"/>
@@ -701,27 +701,27 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>404,961,648,344,689</t>
+          <t>403,596,223,276,461</t>
         </is>
       </c>
       <c r="D9" s="5" t="inlineStr">
         <is>
-          <t>405 Trillion</t>
+          <t>404 Trillion</t>
         </is>
       </c>
       <c r="E9" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.4050% </t>
+          <t xml:space="preserve">0.4036% </t>
         </is>
       </c>
       <c r="F9" s="6" t="inlineStr">
         <is>
-          <t>1 Trillion Less</t>
+          <t>2 Trillion Less</t>
         </is>
       </c>
       <c r="G9" s="7" t="inlineStr">
         <is>
-          <t>1,084,488,718,894</t>
+          <t>2,499,652,169,148</t>
         </is>
       </c>
     </row>
@@ -736,7 +736,7 @@
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>373,980,084,508,355</t>
+          <t>374,010,628,421,897</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>370,678,542,862,284</t>
+          <t>370,708,832,112,391</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
@@ -817,7 +817,7 @@
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>251,338,151,845,346</t>
+          <t>251,352,445,358,467</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="E13" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.2513% </t>
+          <t xml:space="preserve">0.2514% </t>
         </is>
       </c>
       <c r="F13" s="2" t="n"/>
@@ -844,7 +844,7 @@
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>250,864,576,086,933</t>
+          <t>250,882,253,407,918</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
@@ -861,39 +861,31 @@
       <c r="G14" s="2" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="n">
+      <c r="A15" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="inlineStr">
+      <c r="B15" s="2" t="inlineStr">
         <is>
           <t>0xfdd50de023c9a705d9086bf821d15c7450ee93bf</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr">
-        <is>
-          <t>215,889,240,989,843</t>
-        </is>
-      </c>
-      <c r="D15" s="5" t="inlineStr">
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>215,899,157,980,816</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
         <is>
           <t>216 Trillion</t>
         </is>
       </c>
-      <c r="E15" s="5" t="inlineStr">
+      <c r="E15" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">0.2159% </t>
         </is>
       </c>
-      <c r="F15" s="4" t="inlineStr">
-        <is>
-          <t>2 Trillion More</t>
-        </is>
-      </c>
-      <c r="G15" s="5" t="inlineStr">
-        <is>
-          <t>2,205,654,273,727</t>
-        </is>
-      </c>
+      <c r="F15" s="2" t="n"/>
+      <c r="G15" s="2" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1004,39 +996,31 @@
       <c r="G19" s="2" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="n">
+      <c r="A20" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="inlineStr">
-        <is>
-          <t>0xd96622a9099d758f8d6664ae702a59e9d548ed23</t>
-        </is>
-      </c>
-      <c r="C20" s="5" t="inlineStr">
-        <is>
-          <t>176,027,216,491,331</t>
-        </is>
-      </c>
-      <c r="D20" s="5" t="inlineStr">
-        <is>
-          <t>176 Trillion</t>
-        </is>
-      </c>
-      <c r="E20" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.1760% </t>
-        </is>
-      </c>
-      <c r="F20" s="6" t="inlineStr">
-        <is>
-          <t>26 Trillion Less</t>
-        </is>
-      </c>
-      <c r="G20" s="7" t="inlineStr">
-        <is>
-          <t>25,558,708,413,299</t>
-        </is>
-      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>0x0932767b51f1faedc5a86fb935eec8032f62eea8</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>173,882,883,004,032</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>174 Trillion</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.1739% </t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="n"/>
+      <c r="G20" s="2" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1044,22 +1028,22 @@
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>0x0932767b51f1faedc5a86fb935eec8032f62eea8</t>
+          <t>0xf3f83f6a5830e55b45b3c44010be0481baa1b9be</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>173,882,883,004,032</t>
+          <t>171,426,049,842,443</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
         <is>
-          <t>174 Trillion</t>
+          <t>171 Trillion</t>
         </is>
       </c>
       <c r="E21" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1739% </t>
+          <t xml:space="preserve">0.1714% </t>
         </is>
       </c>
       <c r="F21" s="2" t="n"/>
@@ -1071,22 +1055,22 @@
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>0xf3f83f6a5830e55b45b3c44010be0481baa1b9be</t>
+          <t>0x7b5b9b8d134bec76023cd6c20358d38714cc5c58</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>171,421,497,114,632</t>
+          <t>154,172,352,726,799</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
         <is>
-          <t>171 Trillion</t>
+          <t>154 Trillion</t>
         </is>
       </c>
       <c r="E22" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1714% </t>
+          <t xml:space="preserve">0.1542% </t>
         </is>
       </c>
       <c r="F22" s="2" t="n"/>
@@ -1098,53 +1082,61 @@
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>0x7b5b9b8d134bec76023cd6c20358d38714cc5c58</t>
+          <t>0x1ae48253b364374d3db52de311302fc501b87895</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>154,168,258,222,150</t>
+          <t>153,243,845,851,737</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
         <is>
-          <t>154 Trillion</t>
+          <t>153 Trillion</t>
         </is>
       </c>
       <c r="E23" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1542% </t>
+          <t xml:space="preserve">0.1532% </t>
         </is>
       </c>
       <c r="F23" s="2" t="n"/>
       <c r="G23" s="2" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
+      <c r="A24" s="4" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>0x1ae48253b364374d3db52de311302fc501b87895</t>
-        </is>
-      </c>
-      <c r="C24" s="3" t="inlineStr">
-        <is>
-          <t>153,169,514,183,082</t>
-        </is>
-      </c>
-      <c r="D24" s="3" t="inlineStr">
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>0x112344b8882619f5c8cfa9901d0b88e9eb11a25a</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>152,906,824,661,507</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="inlineStr">
         <is>
           <t>153 Trillion</t>
         </is>
       </c>
-      <c r="E24" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.1532% </t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="n"/>
-      <c r="G24" s="2" t="n"/>
+      <c r="E24" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.1529% </t>
+        </is>
+      </c>
+      <c r="F24" s="4" t="inlineStr">
+        <is>
+          <t>24 Trillion More</t>
+        </is>
+      </c>
+      <c r="G24" s="5" t="inlineStr">
+        <is>
+          <t>24,241,274,161,380</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1157,7 +1149,7 @@
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>150,051,727,113,058</t>
+          <t>150,065,927,290,654</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
@@ -1174,39 +1166,31 @@
       <c r="G25" s="2" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="n">
+      <c r="A26" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="4" t="inlineStr">
+      <c r="B26" s="2" t="inlineStr">
         <is>
           <t>0x4159fcaefd2216a1b581587ca97da9f53e8ba163</t>
         </is>
       </c>
-      <c r="C26" s="5" t="inlineStr">
-        <is>
-          <t>135,079,279,666,162</t>
-        </is>
-      </c>
-      <c r="D26" s="5" t="inlineStr">
-        <is>
-          <t>135 Trillion</t>
-        </is>
-      </c>
-      <c r="E26" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.1351% </t>
-        </is>
-      </c>
-      <c r="F26" s="6" t="inlineStr">
-        <is>
-          <t>2 Trillion Less</t>
-        </is>
-      </c>
-      <c r="G26" s="7" t="inlineStr">
-        <is>
-          <t>1,671,990,381,045</t>
-        </is>
-      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>136,000,888,205,621</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="inlineStr">
+        <is>
+          <t>136 Trillion</t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.1360% </t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="n"/>
+      <c r="G26" s="2" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="4" t="n">
@@ -1214,69 +1198,61 @@
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>0x112344b8882619f5c8cfa9901d0b88e9eb11a25a</t>
+          <t>0xd96622a9099d758f8d6664ae702a59e9d548ed23</t>
         </is>
       </c>
       <c r="C27" s="5" t="inlineStr">
         <is>
-          <t>130,810,457,602,832</t>
+          <t>130,001,153,853,216</t>
         </is>
       </c>
       <c r="D27" s="5" t="inlineStr">
         <is>
-          <t>131 Trillion</t>
+          <t>130 Trillion</t>
         </is>
       </c>
       <c r="E27" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1308% </t>
-        </is>
-      </c>
-      <c r="F27" s="4" t="inlineStr">
-        <is>
-          <t>2 Trillion More</t>
-        </is>
-      </c>
-      <c r="G27" s="5" t="inlineStr">
-        <is>
-          <t>2,174,854,964,592</t>
+          <t xml:space="preserve">0.1300% </t>
+        </is>
+      </c>
+      <c r="F27" s="6" t="inlineStr">
+        <is>
+          <t>46 Trillion Less</t>
+        </is>
+      </c>
+      <c r="G27" s="7" t="inlineStr">
+        <is>
+          <t>46,000,494,905,113</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="n">
+      <c r="A28" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="4" t="inlineStr">
-        <is>
-          <t>0xd693658b31ef059354118ac2b8067b989ebf4b2b</t>
-        </is>
-      </c>
-      <c r="C28" s="5" t="inlineStr">
-        <is>
-          <t>129,092,915,079,929</t>
-        </is>
-      </c>
-      <c r="D28" s="5" t="inlineStr">
-        <is>
-          <t>129 Trillion</t>
-        </is>
-      </c>
-      <c r="E28" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.1291% </t>
-        </is>
-      </c>
-      <c r="F28" s="6" t="inlineStr">
-        <is>
-          <t>10 Trillion Less</t>
-        </is>
-      </c>
-      <c r="G28" s="7" t="inlineStr">
-        <is>
-          <t>10,007,979,991,504</t>
-        </is>
-      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>0x30e9bda3cefff54d93fd5954b1961b8a5fea03e2</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>127,558,428,460,891</t>
+        </is>
+      </c>
+      <c r="D28" s="3" t="inlineStr">
+        <is>
+          <t>128 Trillion</t>
+        </is>
+      </c>
+      <c r="E28" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.1276% </t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="n"/>
+      <c r="G28" s="2" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1284,22 +1260,22 @@
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>0x30e9bda3cefff54d93fd5954b1961b8a5fea03e2</t>
+          <t>0xba8d62918b242917cf67d04c7d68ecaad63df8b3</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>127,558,428,460,891</t>
+          <t>123,116,600,854,674</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
         <is>
-          <t>128 Trillion</t>
+          <t>123 Trillion</t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1276% </t>
+          <t xml:space="preserve">0.1231% </t>
         </is>
       </c>
       <c r="F29" s="2" t="n"/>
@@ -1311,53 +1287,61 @@
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>0xba8d62918b242917cf67d04c7d68ecaad63df8b3</t>
+          <t>0xf08ae27b3b1c31d1cfc2879e2ae567d81d42bdeb</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>123,116,600,854,674</t>
+          <t>121,273,959,435,675</t>
         </is>
       </c>
       <c r="D30" s="3" t="inlineStr">
         <is>
-          <t>123 Trillion</t>
+          <t>121 Trillion</t>
         </is>
       </c>
       <c r="E30" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1231% </t>
+          <t xml:space="preserve">0.1213% </t>
         </is>
       </c>
       <c r="F30" s="2" t="n"/>
       <c r="G30" s="2" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n">
+      <c r="A31" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="inlineStr">
-        <is>
-          <t>0xf08ae27b3b1c31d1cfc2879e2ae567d81d42bdeb</t>
-        </is>
-      </c>
-      <c r="C31" s="3" t="inlineStr">
-        <is>
-          <t>121,273,959,435,675</t>
-        </is>
-      </c>
-      <c r="D31" s="3" t="inlineStr">
-        <is>
-          <t>121 Trillion</t>
-        </is>
-      </c>
-      <c r="E31" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.1213% </t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="n"/>
-      <c r="G31" s="2" t="n"/>
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>0x9648c280e112946f93bacbd0fd1dc81abb557908</t>
+        </is>
+      </c>
+      <c r="C31" s="5" t="inlineStr">
+        <is>
+          <t>117,888,967,928,498</t>
+        </is>
+      </c>
+      <c r="D31" s="5" t="inlineStr">
+        <is>
+          <t>118 Trillion</t>
+        </is>
+      </c>
+      <c r="E31" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.1179% </t>
+        </is>
+      </c>
+      <c r="F31" s="4" t="inlineStr">
+        <is>
+          <t>4 Trillion More</t>
+        </is>
+      </c>
+      <c r="G31" s="5" t="inlineStr">
+        <is>
+          <t>3,925,953,479,552</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1370,7 +1354,7 @@
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>117,547,304,052,606</t>
+          <t>117,589,151,069,072</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
@@ -1380,7 +1364,7 @@
       </c>
       <c r="E32" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1175% </t>
+          <t xml:space="preserve">0.1176% </t>
         </is>
       </c>
       <c r="F32" s="2" t="n"/>
@@ -1473,22 +1457,22 @@
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>0x9648c280e112946f93bacbd0fd1dc81abb557908</t>
+          <t>0x493d3d63b6e92869098d3ce8d733ce220633b829</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>113,974,585,958,522</t>
+          <t>111,385,883,928,356</t>
         </is>
       </c>
       <c r="D36" s="3" t="inlineStr">
         <is>
-          <t>114 Trillion</t>
+          <t>111 Trillion</t>
         </is>
       </c>
       <c r="E36" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1140% </t>
+          <t xml:space="preserve">0.1114% </t>
         </is>
       </c>
       <c r="F36" s="2" t="n"/>
@@ -1500,53 +1484,61 @@
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>0x493d3d63b6e92869098d3ce8d733ce220633b829</t>
+          <t>0xb2c5ae080a236fe89a87fdbd1f9d58ad4b57c6b2</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
         <is>
-          <t>111,385,883,928,356</t>
+          <t>107,879,745,719,514</t>
         </is>
       </c>
       <c r="D37" s="3" t="inlineStr">
         <is>
-          <t>111 Trillion</t>
+          <t>108 Trillion</t>
         </is>
       </c>
       <c r="E37" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1114% </t>
+          <t xml:space="preserve">0.1079% </t>
         </is>
       </c>
       <c r="F37" s="2" t="n"/>
       <c r="G37" s="2" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n">
+      <c r="A38" s="4" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="2" t="inlineStr">
-        <is>
-          <t>0xb2c5ae080a236fe89a87fdbd1f9d58ad4b57c6b2</t>
-        </is>
-      </c>
-      <c r="C38" s="3" t="inlineStr">
-        <is>
-          <t>107,879,745,719,514</t>
-        </is>
-      </c>
-      <c r="D38" s="3" t="inlineStr">
-        <is>
-          <t>108 Trillion</t>
-        </is>
-      </c>
-      <c r="E38" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.1079% </t>
-        </is>
-      </c>
-      <c r="F38" s="2" t="n"/>
-      <c r="G38" s="2" t="n"/>
+      <c r="B38" s="4" t="inlineStr">
+        <is>
+          <t>0xfe63b36ca9a63bff12f3fcd163482a5c772df526</t>
+        </is>
+      </c>
+      <c r="C38" s="5" t="inlineStr">
+        <is>
+          <t>104,861,868,663,219</t>
+        </is>
+      </c>
+      <c r="D38" s="5" t="inlineStr">
+        <is>
+          <t>105 Trillion</t>
+        </is>
+      </c>
+      <c r="E38" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.1049% </t>
+        </is>
+      </c>
+      <c r="F38" s="4" t="inlineStr">
+        <is>
+          <t>15 Trillion More</t>
+        </is>
+      </c>
+      <c r="G38" s="5" t="inlineStr">
+        <is>
+          <t>15,282,358,898,791</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1657,39 +1649,31 @@
       <c r="G42" s="2" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="4" t="n">
+      <c r="A43" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="B43" s="4" t="inlineStr">
+      <c r="B43" s="2" t="inlineStr">
         <is>
           <t>0xf4eaa3a2eb5e8e654eabc030f4395062fe597db3</t>
         </is>
       </c>
-      <c r="C43" s="5" t="inlineStr">
+      <c r="C43" s="3" t="inlineStr">
         <is>
           <t>101,305,351,177,183</t>
         </is>
       </c>
-      <c r="D43" s="5" t="inlineStr">
+      <c r="D43" s="3" t="inlineStr">
         <is>
           <t>101 Trillion</t>
         </is>
       </c>
-      <c r="E43" s="5" t="inlineStr">
+      <c r="E43" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">0.1013% </t>
         </is>
       </c>
-      <c r="F43" s="4" t="inlineStr">
-        <is>
-          <t>5 Trillion More</t>
-        </is>
-      </c>
-      <c r="G43" s="5" t="inlineStr">
-        <is>
-          <t>4,803,911,225,672</t>
-        </is>
-      </c>
+      <c r="F43" s="2" t="n"/>
+      <c r="G43" s="2" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1729,7 +1713,7 @@
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>100,314,101,049,252</t>
+          <t>100,409,759,306,678</t>
         </is>
       </c>
       <c r="D45" s="3" t="inlineStr">
@@ -1739,38 +1723,46 @@
       </c>
       <c r="E45" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1003% </t>
+          <t xml:space="preserve">0.1004% </t>
         </is>
       </c>
       <c r="F45" s="2" t="n"/>
       <c r="G45" s="2" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n">
+      <c r="A46" s="4" t="n">
         <v>45</v>
       </c>
-      <c r="B46" s="2" t="inlineStr">
-        <is>
-          <t>0x302c44b648f5a84191f08551be26a2d2456a1fa1</t>
-        </is>
-      </c>
-      <c r="C46" s="3" t="inlineStr">
-        <is>
-          <t>93,761,590,132,526</t>
-        </is>
-      </c>
-      <c r="D46" s="3" t="inlineStr">
-        <is>
-          <t>94 Trillion</t>
-        </is>
-      </c>
-      <c r="E46" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.0938% </t>
-        </is>
-      </c>
-      <c r="F46" s="2" t="n"/>
-      <c r="G46" s="2" t="n"/>
+      <c r="B46" s="4" t="inlineStr">
+        <is>
+          <t>0xd693658b31ef059354118ac2b8067b989ebf4b2b</t>
+        </is>
+      </c>
+      <c r="C46" s="5" t="inlineStr">
+        <is>
+          <t>94,526,513,196,126</t>
+        </is>
+      </c>
+      <c r="D46" s="5" t="inlineStr">
+        <is>
+          <t>95 Trillion</t>
+        </is>
+      </c>
+      <c r="E46" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.0945% </t>
+        </is>
+      </c>
+      <c r="F46" s="6" t="inlineStr">
+        <is>
+          <t>27 Trillion Less</t>
+        </is>
+      </c>
+      <c r="G46" s="7" t="inlineStr">
+        <is>
+          <t>26,702,131,061,827</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1778,22 +1770,22 @@
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>0xf8a002718fbba65dd1ca19e7027c943c54e20220</t>
+          <t>0x302c44b648f5a84191f08551be26a2d2456a1fa1</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>90,297,867,318,217</t>
+          <t>93,761,590,132,526</t>
         </is>
       </c>
       <c r="D47" s="3" t="inlineStr">
         <is>
-          <t>90 Trillion</t>
+          <t>94 Trillion</t>
         </is>
       </c>
       <c r="E47" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0903% </t>
+          <t xml:space="preserve">0.0938% </t>
         </is>
       </c>
       <c r="F47" s="2" t="n"/>
@@ -1805,12 +1797,12 @@
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>0xfe63b36ca9a63bff12f3fcd163482a5c772df526</t>
+          <t>0xf8a002718fbba65dd1ca19e7027c943c54e20220</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>89,579,509,764,428</t>
+          <t>90,297,867,318,217</t>
         </is>
       </c>
       <c r="D48" s="3" t="inlineStr">
@@ -1820,7 +1812,7 @@
       </c>
       <c r="E48" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0896% </t>
+          <t xml:space="preserve">0.0903% </t>
         </is>
       </c>
       <c r="F48" s="2" t="n"/>
@@ -1837,7 +1829,7 @@
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>87,633,272,240,304</t>
+          <t>87,638,640,995,030</t>
         </is>
       </c>
       <c r="D49" s="3" t="inlineStr">
@@ -1861,27 +1853,27 @@
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>10,300,099,805,824,536</t>
+          <t>10,260,830,219,794,038</t>
         </is>
       </c>
       <c r="D51" s="3" t="inlineStr">
         <is>
-          <t>10300 Trillion</t>
+          <t>10261 Trillion</t>
         </is>
       </c>
       <c r="E51" s="3" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>10.26%</t>
         </is>
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>-29 Trillion</t>
+          <t>-32 Trillion</t>
         </is>
       </c>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>-29,138,747,040,751</t>
+          <t>-31,752,691,596,365</t>
         </is>
       </c>
     </row>
@@ -1898,48 +1890,21 @@
       <c r="F53" s="8" t="n"/>
       <c r="G53" s="8" t="n"/>
     </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B54" s="2" t="inlineStr">
-        <is>
-          <t>0xa6864e154b64a8ce94020a8c1b43f191d3523c47</t>
-        </is>
-      </c>
-      <c r="C54" s="3" t="inlineStr">
-        <is>
-          <t>80,956,818,806,741</t>
-        </is>
-      </c>
-      <c r="D54" s="3" t="inlineStr">
-        <is>
-          <t>81 Trillion</t>
-        </is>
-      </c>
-      <c r="E54" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.0809% </t>
-        </is>
-      </c>
-      <c r="F54" s="2" t="n"/>
-      <c r="G54" s="2" t="n"/>
-    </row>
-    <row r="56">
-      <c r="D56" s="6" t="n"/>
-      <c r="E56" s="7" t="inlineStr">
+    <row r="55">
+      <c r="D55" s="6" t="n"/>
+      <c r="E55" s="7" t="inlineStr">
         <is>
           <t>Total loss / gain from all whales</t>
         </is>
       </c>
-      <c r="F56" s="6" t="inlineStr">
-        <is>
-          <t>-29 Trillion</t>
-        </is>
-      </c>
-      <c r="G56" s="6" t="inlineStr">
-        <is>
-          <t>-29,138,747,040,751</t>
+      <c r="F55" s="6" t="inlineStr">
+        <is>
+          <t>-32 Trillion</t>
+        </is>
+      </c>
+      <c r="G55" s="6" t="inlineStr">
+        <is>
+          <t>-31,752,691,596,365</t>
         </is>
       </c>
     </row>

--- a/whales/holders.xlsx
+++ b/whales/holders.xlsx
@@ -74,12 +74,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -567,79 +567,63 @@
       </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
-          <t>1,373,079,870,575</t>
+          <t>1,204,514,165,562</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>0x110d4a2fb45e361194a17df10635efdb41d7579c</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>607,912,688,061,507</t>
         </is>
       </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="D4" s="5" t="inlineStr">
         <is>
           <t>608 Trillion</t>
         </is>
       </c>
-      <c r="E4" s="3" t="inlineStr">
+      <c r="E4" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">0.6079% </t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>1 Trillion More</t>
-        </is>
-      </c>
-      <c r="G4" s="3" t="inlineStr">
-        <is>
-          <t>1,146,927,360,003</t>
-        </is>
-      </c>
+      <c r="F4" s="4" t="n"/>
+      <c r="G4" s="4" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>0xbd09e0594fbdbc5f73fe5db01bdc3bc2a19ec2d7</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>417,877,283,217,416</t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="D5" s="5" t="inlineStr">
         <is>
           <t>418 Trillion</t>
         </is>
       </c>
-      <c r="E5" s="3" t="inlineStr">
+      <c r="E5" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">0.4179% </t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
-        <is>
-          <t>3 Trillion Less</t>
-        </is>
-      </c>
-      <c r="G5" s="5" t="inlineStr">
-        <is>
-          <t>2,587,199,558,821</t>
-        </is>
-      </c>
+      <c r="F5" s="4" t="n"/>
+      <c r="G5" s="4" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -665,105 +649,97 @@
           <t xml:space="preserve">0.4106% </t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F6" s="6" t="inlineStr">
         <is>
           <t>16 Trillion Less</t>
         </is>
       </c>
-      <c r="G6" s="5" t="inlineStr">
-        <is>
-          <t>15,500,457,642,448</t>
+      <c r="G6" s="7" t="inlineStr">
+        <is>
+          <t>15,621,234,605,153</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="n">
+      <c r="A7" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>0xac3e1d277c3442ac1c695a369d87004aed308a7d</t>
         </is>
       </c>
-      <c r="C7" s="7" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>408,944,737,835,965</t>
         </is>
       </c>
-      <c r="D7" s="7" t="inlineStr">
+      <c r="D7" s="5" t="inlineStr">
         <is>
           <t>409 Trillion</t>
         </is>
       </c>
-      <c r="E7" s="7" t="inlineStr">
+      <c r="E7" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">0.4089% </t>
         </is>
       </c>
-      <c r="F7" s="6" t="n"/>
-      <c r="G7" s="6" t="n"/>
+      <c r="F7" s="4" t="n"/>
+      <c r="G7" s="4" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="B8" s="4" t="inlineStr">
         <is>
           <t>0x7167d70b2e6b167633356254bf22f5d32aedcd5b</t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr">
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>401,502,279,318,551</t>
         </is>
       </c>
-      <c r="D8" s="3" t="inlineStr">
+      <c r="D8" s="5" t="inlineStr">
         <is>
           <t>402 Trillion</t>
         </is>
       </c>
-      <c r="E8" s="3" t="inlineStr">
+      <c r="E8" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">0.4015% </t>
         </is>
       </c>
-      <c r="F8" s="4" t="inlineStr">
-        <is>
-          <t>2 Trillion Less</t>
-        </is>
-      </c>
-      <c r="G8" s="5" t="inlineStr">
-        <is>
-          <t>2,093,943,957,910</t>
-        </is>
-      </c>
+      <c r="F8" s="4" t="n"/>
+      <c r="G8" s="4" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="n">
+      <c r="A9" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="inlineStr">
+      <c r="B9" s="4" t="inlineStr">
         <is>
           <t>0x7395cb62e4405b6c1174c2329f444af6ee7bdfd9</t>
         </is>
       </c>
-      <c r="C9" s="7" t="inlineStr">
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>374,603,882,026,078</t>
         </is>
       </c>
-      <c r="D9" s="7" t="inlineStr">
+      <c r="D9" s="5" t="inlineStr">
         <is>
           <t>375 Trillion</t>
         </is>
       </c>
-      <c r="E9" s="7" t="inlineStr">
+      <c r="E9" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">0.3746% </t>
         </is>
       </c>
-      <c r="F9" s="6" t="n"/>
-      <c r="G9" s="6" t="n"/>
+      <c r="F9" s="4" t="n"/>
+      <c r="G9" s="4" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -791,103 +767,95 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>55 Trillion More</t>
+          <t>53 Trillion More</t>
         </is>
       </c>
       <c r="G10" s="3" t="inlineStr">
         <is>
-          <t>55,497,489,206,319</t>
+          <t>53,147,261,394,388</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="n">
+      <c r="A11" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="inlineStr">
+      <c r="B11" s="4" t="inlineStr">
         <is>
           <t>0x924e8fc81484781b8057db784266017fce1af136</t>
         </is>
       </c>
-      <c r="C11" s="7" t="inlineStr">
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>251,810,611,079,939</t>
         </is>
       </c>
-      <c r="D11" s="7" t="inlineStr">
+      <c r="D11" s="5" t="inlineStr">
         <is>
           <t>252 Trillion</t>
         </is>
       </c>
-      <c r="E11" s="7" t="inlineStr">
+      <c r="E11" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">0.2518% </t>
         </is>
       </c>
-      <c r="F11" s="6" t="n"/>
-      <c r="G11" s="6" t="n"/>
+      <c r="F11" s="4" t="n"/>
+      <c r="G11" s="4" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="inlineStr">
+      <c r="B12" s="4" t="inlineStr">
         <is>
           <t>0xfdd50de023c9a705d9086bf821d15c7450ee93bf</t>
         </is>
       </c>
-      <c r="C12" s="3" t="inlineStr">
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>226,495,254,705,092</t>
         </is>
       </c>
-      <c r="D12" s="3" t="inlineStr">
+      <c r="D12" s="5" t="inlineStr">
         <is>
           <t>226 Trillion</t>
         </is>
       </c>
-      <c r="E12" s="3" t="inlineStr">
+      <c r="E12" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">0.2265% </t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>11 Trillion More</t>
-        </is>
-      </c>
-      <c r="G12" s="3" t="inlineStr">
-        <is>
-          <t>10,596,096,724,276</t>
-        </is>
-      </c>
+      <c r="F12" s="4" t="n"/>
+      <c r="G12" s="4" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="n">
+      <c r="A13" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="inlineStr">
+      <c r="B13" s="4" t="inlineStr">
         <is>
           <t>0x7146f34d166379b4ab5220f5eefd7c79835a3c04</t>
         </is>
       </c>
-      <c r="C13" s="7" t="inlineStr">
+      <c r="C13" s="5" t="inlineStr">
         <is>
           <t>196,758,459,597,565</t>
         </is>
       </c>
-      <c r="D13" s="7" t="inlineStr">
+      <c r="D13" s="5" t="inlineStr">
         <is>
           <t>197 Trillion</t>
         </is>
       </c>
-      <c r="E13" s="7" t="inlineStr">
+      <c r="E13" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">0.1968% </t>
         </is>
       </c>
-      <c r="F13" s="6" t="n"/>
-      <c r="G13" s="6" t="n"/>
+      <c r="F13" s="4" t="n"/>
+      <c r="G13" s="4" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -913,43 +881,43 @@
           <t xml:space="preserve">0.1905% </t>
         </is>
       </c>
-      <c r="F14" s="4" t="inlineStr">
-        <is>
-          <t>415 Trillion Less</t>
-        </is>
-      </c>
-      <c r="G14" s="5" t="inlineStr">
-        <is>
-          <t>415,139,431,398,858</t>
+      <c r="F14" s="6" t="inlineStr">
+        <is>
+          <t>394 Trillion Less</t>
+        </is>
+      </c>
+      <c r="G14" s="7" t="inlineStr">
+        <is>
+          <t>393,525,282,456,338</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="n">
+      <c r="A15" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="inlineStr">
+      <c r="B15" s="4" t="inlineStr">
         <is>
           <t>0x73149b3cd5e1b8536747048259419147e81a71a9</t>
         </is>
       </c>
-      <c r="C15" s="7" t="inlineStr">
+      <c r="C15" s="5" t="inlineStr">
         <is>
           <t>187,954,408,998,189</t>
         </is>
       </c>
-      <c r="D15" s="7" t="inlineStr">
+      <c r="D15" s="5" t="inlineStr">
         <is>
           <t>188 Trillion</t>
         </is>
       </c>
-      <c r="E15" s="7" t="inlineStr">
+      <c r="E15" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">0.1880% </t>
         </is>
       </c>
-      <c r="F15" s="6" t="n"/>
-      <c r="G15" s="6" t="n"/>
+      <c r="F15" s="4" t="n"/>
+      <c r="G15" s="4" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -977,149 +945,149 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>33 Trillion More</t>
+          <t>31 Trillion More</t>
         </is>
       </c>
       <c r="G16" s="3" t="inlineStr">
         <is>
-          <t>33,140,030,488,894</t>
+          <t>30,989,686,140,055</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="n">
+      <c r="A17" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="inlineStr">
+      <c r="B17" s="4" t="inlineStr">
         <is>
           <t>0x497e289791fc2c2b355c259d9516f079d9b52a63</t>
         </is>
       </c>
-      <c r="C17" s="7" t="inlineStr">
+      <c r="C17" s="5" t="inlineStr">
         <is>
           <t>180,049,507,067,231</t>
         </is>
       </c>
-      <c r="D17" s="7" t="inlineStr">
+      <c r="D17" s="5" t="inlineStr">
         <is>
           <t>180 Trillion</t>
         </is>
       </c>
-      <c r="E17" s="7" t="inlineStr">
+      <c r="E17" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">0.1800% </t>
         </is>
       </c>
-      <c r="F17" s="6" t="n"/>
-      <c r="G17" s="6" t="n"/>
+      <c r="F17" s="4" t="n"/>
+      <c r="G17" s="4" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="n">
+      <c r="A18" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="inlineStr">
+      <c r="B18" s="4" t="inlineStr">
         <is>
           <t>0x0932767b51f1faedc5a86fb935eec8032f62eea8</t>
         </is>
       </c>
-      <c r="C18" s="7" t="inlineStr">
+      <c r="C18" s="5" t="inlineStr">
         <is>
           <t>174,210,725,496,681</t>
         </is>
       </c>
-      <c r="D18" s="7" t="inlineStr">
+      <c r="D18" s="5" t="inlineStr">
         <is>
           <t>174 Trillion</t>
         </is>
       </c>
-      <c r="E18" s="7" t="inlineStr">
+      <c r="E18" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">0.1742% </t>
         </is>
       </c>
-      <c r="F18" s="6" t="n"/>
-      <c r="G18" s="6" t="n"/>
+      <c r="F18" s="4" t="n"/>
+      <c r="G18" s="4" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="6" t="n">
+      <c r="A19" s="4" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="inlineStr">
+      <c r="B19" s="4" t="inlineStr">
         <is>
           <t>0xf3f83f6a5830e55b45b3c44010be0481baa1b9be</t>
         </is>
       </c>
-      <c r="C19" s="7" t="inlineStr">
+      <c r="C19" s="5" t="inlineStr">
         <is>
           <t>171,746,085,911,514</t>
         </is>
       </c>
-      <c r="D19" s="7" t="inlineStr">
+      <c r="D19" s="5" t="inlineStr">
         <is>
           <t>172 Trillion</t>
         </is>
       </c>
-      <c r="E19" s="7" t="inlineStr">
+      <c r="E19" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">0.1717% </t>
         </is>
       </c>
-      <c r="F19" s="6" t="n"/>
-      <c r="G19" s="6" t="n"/>
+      <c r="F19" s="4" t="n"/>
+      <c r="G19" s="4" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="n">
+      <c r="A20" s="4" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="inlineStr">
+      <c r="B20" s="4" t="inlineStr">
         <is>
           <t>0x7b5b9b8d134bec76023cd6c20358d38714cc5c58</t>
         </is>
       </c>
-      <c r="C20" s="7" t="inlineStr">
+      <c r="C20" s="5" t="inlineStr">
         <is>
           <t>154,460,177,790,559</t>
         </is>
       </c>
-      <c r="D20" s="7" t="inlineStr">
+      <c r="D20" s="5" t="inlineStr">
         <is>
           <t>154 Trillion</t>
         </is>
       </c>
-      <c r="E20" s="7" t="inlineStr">
+      <c r="E20" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">0.1545% </t>
         </is>
       </c>
-      <c r="F20" s="6" t="n"/>
-      <c r="G20" s="6" t="n"/>
+      <c r="F20" s="4" t="n"/>
+      <c r="G20" s="4" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="6" t="n">
+      <c r="A21" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="inlineStr">
+      <c r="B21" s="4" t="inlineStr">
         <is>
           <t>0x1ae48253b364374d3db52de311302fc501b87895</t>
         </is>
       </c>
-      <c r="C21" s="7" t="inlineStr">
+      <c r="C21" s="5" t="inlineStr">
         <is>
           <t>153,492,195,625,667</t>
         </is>
       </c>
-      <c r="D21" s="7" t="inlineStr">
+      <c r="D21" s="5" t="inlineStr">
         <is>
           <t>153 Trillion</t>
         </is>
       </c>
-      <c r="E21" s="7" t="inlineStr">
+      <c r="E21" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">0.1535% </t>
         </is>
       </c>
-      <c r="F21" s="6" t="n"/>
-      <c r="G21" s="6" t="n"/>
+      <c r="F21" s="4" t="n"/>
+      <c r="G21" s="4" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1152,71 +1120,63 @@
       </c>
       <c r="G22" s="3" t="inlineStr">
         <is>
-          <t>24,759,510,380,288</t>
+          <t>24,741,649,141,172</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="6" t="n">
+      <c r="A23" s="4" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="inlineStr">
+      <c r="B23" s="4" t="inlineStr">
         <is>
           <t>0x4ac84bbb674f62614626f6276296014f1cade575</t>
         </is>
       </c>
-      <c r="C23" s="7" t="inlineStr">
+      <c r="C23" s="5" t="inlineStr">
         <is>
           <t>141,262,988,412,127</t>
         </is>
       </c>
-      <c r="D23" s="7" t="inlineStr">
+      <c r="D23" s="5" t="inlineStr">
         <is>
           <t>141 Trillion</t>
         </is>
       </c>
-      <c r="E23" s="7" t="inlineStr">
+      <c r="E23" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">0.1413% </t>
         </is>
       </c>
-      <c r="F23" s="6" t="n"/>
-      <c r="G23" s="6" t="n"/>
+      <c r="F23" s="4" t="n"/>
+      <c r="G23" s="4" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
+      <c r="A24" s="4" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="inlineStr">
+      <c r="B24" s="4" t="inlineStr">
         <is>
           <t>0xba8d62918b242917cf67d04c7d68ecaad63df8b3</t>
         </is>
       </c>
-      <c r="C24" s="3" t="inlineStr">
+      <c r="C24" s="5" t="inlineStr">
         <is>
           <t>134,706,127,362,978</t>
         </is>
       </c>
-      <c r="D24" s="3" t="inlineStr">
+      <c r="D24" s="5" t="inlineStr">
         <is>
           <t>135 Trillion</t>
         </is>
       </c>
-      <c r="E24" s="3" t="inlineStr">
+      <c r="E24" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">0.1347% </t>
         </is>
       </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>12 Trillion More</t>
-        </is>
-      </c>
-      <c r="G24" s="3" t="inlineStr">
-        <is>
-          <t>11,589,526,508,304</t>
-        </is>
-      </c>
+      <c r="F24" s="4" t="n"/>
+      <c r="G24" s="4" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1242,97 +1202,97 @@
           <t xml:space="preserve">0.1287% </t>
         </is>
       </c>
-      <c r="F25" s="4" t="inlineStr">
+      <c r="F25" s="6" t="inlineStr">
         <is>
           <t>242 Trillion Less</t>
         </is>
       </c>
-      <c r="G25" s="5" t="inlineStr">
-        <is>
-          <t>241,981,148,992,524</t>
+      <c r="G25" s="7" t="inlineStr">
+        <is>
+          <t>242,055,981,713,096</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="6" t="n">
+      <c r="A26" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="6" t="inlineStr">
+      <c r="B26" s="4" t="inlineStr">
         <is>
           <t>0xf076f6f942eac10b48cea9ed1f25be813304ae42</t>
         </is>
       </c>
-      <c r="C26" s="7" t="inlineStr">
+      <c r="C26" s="5" t="inlineStr">
         <is>
           <t>117,805,227,381,517</t>
         </is>
       </c>
-      <c r="D26" s="7" t="inlineStr">
+      <c r="D26" s="5" t="inlineStr">
         <is>
           <t>118 Trillion</t>
         </is>
       </c>
-      <c r="E26" s="7" t="inlineStr">
+      <c r="E26" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">0.1178% </t>
         </is>
       </c>
-      <c r="F26" s="6" t="n"/>
-      <c r="G26" s="6" t="n"/>
+      <c r="F26" s="4" t="n"/>
+      <c r="G26" s="4" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="6" t="n">
+      <c r="A27" s="4" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="6" t="inlineStr">
+      <c r="B27" s="4" t="inlineStr">
         <is>
           <t>0x28e87335c43b9b28d658b6825811744c251f5974</t>
         </is>
       </c>
-      <c r="C27" s="7" t="inlineStr">
+      <c r="C27" s="5" t="inlineStr">
         <is>
           <t>115,096,599,910,636</t>
         </is>
       </c>
-      <c r="D27" s="7" t="inlineStr">
+      <c r="D27" s="5" t="inlineStr">
         <is>
           <t>115 Trillion</t>
         </is>
       </c>
-      <c r="E27" s="7" t="inlineStr">
+      <c r="E27" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">0.1151% </t>
         </is>
       </c>
-      <c r="F27" s="6" t="n"/>
-      <c r="G27" s="6" t="n"/>
+      <c r="F27" s="4" t="n"/>
+      <c r="G27" s="4" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="6" t="n">
+      <c r="A28" s="4" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="6" t="inlineStr">
+      <c r="B28" s="4" t="inlineStr">
         <is>
           <t>0x83cd797812ebcfe418f76a16fb15c7f149eaa2f7</t>
         </is>
       </c>
-      <c r="C28" s="7" t="inlineStr">
+      <c r="C28" s="5" t="inlineStr">
         <is>
           <t>113,815,954,518,575</t>
         </is>
       </c>
-      <c r="D28" s="7" t="inlineStr">
+      <c r="D28" s="5" t="inlineStr">
         <is>
           <t>114 Trillion</t>
         </is>
       </c>
-      <c r="E28" s="7" t="inlineStr">
+      <c r="E28" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">0.1138% </t>
         </is>
       </c>
-      <c r="F28" s="6" t="n"/>
-      <c r="G28" s="6" t="n"/>
+      <c r="F28" s="4" t="n"/>
+      <c r="G28" s="4" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1370,66 +1330,58 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="6" t="n">
+      <c r="A30" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="6" t="inlineStr">
+      <c r="B30" s="4" t="inlineStr">
         <is>
           <t>0x493d3d63b6e92869098d3ce8d733ce220633b829</t>
         </is>
       </c>
-      <c r="C30" s="7" t="inlineStr">
+      <c r="C30" s="5" t="inlineStr">
         <is>
           <t>111,510,350,768,450</t>
         </is>
       </c>
-      <c r="D30" s="7" t="inlineStr">
+      <c r="D30" s="5" t="inlineStr">
         <is>
           <t>112 Trillion</t>
         </is>
       </c>
-      <c r="E30" s="7" t="inlineStr">
+      <c r="E30" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">0.1115% </t>
         </is>
       </c>
-      <c r="F30" s="6" t="n"/>
-      <c r="G30" s="6" t="n"/>
+      <c r="F30" s="4" t="n"/>
+      <c r="G30" s="4" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n">
+      <c r="A31" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="inlineStr">
+      <c r="B31" s="4" t="inlineStr">
         <is>
           <t>0xb05a41293daf0fa7c71e4e035e2f477299fe10a1</t>
         </is>
       </c>
-      <c r="C31" s="3" t="inlineStr">
+      <c r="C31" s="5" t="inlineStr">
         <is>
           <t>110,518,096,094,103</t>
         </is>
       </c>
-      <c r="D31" s="3" t="inlineStr">
+      <c r="D31" s="5" t="inlineStr">
         <is>
           <t>111 Trillion</t>
         </is>
       </c>
-      <c r="E31" s="3" t="inlineStr">
+      <c r="E31" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">0.1105% </t>
         </is>
       </c>
-      <c r="F31" s="2" t="inlineStr">
-        <is>
-          <t>9 Trillion More</t>
-        </is>
-      </c>
-      <c r="G31" s="3" t="inlineStr">
-        <is>
-          <t>8,606,882,873,785</t>
-        </is>
-      </c>
+      <c r="F31" s="4" t="n"/>
+      <c r="G31" s="4" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1455,70 +1407,70 @@
           <t xml:space="preserve">0.1080% </t>
         </is>
       </c>
-      <c r="F32" s="4" t="inlineStr">
+      <c r="F32" s="6" t="inlineStr">
         <is>
           <t>7 Trillion Less</t>
         </is>
       </c>
-      <c r="G32" s="5" t="inlineStr">
+      <c r="G32" s="7" t="inlineStr">
         <is>
           <t>6,554,910,157,598</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="6" t="n">
+      <c r="A33" s="4" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="6" t="inlineStr">
+      <c r="B33" s="4" t="inlineStr">
         <is>
           <t>0xb2c5ae080a236fe89a87fdbd1f9d58ad4b57c6b2</t>
         </is>
       </c>
-      <c r="C33" s="7" t="inlineStr">
+      <c r="C33" s="5" t="inlineStr">
         <is>
           <t>107,879,745,719,514</t>
         </is>
       </c>
-      <c r="D33" s="7" t="inlineStr">
+      <c r="D33" s="5" t="inlineStr">
         <is>
           <t>108 Trillion</t>
         </is>
       </c>
-      <c r="E33" s="7" t="inlineStr">
+      <c r="E33" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">0.1079% </t>
         </is>
       </c>
-      <c r="F33" s="6" t="n"/>
-      <c r="G33" s="6" t="n"/>
+      <c r="F33" s="4" t="n"/>
+      <c r="G33" s="4" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="6" t="n">
+      <c r="A34" s="4" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="6" t="inlineStr">
+      <c r="B34" s="4" t="inlineStr">
         <is>
           <t>0xf677ecba7a2a3bfc86fc37ac07ffa2fa896bb525</t>
         </is>
       </c>
-      <c r="C34" s="7" t="inlineStr">
+      <c r="C34" s="5" t="inlineStr">
         <is>
           <t>107,802,445,283,117</t>
         </is>
       </c>
-      <c r="D34" s="7" t="inlineStr">
+      <c r="D34" s="5" t="inlineStr">
         <is>
           <t>108 Trillion</t>
         </is>
       </c>
-      <c r="E34" s="7" t="inlineStr">
+      <c r="E34" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">0.1078% </t>
         </is>
       </c>
-      <c r="F34" s="6" t="n"/>
-      <c r="G34" s="6" t="n"/>
+      <c r="F34" s="4" t="n"/>
+      <c r="G34" s="4" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1544,424 +1496,424 @@
           <t xml:space="preserve">0.1048% </t>
         </is>
       </c>
-      <c r="F35" s="4" t="inlineStr">
+      <c r="F35" s="6" t="inlineStr">
         <is>
           <t>90 Trillion Less</t>
         </is>
       </c>
-      <c r="G35" s="5" t="inlineStr">
-        <is>
-          <t>89,719,785,564,390</t>
+      <c r="G35" s="7" t="inlineStr">
+        <is>
+          <t>89,743,515,631,096</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="6" t="n">
+      <c r="A36" s="4" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="6" t="inlineStr">
+      <c r="B36" s="4" t="inlineStr">
         <is>
           <t>0xa4fd3063a3d831801c7791b5de3fb9e7a5dcbe23</t>
         </is>
       </c>
-      <c r="C36" s="7" t="inlineStr">
+      <c r="C36" s="5" t="inlineStr">
         <is>
           <t>103,094,231,450,938</t>
         </is>
       </c>
-      <c r="D36" s="7" t="inlineStr">
+      <c r="D36" s="5" t="inlineStr">
         <is>
           <t>103 Trillion</t>
         </is>
       </c>
-      <c r="E36" s="7" t="inlineStr">
+      <c r="E36" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">0.1031% </t>
         </is>
       </c>
-      <c r="F36" s="6" t="n"/>
-      <c r="G36" s="6" t="n"/>
+      <c r="F36" s="4" t="n"/>
+      <c r="G36" s="4" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="6" t="n">
+      <c r="A37" s="4" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="6" t="inlineStr">
+      <c r="B37" s="4" t="inlineStr">
         <is>
           <t>0x2fcc0ac77971df25d65b9eae9418434ac72be3bc</t>
         </is>
       </c>
-      <c r="C37" s="7" t="inlineStr">
+      <c r="C37" s="5" t="inlineStr">
         <is>
           <t>102,219,555,464,260</t>
         </is>
       </c>
-      <c r="D37" s="7" t="inlineStr">
+      <c r="D37" s="5" t="inlineStr">
         <is>
           <t>102 Trillion</t>
         </is>
       </c>
-      <c r="E37" s="7" t="inlineStr">
+      <c r="E37" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">0.1022% </t>
         </is>
       </c>
-      <c r="F37" s="6" t="n"/>
-      <c r="G37" s="6" t="n"/>
+      <c r="F37" s="4" t="n"/>
+      <c r="G37" s="4" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="6" t="n">
+      <c r="A38" s="4" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="6" t="inlineStr">
+      <c r="B38" s="4" t="inlineStr">
         <is>
           <t>0x1cd2fde4bea5e5428e95e58c48dcd6a994abcf14</t>
         </is>
       </c>
-      <c r="C38" s="7" t="inlineStr">
+      <c r="C38" s="5" t="inlineStr">
         <is>
           <t>102,126,985,955,117</t>
         </is>
       </c>
-      <c r="D38" s="7" t="inlineStr">
+      <c r="D38" s="5" t="inlineStr">
         <is>
           <t>102 Trillion</t>
         </is>
       </c>
-      <c r="E38" s="7" t="inlineStr">
+      <c r="E38" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">0.1021% </t>
         </is>
       </c>
-      <c r="F38" s="6" t="n"/>
-      <c r="G38" s="6" t="n"/>
+      <c r="F38" s="4" t="n"/>
+      <c r="G38" s="4" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="6" t="n">
+      <c r="A39" s="4" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="6" t="inlineStr">
+      <c r="B39" s="4" t="inlineStr">
         <is>
           <t>0x3c2f70019d8d25bf0d3c73a7bba8061a32629659</t>
         </is>
       </c>
-      <c r="C39" s="7" t="inlineStr">
+      <c r="C39" s="5" t="inlineStr">
         <is>
           <t>101,809,678,338,870</t>
         </is>
       </c>
-      <c r="D39" s="7" t="inlineStr">
+      <c r="D39" s="5" t="inlineStr">
         <is>
           <t>102 Trillion</t>
         </is>
       </c>
-      <c r="E39" s="7" t="inlineStr">
+      <c r="E39" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">0.1018% </t>
         </is>
       </c>
-      <c r="F39" s="6" t="n"/>
-      <c r="G39" s="6" t="n"/>
+      <c r="F39" s="4" t="n"/>
+      <c r="G39" s="4" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="6" t="n">
+      <c r="A40" s="4" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="6" t="inlineStr">
+      <c r="B40" s="4" t="inlineStr">
         <is>
           <t>0xe7af2280c3a70170f9e5cb67c6ea5885680d2838</t>
         </is>
       </c>
-      <c r="C40" s="7" t="inlineStr">
+      <c r="C40" s="5" t="inlineStr">
         <is>
           <t>101,057,958,101,905</t>
         </is>
       </c>
-      <c r="D40" s="7" t="inlineStr">
+      <c r="D40" s="5" t="inlineStr">
         <is>
           <t>101 Trillion</t>
         </is>
       </c>
-      <c r="E40" s="7" t="inlineStr">
+      <c r="E40" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">0.1011% </t>
         </is>
       </c>
-      <c r="F40" s="6" t="n"/>
-      <c r="G40" s="6" t="n"/>
+      <c r="F40" s="4" t="n"/>
+      <c r="G40" s="4" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="6" t="n">
+      <c r="A41" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="B41" s="6" t="inlineStr">
+      <c r="B41" s="4" t="inlineStr">
         <is>
           <t>0x69fe97ce030074b37cbaf3ee46e9f68ca8712099</t>
         </is>
       </c>
-      <c r="C41" s="7" t="inlineStr">
+      <c r="C41" s="5" t="inlineStr">
         <is>
           <t>100,567,579,913,450</t>
         </is>
       </c>
-      <c r="D41" s="7" t="inlineStr">
+      <c r="D41" s="5" t="inlineStr">
         <is>
           <t>101 Trillion</t>
         </is>
       </c>
-      <c r="E41" s="7" t="inlineStr">
+      <c r="E41" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">0.1006% </t>
         </is>
       </c>
-      <c r="F41" s="6" t="n"/>
-      <c r="G41" s="6" t="n"/>
+      <c r="F41" s="4" t="n"/>
+      <c r="G41" s="4" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="6" t="n">
+      <c r="A42" s="4" t="n">
         <v>41</v>
       </c>
-      <c r="B42" s="6" t="inlineStr">
+      <c r="B42" s="4" t="inlineStr">
         <is>
           <t>0xa9579390b4b5ac986a16a05c32ad0975e089a857</t>
         </is>
       </c>
-      <c r="C42" s="7" t="inlineStr">
+      <c r="C42" s="5" t="inlineStr">
         <is>
           <t>100,126,359,859,271</t>
         </is>
       </c>
-      <c r="D42" s="7" t="inlineStr">
+      <c r="D42" s="5" t="inlineStr">
         <is>
           <t>100 Trillion</t>
         </is>
       </c>
-      <c r="E42" s="7" t="inlineStr">
+      <c r="E42" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">0.1001% </t>
         </is>
       </c>
-      <c r="F42" s="6" t="n"/>
-      <c r="G42" s="6" t="n"/>
+      <c r="F42" s="4" t="n"/>
+      <c r="G42" s="4" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="6" t="n">
+      <c r="A43" s="4" t="n">
         <v>42</v>
       </c>
-      <c r="B43" s="6" t="inlineStr">
+      <c r="B43" s="4" t="inlineStr">
         <is>
           <t>0x302c44b648f5a84191f08551be26a2d2456a1fa1</t>
         </is>
       </c>
-      <c r="C43" s="7" t="inlineStr">
+      <c r="C43" s="5" t="inlineStr">
         <is>
           <t>93,917,447,289,939</t>
         </is>
       </c>
-      <c r="D43" s="7" t="inlineStr">
+      <c r="D43" s="5" t="inlineStr">
         <is>
           <t>94 Trillion</t>
         </is>
       </c>
-      <c r="E43" s="7" t="inlineStr">
+      <c r="E43" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">0.0939% </t>
         </is>
       </c>
-      <c r="F43" s="6" t="n"/>
-      <c r="G43" s="6" t="n"/>
+      <c r="F43" s="4" t="n"/>
+      <c r="G43" s="4" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="6" t="n">
+      <c r="A44" s="4" t="n">
         <v>43</v>
       </c>
-      <c r="B44" s="6" t="inlineStr">
+      <c r="B44" s="4" t="inlineStr">
         <is>
           <t>0xf8a002718fbba65dd1ca19e7027c943c54e20220</t>
         </is>
       </c>
-      <c r="C44" s="7" t="inlineStr">
+      <c r="C44" s="5" t="inlineStr">
         <is>
           <t>90,450,936,429,404</t>
         </is>
       </c>
-      <c r="D44" s="7" t="inlineStr">
+      <c r="D44" s="5" t="inlineStr">
         <is>
           <t>90 Trillion</t>
         </is>
       </c>
-      <c r="E44" s="7" t="inlineStr">
+      <c r="E44" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">0.0905% </t>
         </is>
       </c>
-      <c r="F44" s="6" t="n"/>
-      <c r="G44" s="6" t="n"/>
+      <c r="F44" s="4" t="n"/>
+      <c r="G44" s="4" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="6" t="n">
+      <c r="A45" s="4" t="n">
         <v>44</v>
       </c>
-      <c r="B45" s="6" t="inlineStr">
+      <c r="B45" s="4" t="inlineStr">
         <is>
           <t>0xb501e46d0e187cd9e2e0b3611fe17ed477f998e1</t>
         </is>
       </c>
-      <c r="C45" s="7" t="inlineStr">
+      <c r="C45" s="5" t="inlineStr">
         <is>
           <t>87,749,764,468,602</t>
         </is>
       </c>
-      <c r="D45" s="7" t="inlineStr">
+      <c r="D45" s="5" t="inlineStr">
         <is>
           <t>88 Trillion</t>
         </is>
       </c>
-      <c r="E45" s="7" t="inlineStr">
+      <c r="E45" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">0.0877% </t>
         </is>
       </c>
-      <c r="F45" s="6" t="n"/>
-      <c r="G45" s="6" t="n"/>
+      <c r="F45" s="4" t="n"/>
+      <c r="G45" s="4" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="6" t="n">
+      <c r="A46" s="4" t="n">
         <v>45</v>
       </c>
-      <c r="B46" s="6" t="inlineStr">
+      <c r="B46" s="4" t="inlineStr">
         <is>
           <t>0xca1135931ecedc74d402c712678d555286c6dbf8</t>
         </is>
       </c>
-      <c r="C46" s="7" t="inlineStr">
+      <c r="C46" s="5" t="inlineStr">
         <is>
           <t>86,855,157,955,909</t>
         </is>
       </c>
-      <c r="D46" s="7" t="inlineStr">
+      <c r="D46" s="5" t="inlineStr">
         <is>
           <t>87 Trillion</t>
         </is>
       </c>
-      <c r="E46" s="7" t="inlineStr">
+      <c r="E46" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">0.0869% </t>
         </is>
       </c>
-      <c r="F46" s="6" t="n"/>
-      <c r="G46" s="6" t="n"/>
+      <c r="F46" s="4" t="n"/>
+      <c r="G46" s="4" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="6" t="n">
+      <c r="A47" s="4" t="n">
         <v>46</v>
       </c>
-      <c r="B47" s="6" t="inlineStr">
+      <c r="B47" s="4" t="inlineStr">
         <is>
           <t>0xd8f8110161649178bca78b074cef0864ad9a99a8</t>
         </is>
       </c>
-      <c r="C47" s="7" t="inlineStr">
+      <c r="C47" s="5" t="inlineStr">
         <is>
           <t>82,915,163,153,103</t>
         </is>
       </c>
-      <c r="D47" s="7" t="inlineStr">
+      <c r="D47" s="5" t="inlineStr">
         <is>
           <t>83 Trillion</t>
         </is>
       </c>
-      <c r="E47" s="7" t="inlineStr">
+      <c r="E47" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">0.0829% </t>
         </is>
       </c>
-      <c r="F47" s="6" t="n"/>
-      <c r="G47" s="6" t="n"/>
+      <c r="F47" s="4" t="n"/>
+      <c r="G47" s="4" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="6" t="n">
+      <c r="A48" s="4" t="n">
         <v>47</v>
       </c>
-      <c r="B48" s="6" t="inlineStr">
+      <c r="B48" s="4" t="inlineStr">
         <is>
           <t>0xa6864e154b64a8ce94020a8c1b43f191d3523c47</t>
         </is>
       </c>
-      <c r="C48" s="7" t="inlineStr">
+      <c r="C48" s="5" t="inlineStr">
         <is>
           <t>81,089,964,455,793</t>
         </is>
       </c>
-      <c r="D48" s="7" t="inlineStr">
+      <c r="D48" s="5" t="inlineStr">
         <is>
           <t>81 Trillion</t>
         </is>
       </c>
-      <c r="E48" s="7" t="inlineStr">
+      <c r="E48" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">0.0811% </t>
         </is>
       </c>
-      <c r="F48" s="6" t="n"/>
-      <c r="G48" s="6" t="n"/>
+      <c r="F48" s="4" t="n"/>
+      <c r="G48" s="4" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="6" t="n">
+      <c r="A49" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="B49" s="6" t="inlineStr">
+      <c r="B49" s="4" t="inlineStr">
         <is>
           <t>0x4e57abe60fdc74c47fc3a86bbd7857b4e24c180d</t>
         </is>
       </c>
-      <c r="C49" s="7" t="inlineStr">
+      <c r="C49" s="5" t="inlineStr">
         <is>
           <t>79,752,992,516,765</t>
         </is>
       </c>
-      <c r="D49" s="7" t="inlineStr">
+      <c r="D49" s="5" t="inlineStr">
         <is>
           <t>80 Trillion</t>
         </is>
       </c>
-      <c r="E49" s="7" t="inlineStr">
+      <c r="E49" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">0.0798% </t>
         </is>
       </c>
-      <c r="F49" s="6" t="n"/>
-      <c r="G49" s="6" t="n"/>
+      <c r="F49" s="4" t="n"/>
+      <c r="G49" s="4" t="n"/>
     </row>
     <row r="51">
-      <c r="B51" s="7" t="inlineStr">
+      <c r="B51" s="5" t="inlineStr">
         <is>
           <t>Total's for top 50 (actually 48)</t>
         </is>
       </c>
-      <c r="C51" s="7" t="inlineStr">
+      <c r="C51" s="5" t="inlineStr">
         <is>
           <t>9,812,419,721,087,557</t>
         </is>
       </c>
-      <c r="D51" s="7" t="inlineStr">
+      <c r="D51" s="5" t="inlineStr">
         <is>
           <t>9812 Trillion</t>
         </is>
       </c>
-      <c r="E51" s="7" t="inlineStr">
+      <c r="E51" s="5" t="inlineStr">
         <is>
           <t>9.81%</t>
         </is>
       </c>
-      <c r="F51" s="6" t="inlineStr">
-        <is>
-          <t>346 Trillion</t>
-        </is>
-      </c>
-      <c r="G51" s="6" t="inlineStr">
-        <is>
-          <t>346,464,267,882,743</t>
+      <c r="F51" s="4" t="inlineStr">
+        <is>
+          <t>336 Trillion</t>
+        </is>
+      </c>
+      <c r="G51" s="4" t="inlineStr">
+        <is>
+          <t>335,913,788,020,744</t>
         </is>
       </c>
     </row>
@@ -1984,12 +1936,12 @@
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>0xcdc162e71e7517e94c0c72de16ca6315349d47fc</t>
+          <t>0x8117f26ab0e42ccae6009bd48675e2cdc94e95b6</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>125,166,339</t>
+          <t>92,422,292</t>
         </is>
       </c>
       <c r="D54" s="3" t="inlineStr">
@@ -1999,17 +1951,17 @@
       </c>
       <c r="E54" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1501% </t>
-        </is>
-      </c>
-      <c r="F54" s="4" t="inlineStr">
-        <is>
-          <t>150 Trillion Less</t>
-        </is>
-      </c>
-      <c r="G54" s="5" t="inlineStr">
-        <is>
-          <t>150,065,802,124,315</t>
+          <t xml:space="preserve">0.1163% </t>
+        </is>
+      </c>
+      <c r="F54" s="6" t="inlineStr">
+        <is>
+          <t>116 Trillion Less</t>
+        </is>
+      </c>
+      <c r="G54" s="7" t="inlineStr">
+        <is>
+          <t>116,346,338,485,911</t>
         </is>
       </c>
     </row>
@@ -2019,12 +1971,12 @@
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>0xfe63b36ca9a63bff12f3fcd163482a5c772df526</t>
+          <t>0xcdc162e71e7517e94c0c72de16ca6315349d47fc</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>125,166,339</t>
         </is>
       </c>
       <c r="D55" s="3" t="inlineStr">
@@ -2034,17 +1986,17 @@
       </c>
       <c r="E55" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1049% </t>
-        </is>
-      </c>
-      <c r="F55" s="4" t="inlineStr">
-        <is>
-          <t>105 Trillion Less</t>
-        </is>
-      </c>
-      <c r="G55" s="5" t="inlineStr">
-        <is>
-          <t>104,861,868,663,219</t>
+          <t xml:space="preserve">0.1501% </t>
+        </is>
+      </c>
+      <c r="F55" s="6" t="inlineStr">
+        <is>
+          <t>150 Trillion Less</t>
+        </is>
+      </c>
+      <c r="G55" s="7" t="inlineStr">
+        <is>
+          <t>150,094,209,765,027</t>
         </is>
       </c>
     </row>
@@ -2072,12 +2024,12 @@
           <t xml:space="preserve">0.2946% </t>
         </is>
       </c>
-      <c r="F56" s="4" t="inlineStr">
+      <c r="F56" s="6" t="inlineStr">
         <is>
           <t>295 Trillion Less</t>
         </is>
       </c>
-      <c r="G56" s="5" t="inlineStr">
+      <c r="G56" s="7" t="inlineStr">
         <is>
           <t>294,560,594,194,772</t>
         </is>
@@ -2089,32 +2041,32 @@
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>0x8117f26ab0e42ccae6009bd48675e2cdc94e95b6</t>
+          <t>0x4159fcaefd2216a1b581587ca97da9f53e8ba163</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
         <is>
-          <t>92,422,292</t>
+          <t>12,521,000,031,433</t>
         </is>
       </c>
       <c r="D57" s="3" t="inlineStr">
         <is>
-          <t>0 Trillion</t>
+          <t>13 Trillion</t>
         </is>
       </c>
       <c r="E57" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1163% </t>
-        </is>
-      </c>
-      <c r="F57" s="4" t="inlineStr">
-        <is>
-          <t>116 Trillion Less</t>
-        </is>
-      </c>
-      <c r="G57" s="5" t="inlineStr">
-        <is>
-          <t>116,346,338,485,911</t>
+          <t xml:space="preserve">0.1360% </t>
+        </is>
+      </c>
+      <c r="F57" s="6" t="inlineStr">
+        <is>
+          <t>123 Trillion Less</t>
+        </is>
+      </c>
+      <c r="G57" s="7" t="inlineStr">
+        <is>
+          <t>123,491,040,031,606</t>
         </is>
       </c>
     </row>
@@ -2124,32 +2076,32 @@
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>0xd693658b31ef059354118ac2b8067b989ebf4b2b</t>
+          <t>0x30e9bda3cefff54d93fd5954b1961b8a5fea03e2</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
         <is>
-          <t>14,895,410,161,956</t>
+          <t>126,382,307</t>
         </is>
       </c>
       <c r="D58" s="3" t="inlineStr">
         <is>
-          <t>15 Trillion</t>
+          <t>0 Trillion</t>
         </is>
       </c>
       <c r="E58" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0945% </t>
-        </is>
-      </c>
-      <c r="F58" s="4" t="inlineStr">
-        <is>
-          <t>80 Trillion Less</t>
-        </is>
-      </c>
-      <c r="G58" s="5" t="inlineStr">
-        <is>
-          <t>79,631,103,034,170</t>
+          <t xml:space="preserve">0.1276% </t>
+        </is>
+      </c>
+      <c r="F58" s="6" t="inlineStr">
+        <is>
+          <t>128 Trillion Less</t>
+        </is>
+      </c>
+      <c r="G58" s="7" t="inlineStr">
+        <is>
+          <t>127,558,302,078,584</t>
         </is>
       </c>
     </row>
@@ -2177,12 +2129,12 @@
           <t xml:space="preserve">0.1300% </t>
         </is>
       </c>
-      <c r="F59" s="4" t="inlineStr">
+      <c r="F59" s="6" t="inlineStr">
         <is>
           <t>130 Trillion Less</t>
         </is>
       </c>
-      <c r="G59" s="5" t="inlineStr">
+      <c r="G59" s="7" t="inlineStr">
         <is>
           <t>130,001,153,853,216</t>
         </is>
@@ -2194,32 +2146,32 @@
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>0x30e9bda3cefff54d93fd5954b1961b8a5fea03e2</t>
+          <t>0xd693658b31ef059354118ac2b8067b989ebf4b2b</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>126,382,307</t>
+          <t>14,895,410,161,956</t>
         </is>
       </c>
       <c r="D60" s="3" t="inlineStr">
         <is>
-          <t>0 Trillion</t>
+          <t>15 Trillion</t>
         </is>
       </c>
       <c r="E60" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1276% </t>
-        </is>
-      </c>
-      <c r="F60" s="4" t="inlineStr">
-        <is>
-          <t>128 Trillion Less</t>
-        </is>
-      </c>
-      <c r="G60" s="5" t="inlineStr">
-        <is>
-          <t>127,558,302,078,584</t>
+          <t xml:space="preserve">0.0967% </t>
+        </is>
+      </c>
+      <c r="F60" s="6" t="inlineStr">
+        <is>
+          <t>82 Trillion Less</t>
+        </is>
+      </c>
+      <c r="G60" s="7" t="inlineStr">
+        <is>
+          <t>81,841,015,973,462</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2181,7 @@
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>0x44cce737956e0774ed45fc88efbc733c0320ac02</t>
+          <t>0x9648c280e112946f93bacbd0fd1dc81abb557908</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
@@ -2244,17 +2196,17 @@
       </c>
       <c r="E61" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.5269% </t>
-        </is>
-      </c>
-      <c r="F61" s="4" t="inlineStr">
-        <is>
-          <t>527 Trillion Less</t>
-        </is>
-      </c>
-      <c r="G61" s="5" t="inlineStr">
-        <is>
-          <t>526,879,756,919,683</t>
+          <t xml:space="preserve">0.1185% </t>
+        </is>
+      </c>
+      <c r="F61" s="6" t="inlineStr">
+        <is>
+          <t>119 Trillion Less</t>
+        </is>
+      </c>
+      <c r="G61" s="7" t="inlineStr">
+        <is>
+          <t>118,533,547,079,158</t>
         </is>
       </c>
     </row>
@@ -2264,85 +2216,50 @@
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>0x4159fcaefd2216a1b581587ca97da9f53e8ba163</t>
+          <t>0xfe63b36ca9a63bff12f3fcd163482a5c772df526</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
         <is>
-          <t>12,521,000,031,433</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D62" s="3" t="inlineStr">
         <is>
-          <t>13 Trillion</t>
+          <t>0 Trillion</t>
         </is>
       </c>
       <c r="E62" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1360% </t>
-        </is>
-      </c>
-      <c r="F62" s="4" t="inlineStr">
-        <is>
-          <t>123 Trillion Less</t>
-        </is>
-      </c>
-      <c r="G62" s="5" t="inlineStr">
-        <is>
-          <t>123,479,888,174,188</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B63" s="2" t="inlineStr">
-        <is>
-          <t>0x9648c280e112946f93bacbd0fd1dc81abb557908</t>
-        </is>
-      </c>
-      <c r="C63" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D63" s="3" t="inlineStr">
-        <is>
-          <t>0 Trillion</t>
-        </is>
-      </c>
-      <c r="E63" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.1179% </t>
-        </is>
-      </c>
-      <c r="F63" s="4" t="inlineStr">
-        <is>
-          <t>118 Trillion Less</t>
-        </is>
-      </c>
-      <c r="G63" s="5" t="inlineStr">
-        <is>
-          <t>117,888,967,928,498</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="D65" s="4" t="n"/>
-      <c r="E65" s="5" t="inlineStr">
+          <t xml:space="preserve">0.1049% </t>
+        </is>
+      </c>
+      <c r="F62" s="6" t="inlineStr">
+        <is>
+          <t>105 Trillion Less</t>
+        </is>
+      </c>
+      <c r="G62" s="7" t="inlineStr">
+        <is>
+          <t>104,862,218,917,955</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="D64" s="6" t="n"/>
+      <c r="E64" s="7" t="inlineStr">
         <is>
           <t>Total loss / gain from all whales</t>
         </is>
       </c>
-      <c r="F65" s="4" t="inlineStr">
-        <is>
-          <t>-1425 Trillion</t>
-        </is>
-      </c>
-      <c r="G65" s="4" t="inlineStr">
-        <is>
-          <t>-1,424,809,507,573,813</t>
+      <c r="F64" s="6" t="inlineStr">
+        <is>
+          <t>-911 Trillion</t>
+        </is>
+      </c>
+      <c r="G64" s="6" t="inlineStr">
+        <is>
+          <t>-911,374,632,358,947</t>
         </is>
       </c>
     </row>

--- a/whales/holders.xlsx
+++ b/whales/holders.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,7 +512,7 @@
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>773,966,741,108,558</t>
+          <t>774,216,186,127,082</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -522,7 +522,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.7740% </t>
+          <t xml:space="preserve">0.7742% </t>
         </is>
       </c>
       <c r="F2" s="2" t="n"/>
@@ -539,17 +539,17 @@
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>608,453,920,837,053</t>
+          <t>608,650,037,852,732</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>608 Trillion</t>
+          <t>609 Trillion</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.6085% </t>
+          <t xml:space="preserve">0.6087% </t>
         </is>
       </c>
       <c r="F3" s="2" t="n"/>
@@ -566,7 +566,7 @@
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>410,958,271,336,168</t>
+          <t>411,090,731,506,089</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
@@ -576,7 +576,7 @@
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.4110% </t>
+          <t xml:space="preserve">0.4111% </t>
         </is>
       </c>
       <c r="F4" s="2" t="n"/>
@@ -593,7 +593,7 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>409,310,791,675,035</t>
+          <t>409,442,720,828,911</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
@@ -603,7 +603,7 @@
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.4093% </t>
+          <t xml:space="preserve">0.4094% </t>
         </is>
       </c>
       <c r="F5" s="2" t="n"/>
@@ -620,7 +620,7 @@
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>401,861,671,278,250</t>
+          <t>401,991,199,429,829</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
@@ -630,7 +630,7 @@
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.4019% </t>
+          <t xml:space="preserve">0.4020% </t>
         </is>
       </c>
       <c r="F6" s="2" t="n"/>
@@ -647,7 +647,7 @@
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>387,751,635,218,310</t>
+          <t>387,893,772,035,584</t>
         </is>
       </c>
       <c r="D7" s="5" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.3878% </t>
+          <t xml:space="preserve">0.3879% </t>
         </is>
       </c>
       <c r="F7" s="6" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="G7" s="7" t="inlineStr">
         <is>
-          <t>30,125,647,999,106</t>
+          <t>29,983,511,181,832</t>
         </is>
       </c>
     </row>
@@ -682,7 +682,7 @@
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>375,018,721,635,353</t>
+          <t>375,131,643,268,213</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
@@ -692,7 +692,7 @@
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.3750% </t>
+          <t xml:space="preserve">0.3751% </t>
         </is>
       </c>
       <c r="F8" s="2" t="n"/>
@@ -709,27 +709,27 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>311,389,968,724,782</t>
+          <t>316,311,829,818,156</t>
         </is>
       </c>
       <c r="D9" s="5" t="inlineStr">
         <is>
-          <t>311 Trillion</t>
+          <t>316 Trillion</t>
         </is>
       </c>
       <c r="E9" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.3114% </t>
+          <t xml:space="preserve">0.3163% </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>5 Trillion More</t>
+          <t>10 Trillion More</t>
         </is>
       </c>
       <c r="G9" s="5" t="inlineStr">
         <is>
-          <t>5,010,226,110,545</t>
+          <t>9,932,087,203,919</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="C12" s="5" t="inlineStr">
         <is>
-          <t>200,241,335,294,152</t>
+          <t>200,307,986,170,445</t>
         </is>
       </c>
       <c r="D12" s="5" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="E12" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.2002% </t>
+          <t xml:space="preserve">0.2003% </t>
         </is>
       </c>
       <c r="F12" s="4" t="inlineStr">
@@ -826,7 +826,7 @@
       </c>
       <c r="G12" s="5" t="inlineStr">
         <is>
-          <t>14,194,480,143,751</t>
+          <t>14,261,131,020,044</t>
         </is>
       </c>
     </row>
@@ -836,22 +836,22 @@
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>0x7146f34d166379b4ab5220f5eefd7c79835a3c04</t>
+          <t>0x573068628665a40aa2dddfd5ec3c90167424a9ee</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>196,911,442,860,571</t>
+          <t>190,593,752,012,968</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>197 Trillion</t>
+          <t>191 Trillion</t>
         </is>
       </c>
       <c r="E13" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1969% </t>
+          <t xml:space="preserve">0.1906% </t>
         </is>
       </c>
       <c r="F13" s="2" t="n"/>
@@ -863,53 +863,61 @@
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>0x573068628665a40aa2dddfd5ec3c90167424a9ee</t>
+          <t>0x73149b3cd5e1b8536747048259419147e81a71a9</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>190,593,752,012,968</t>
+          <t>188,093,487,682,416</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>191 Trillion</t>
+          <t>188 Trillion</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1906% </t>
+          <t xml:space="preserve">0.1881% </t>
         </is>
       </c>
       <c r="F14" s="2" t="n"/>
       <c r="G14" s="2" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
+      <c r="A15" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="inlineStr">
-        <is>
-          <t>0x73149b3cd5e1b8536747048259419147e81a71a9</t>
-        </is>
-      </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>188,093,487,682,416</t>
-        </is>
-      </c>
-      <c r="D15" s="3" t="inlineStr">
-        <is>
-          <t>188 Trillion</t>
-        </is>
-      </c>
-      <c r="E15" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.1881% </t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="n"/>
-      <c r="G15" s="2" t="n"/>
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>0x7146f34d166379b4ab5220f5eefd7c79835a3c04</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>180,049,748,547,878</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="inlineStr">
+        <is>
+          <t>180 Trillion</t>
+        </is>
+      </c>
+      <c r="E15" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.1800% </t>
+        </is>
+      </c>
+      <c r="F15" s="6" t="inlineStr">
+        <is>
+          <t>17 Trillion Less</t>
+        </is>
+      </c>
+      <c r="G15" s="7" t="inlineStr">
+        <is>
+          <t>16,708,711,049,687</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -922,7 +930,7 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>174,345,288,488,457</t>
+          <t>174,420,634,860,359</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
@@ -932,7 +940,7 @@
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1743% </t>
+          <t xml:space="preserve">0.1744% </t>
         </is>
       </c>
       <c r="F16" s="2" t="n"/>
@@ -949,7 +957,7 @@
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>171,873,113,601,026</t>
+          <t>171,919,094,110,735</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
@@ -976,12 +984,12 @@
       </c>
       <c r="C18" s="5" t="inlineStr">
         <is>
-          <t>161,467,210,436,966</t>
+          <t>161,527,403,951,616</t>
         </is>
       </c>
       <c r="D18" s="5" t="inlineStr">
         <is>
-          <t>161 Trillion</t>
+          <t>162 Trillion</t>
         </is>
       </c>
       <c r="E18" s="5" t="inlineStr">
@@ -996,7 +1004,7 @@
       </c>
       <c r="G18" s="5" t="inlineStr">
         <is>
-          <t>50,949,114,342,863</t>
+          <t>51,009,307,857,513</t>
         </is>
       </c>
     </row>
@@ -1038,7 +1046,7 @@
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>153,573,565,770,106</t>
+          <t>153,700,859,113,465</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
@@ -1048,7 +1056,7 @@
       </c>
       <c r="E20" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1536% </t>
+          <t xml:space="preserve">0.1537% </t>
         </is>
       </c>
       <c r="F20" s="2" t="n"/>
@@ -1065,7 +1073,7 @@
       </c>
       <c r="C21" s="5" t="inlineStr">
         <is>
-          <t>151,299,609,473,015</t>
+          <t>151,329,188,545,567</t>
         </is>
       </c>
       <c r="D21" s="5" t="inlineStr">
@@ -1085,36 +1093,44 @@
       </c>
       <c r="G21" s="7" t="inlineStr">
         <is>
-          <t>28,749,897,594,216</t>
+          <t>28,720,318,521,664</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
+      <c r="A22" s="4" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="inlineStr">
-        <is>
-          <t>0xf08ae27b3b1c31d1cfc2879e2ae567d81d42bdeb</t>
-        </is>
-      </c>
-      <c r="C22" s="3" t="inlineStr">
-        <is>
-          <t>146,080,408,921,801</t>
-        </is>
-      </c>
-      <c r="D22" s="3" t="inlineStr">
-        <is>
-          <t>146 Trillion</t>
-        </is>
-      </c>
-      <c r="E22" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.1461% </t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="n"/>
-      <c r="G22" s="2" t="n"/>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>0x4ac84bbb674f62614626f6276296014f1cade575</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>148,109,255,191,595</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="inlineStr">
+        <is>
+          <t>148 Trillion</t>
+        </is>
+      </c>
+      <c r="E22" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.1481% </t>
+        </is>
+      </c>
+      <c r="F22" s="4" t="inlineStr">
+        <is>
+          <t>7 Trillion More</t>
+        </is>
+      </c>
+      <c r="G22" s="5" t="inlineStr">
+        <is>
+          <t>6,846,266,779,468</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1122,22 +1138,22 @@
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>0x4ac84bbb674f62614626f6276296014f1cade575</t>
+          <t>0xf08ae27b3b1c31d1cfc2879e2ae567d81d42bdeb</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>141,375,801,302,018</t>
+          <t>146,185,236,267,846</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
         <is>
-          <t>141 Trillion</t>
+          <t>146 Trillion</t>
         </is>
       </c>
       <c r="E23" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1414% </t>
+          <t xml:space="preserve">0.1462% </t>
         </is>
       </c>
       <c r="F23" s="2" t="n"/>
@@ -1171,58 +1187,74 @@
       <c r="G24" s="2" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n">
+      <c r="A25" s="4" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>0xf076f6f942eac10b48cea9ed1f25be813304ae42</t>
-        </is>
-      </c>
-      <c r="C25" s="3" t="inlineStr">
-        <is>
-          <t>117,805,227,381,517</t>
-        </is>
-      </c>
-      <c r="D25" s="3" t="inlineStr">
-        <is>
-          <t>118 Trillion</t>
-        </is>
-      </c>
-      <c r="E25" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.1178% </t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="n"/>
-      <c r="G25" s="2" t="n"/>
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>0x74beaeb59500b4486ec3c83b81552279b79c6728</t>
+        </is>
+      </c>
+      <c r="C25" s="5" t="inlineStr">
+        <is>
+          <t>134,413,919,604,666</t>
+        </is>
+      </c>
+      <c r="D25" s="5" t="inlineStr">
+        <is>
+          <t>134 Trillion</t>
+        </is>
+      </c>
+      <c r="E25" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.1344% </t>
+        </is>
+      </c>
+      <c r="F25" s="4" t="inlineStr">
+        <is>
+          <t>26 Trillion More</t>
+        </is>
+      </c>
+      <c r="G25" s="5" t="inlineStr">
+        <is>
+          <t>26,371,433,221,782</t>
+        </is>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
+      <c r="A26" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="inlineStr">
-        <is>
-          <t>0x28e87335c43b9b28d658b6825811744c251f5974</t>
-        </is>
-      </c>
-      <c r="C26" s="3" t="inlineStr">
-        <is>
-          <t>115,222,802,654,107</t>
-        </is>
-      </c>
-      <c r="D26" s="3" t="inlineStr">
-        <is>
-          <t>115 Trillion</t>
-        </is>
-      </c>
-      <c r="E26" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.1152% </t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="n"/>
-      <c r="G26" s="2" t="n"/>
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t>0xf4eaa3a2eb5e8e654eabc030f4395062fe597db3</t>
+        </is>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>132,858,715,897,236</t>
+        </is>
+      </c>
+      <c r="D26" s="5" t="inlineStr">
+        <is>
+          <t>133 Trillion</t>
+        </is>
+      </c>
+      <c r="E26" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.1329% </t>
+        </is>
+      </c>
+      <c r="F26" s="4" t="inlineStr">
+        <is>
+          <t>20 Trillion More</t>
+        </is>
+      </c>
+      <c r="G26" s="5" t="inlineStr">
+        <is>
+          <t>19,760,626,096,690</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1230,22 +1262,22 @@
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>0xf4eaa3a2eb5e8e654eabc030f4395062fe597db3</t>
+          <t>0xf076f6f942eac10b48cea9ed1f25be813304ae42</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>113,098,089,800,546</t>
+          <t>117,805,227,381,517</t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
         <is>
-          <t>113 Trillion</t>
+          <t>118 Trillion</t>
         </is>
       </c>
       <c r="E27" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1131% </t>
+          <t xml:space="preserve">0.1178% </t>
         </is>
       </c>
       <c r="F27" s="2" t="n"/>
@@ -1257,22 +1289,22 @@
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>0x493d3d63b6e92869098d3ce8d733ce220633b829</t>
+          <t>0x28e87335c43b9b28d658b6825811744c251f5974</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>111,510,350,768,450</t>
+          <t>115,264,502,926,544</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
         <is>
-          <t>112 Trillion</t>
+          <t>115 Trillion</t>
         </is>
       </c>
       <c r="E28" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1115% </t>
+          <t xml:space="preserve">0.1153% </t>
         </is>
       </c>
       <c r="F28" s="2" t="n"/>
@@ -1284,88 +1316,88 @@
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>0xb2c5ae080a236fe89a87fdbd1f9d58ad4b57c6b2</t>
+          <t>0x493d3d63b6e92869098d3ce8d733ce220633b829</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>108,210,934,281,939</t>
+          <t>111,510,350,768,450</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
         <is>
-          <t>108 Trillion</t>
+          <t>112 Trillion</t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1082% </t>
+          <t xml:space="preserve">0.1115% </t>
         </is>
       </c>
       <c r="F29" s="2" t="n"/>
       <c r="G29" s="2" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="n">
+      <c r="A30" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="4" t="inlineStr">
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>0xb2c5ae080a236fe89a87fdbd1f9d58ad4b57c6b2</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="inlineStr">
+        <is>
+          <t>108,210,934,281,939</t>
+        </is>
+      </c>
+      <c r="D30" s="3" t="inlineStr">
+        <is>
+          <t>108 Trillion</t>
+        </is>
+      </c>
+      <c r="E30" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.1082% </t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="n"/>
+      <c r="G30" s="2" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="inlineStr">
         <is>
           <t>0x2fcc0ac77971df25d65b9eae9418434ac72be3bc</t>
         </is>
       </c>
-      <c r="C30" s="5" t="inlineStr">
+      <c r="C31" s="5" t="inlineStr">
         <is>
           <t>108,170,757,830,871</t>
         </is>
       </c>
-      <c r="D30" s="5" t="inlineStr">
+      <c r="D31" s="5" t="inlineStr">
         <is>
           <t>108 Trillion</t>
         </is>
       </c>
-      <c r="E30" s="5" t="inlineStr">
+      <c r="E31" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">0.1082% </t>
         </is>
       </c>
-      <c r="F30" s="4" t="inlineStr">
+      <c r="F31" s="4" t="inlineStr">
         <is>
           <t>6 Trillion More</t>
         </is>
       </c>
-      <c r="G30" s="5" t="inlineStr">
+      <c r="G31" s="5" t="inlineStr">
         <is>
           <t>5,951,202,366,611</t>
         </is>
       </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2" t="inlineStr">
-        <is>
-          <t>0xf677ecba7a2a3bfc86fc37ac07ffa2fa896bb525</t>
-        </is>
-      </c>
-      <c r="C31" s="3" t="inlineStr">
-        <is>
-          <t>107,802,445,283,117</t>
-        </is>
-      </c>
-      <c r="D31" s="3" t="inlineStr">
-        <is>
-          <t>108 Trillion</t>
-        </is>
-      </c>
-      <c r="E31" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.1078% </t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="n"/>
-      <c r="G31" s="2" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1373,22 +1405,22 @@
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>0x84d1b0ae25aa0b535552d28455f4d00922baf624</t>
+          <t>0xf677ecba7a2a3bfc86fc37ac07ffa2fa896bb525</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>104,834,199,490,524</t>
+          <t>107,947,760,069,167</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
         <is>
-          <t>105 Trillion</t>
+          <t>108 Trillion</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1048% </t>
+          <t xml:space="preserve">0.1079% </t>
         </is>
       </c>
       <c r="F32" s="2" t="n"/>
@@ -1432,7 +1464,7 @@
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>102,126,985,955,117</t>
+          <t>102,229,246,221,190</t>
         </is>
       </c>
       <c r="D34" s="3" t="inlineStr">
@@ -1442,7 +1474,7 @@
       </c>
       <c r="E34" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1021% </t>
+          <t xml:space="preserve">0.1022% </t>
         </is>
       </c>
       <c r="F34" s="2" t="n"/>
@@ -1508,22 +1540,22 @@
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>0x69fe97ce030074b37cbaf3ee46e9f68ca8712099</t>
+          <t>0xa9579390b4b5ac986a16a05c32ad0975e089a857</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
         <is>
-          <t>100,567,579,913,450</t>
+          <t>100,126,359,859,271</t>
         </is>
       </c>
       <c r="D37" s="3" t="inlineStr">
         <is>
-          <t>101 Trillion</t>
+          <t>100 Trillion</t>
         </is>
       </c>
       <c r="E37" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1006% </t>
+          <t xml:space="preserve">0.1001% </t>
         </is>
       </c>
       <c r="F37" s="2" t="n"/>
@@ -1535,22 +1567,22 @@
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>0xa9579390b4b5ac986a16a05c32ad0975e089a857</t>
+          <t>0x021bcf7b581b6328c458f13ebb50ea6767c1b16d</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>100,126,359,859,271</t>
+          <t>92,888,524,562,195</t>
         </is>
       </c>
       <c r="D38" s="3" t="inlineStr">
         <is>
-          <t>100 Trillion</t>
+          <t>93 Trillion</t>
         </is>
       </c>
       <c r="E38" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1001% </t>
+          <t xml:space="preserve">0.0929% </t>
         </is>
       </c>
       <c r="F38" s="2" t="n"/>
@@ -1562,22 +1594,22 @@
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>0x302c44b648f5a84191f08551be26a2d2456a1fa1</t>
+          <t>0xf8a002718fbba65dd1ca19e7027c943c54e20220</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>93,917,447,289,939</t>
+          <t>90,569,119,873,037</t>
         </is>
       </c>
       <c r="D39" s="3" t="inlineStr">
         <is>
-          <t>94 Trillion</t>
+          <t>91 Trillion</t>
         </is>
       </c>
       <c r="E39" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0939% </t>
+          <t xml:space="preserve">0.0906% </t>
         </is>
       </c>
       <c r="F39" s="2" t="n"/>
@@ -1589,53 +1621,61 @@
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>0xf8a002718fbba65dd1ca19e7027c943c54e20220</t>
+          <t>0xb501e46d0e187cd9e2e0b3611fe17ed477f998e1</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>90,450,936,429,404</t>
+          <t>87,819,801,364,648</t>
         </is>
       </c>
       <c r="D40" s="3" t="inlineStr">
         <is>
-          <t>90 Trillion</t>
+          <t>88 Trillion</t>
         </is>
       </c>
       <c r="E40" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0905% </t>
+          <t xml:space="preserve">0.0878% </t>
         </is>
       </c>
       <c r="F40" s="2" t="n"/>
       <c r="G40" s="2" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n">
+      <c r="A41" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="B41" s="2" t="inlineStr">
-        <is>
-          <t>0xb501e46d0e187cd9e2e0b3611fe17ed477f998e1</t>
-        </is>
-      </c>
-      <c r="C41" s="3" t="inlineStr">
-        <is>
-          <t>87,819,801,364,648</t>
-        </is>
-      </c>
-      <c r="D41" s="3" t="inlineStr">
-        <is>
-          <t>88 Trillion</t>
-        </is>
-      </c>
-      <c r="E41" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.0878% </t>
-        </is>
-      </c>
-      <c r="F41" s="2" t="n"/>
-      <c r="G41" s="2" t="n"/>
+      <c r="B41" s="4" t="inlineStr">
+        <is>
+          <t>0xd8f8110161649178bca78b074cef0864ad9a99a8</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="inlineStr">
+        <is>
+          <t>87,159,029,085,616</t>
+        </is>
+      </c>
+      <c r="D41" s="5" t="inlineStr">
+        <is>
+          <t>87 Trillion</t>
+        </is>
+      </c>
+      <c r="E41" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.0872% </t>
+        </is>
+      </c>
+      <c r="F41" s="4" t="inlineStr">
+        <is>
+          <t>4 Trillion More</t>
+        </is>
+      </c>
+      <c r="G41" s="5" t="inlineStr">
+        <is>
+          <t>4,243,865,932,513</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1648,7 +1688,7 @@
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>86,886,701,053,075</t>
+          <t>86,961,842,948,968</t>
         </is>
       </c>
       <c r="D42" s="3" t="inlineStr">
@@ -1658,7 +1698,7 @@
       </c>
       <c r="E42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0869% </t>
+          <t xml:space="preserve">0.0870% </t>
         </is>
       </c>
       <c r="F42" s="2" t="n"/>
@@ -1670,22 +1710,22 @@
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>0x021bcf7b581b6328c458f13ebb50ea6767c1b16d</t>
+          <t>0xa6864e154b64a8ce94020a8c1b43f191d3523c47</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>85,412,639,401,083</t>
+          <t>81,128,791,830,716</t>
         </is>
       </c>
       <c r="D43" s="3" t="inlineStr">
         <is>
-          <t>85 Trillion</t>
+          <t>81 Trillion</t>
         </is>
       </c>
       <c r="E43" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0854% </t>
+          <t xml:space="preserve">0.0811% </t>
         </is>
       </c>
       <c r="F43" s="2" t="n"/>
@@ -1697,22 +1737,22 @@
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>0xd8f8110161649178bca78b074cef0864ad9a99a8</t>
+          <t>0x4e57abe60fdc74c47fc3a86bbd7857b4e24c180d</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>82,959,850,141,772</t>
+          <t>79,763,629,301,578</t>
         </is>
       </c>
       <c r="D44" s="3" t="inlineStr">
         <is>
-          <t>83 Trillion</t>
+          <t>80 Trillion</t>
         </is>
       </c>
       <c r="E44" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0830% </t>
+          <t xml:space="preserve">0.0798% </t>
         </is>
       </c>
       <c r="F44" s="2" t="n"/>
@@ -1724,22 +1764,22 @@
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>0xa6864e154b64a8ce94020a8c1b43f191d3523c47</t>
+          <t>0xe902fd7de8afb5b295f628c1b4f6143005bb0bf6</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>81,128,791,830,716</t>
+          <t>78,500,122,588,755</t>
         </is>
       </c>
       <c r="D45" s="3" t="inlineStr">
         <is>
-          <t>81 Trillion</t>
+          <t>79 Trillion</t>
         </is>
       </c>
       <c r="E45" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0811% </t>
+          <t xml:space="preserve">0.0785% </t>
         </is>
       </c>
       <c r="F45" s="2" t="n"/>
@@ -1751,22 +1791,22 @@
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>0x4e57abe60fdc74c47fc3a86bbd7857b4e24c180d</t>
+          <t>0x28e5d92148aa12b0fccd268ff643be86bbb5265e</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>79,763,629,301,578</t>
+          <t>75,638,511,708,227</t>
         </is>
       </c>
       <c r="D46" s="3" t="inlineStr">
         <is>
-          <t>80 Trillion</t>
+          <t>76 Trillion</t>
         </is>
       </c>
       <c r="E46" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0798% </t>
+          <t xml:space="preserve">0.0756% </t>
         </is>
       </c>
       <c r="F46" s="2" t="n"/>
@@ -1778,22 +1818,22 @@
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>0xdce8e975b0dcbec956cddebffcc9f0cfaa5b8415</t>
+          <t>0xffcc995a004c26a059248c15afa92f006b315fab</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>78,991,697,441,408</t>
+          <t>74,204,183,091,826</t>
         </is>
       </c>
       <c r="D47" s="3" t="inlineStr">
         <is>
-          <t>79 Trillion</t>
+          <t>74 Trillion</t>
         </is>
       </c>
       <c r="E47" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0790% </t>
+          <t xml:space="preserve">0.0742% </t>
         </is>
       </c>
       <c r="F47" s="2" t="n"/>
@@ -1805,22 +1845,22 @@
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>0xe902fd7de8afb5b295f628c1b4f6143005bb0bf6</t>
+          <t>0x9a7e16cc5d152e60ea52d46d8e422d724bdb4dcf</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>78,500,122,588,755</t>
+          <t>72,904,810,003,324</t>
         </is>
       </c>
       <c r="D48" s="3" t="inlineStr">
         <is>
-          <t>79 Trillion</t>
+          <t>73 Trillion</t>
         </is>
       </c>
       <c r="E48" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0785% </t>
+          <t xml:space="preserve">0.0729% </t>
         </is>
       </c>
       <c r="F48" s="2" t="n"/>
@@ -1832,22 +1872,22 @@
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>0x28e5d92148aa12b0fccd268ff643be86bbb5265e</t>
+          <t>0x0fcb56c9e4f865e48475bab332b4e86f78332a55</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>75,630,491,800,321</t>
+          <t>71,201,112,114,715</t>
         </is>
       </c>
       <c r="D49" s="3" t="inlineStr">
         <is>
-          <t>76 Trillion</t>
+          <t>71 Trillion</t>
         </is>
       </c>
       <c r="E49" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0756% </t>
+          <t xml:space="preserve">0.0712% </t>
         </is>
       </c>
       <c r="F49" s="2" t="n"/>
@@ -1861,12 +1901,12 @@
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>8,740,386,620,482,522</t>
+          <t>8,743,124,061,599,851</t>
         </is>
       </c>
       <c r="D51" s="3" t="inlineStr">
         <is>
-          <t>8740 Trillion</t>
+          <t>8743 Trillion</t>
         </is>
       </c>
       <c r="E51" s="3" t="inlineStr">
@@ -1876,12 +1916,12 @@
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>18 Trillion</t>
+          <t>64 Trillion</t>
         </is>
       </c>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>18,382,621,033,105</t>
+          <t>64,116,523,388,014</t>
         </is>
       </c>
     </row>
@@ -1904,32 +1944,32 @@
       </c>
       <c r="B54" s="4" t="inlineStr">
         <is>
-          <t>0x7b11f31fc0d0a79717ec025d411ac5e899ac7116</t>
+          <t>0x84d1b0ae25aa0b535552d28455f4d00922baf624</t>
         </is>
       </c>
       <c r="C54" s="5" t="inlineStr">
         <is>
-          <t>39,469,942,950,288</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D54" s="5" t="inlineStr">
         <is>
-          <t>39 Trillion</t>
+          <t>0 Trillion</t>
         </is>
       </c>
       <c r="E54" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1287% </t>
+          <t xml:space="preserve">0.1048% </t>
         </is>
       </c>
       <c r="F54" s="6" t="inlineStr">
         <is>
-          <t>89 Trillion Less</t>
+          <t>105 Trillion Less</t>
         </is>
       </c>
       <c r="G54" s="7" t="inlineStr">
         <is>
-          <t>89,257,740,169,579</t>
+          <t>104,834,199,490,524</t>
         </is>
       </c>
     </row>
@@ -1939,32 +1979,32 @@
       </c>
       <c r="B55" s="4" t="inlineStr">
         <is>
-          <t>0x74beaeb59500b4486ec3c83b81552279b79c6728</t>
+          <t>0x83cd797812ebcfe418f76a16fb15c7f149eaa2f7</t>
         </is>
       </c>
       <c r="C55" s="5" t="inlineStr">
         <is>
-          <t>12,748,538,523,985</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D55" s="5" t="inlineStr">
         <is>
-          <t>13 Trillion</t>
+          <t>0 Trillion</t>
         </is>
       </c>
       <c r="E55" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1080% </t>
+          <t xml:space="preserve">0.1138% </t>
         </is>
       </c>
       <c r="F55" s="6" t="inlineStr">
         <is>
-          <t>95 Trillion Less</t>
+          <t>114 Trillion Less</t>
         </is>
       </c>
       <c r="G55" s="7" t="inlineStr">
         <is>
-          <t>95,293,947,858,899</t>
+          <t>113,815,954,518,575</t>
         </is>
       </c>
     </row>
@@ -1974,7 +2014,7 @@
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
-          <t>0x83cd797812ebcfe418f76a16fb15c7f149eaa2f7</t>
+          <t>0x34db618752319744a4a41e6ba4d5d58b3fffff48</t>
         </is>
       </c>
       <c r="C56" s="5" t="inlineStr">
@@ -1989,17 +2029,17 @@
       </c>
       <c r="E56" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1138% </t>
+          <t xml:space="preserve">1.0630% </t>
         </is>
       </c>
       <c r="F56" s="6" t="inlineStr">
         <is>
-          <t>114 Trillion Less</t>
+          <t>1063 Trillion Less</t>
         </is>
       </c>
       <c r="G56" s="7" t="inlineStr">
         <is>
-          <t>113,815,954,518,575</t>
+          <t>1,062,974,248,973,550</t>
         </is>
       </c>
     </row>
@@ -2009,50 +2049,120 @@
       </c>
       <c r="B57" s="4" t="inlineStr">
         <is>
-          <t>0x34db618752319744a4a41e6ba4d5d58b3fffff48</t>
+          <t>0x7b11f31fc0d0a79717ec025d411ac5e899ac7116</t>
         </is>
       </c>
       <c r="C57" s="5" t="inlineStr">
         <is>
+          <t>39,482,797,795,782</t>
+        </is>
+      </c>
+      <c r="D57" s="5" t="inlineStr">
+        <is>
+          <t>39 Trillion</t>
+        </is>
+      </c>
+      <c r="E57" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.1287% </t>
+        </is>
+      </c>
+      <c r="F57" s="6" t="inlineStr">
+        <is>
+          <t>89 Trillion Less</t>
+        </is>
+      </c>
+      <c r="G57" s="7" t="inlineStr">
+        <is>
+          <t>89,244,885,324,085</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B58" s="4" t="inlineStr">
+        <is>
+          <t>0x69fe97ce030074b37cbaf3ee46e9f68ca8712099</t>
+        </is>
+      </c>
+      <c r="C58" s="5" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D57" s="5" t="inlineStr">
+      <c r="D58" s="5" t="inlineStr">
         <is>
           <t>0 Trillion</t>
         </is>
       </c>
-      <c r="E57" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.0630% </t>
-        </is>
-      </c>
-      <c r="F57" s="6" t="inlineStr">
-        <is>
-          <t>1063 Trillion Less</t>
-        </is>
-      </c>
-      <c r="G57" s="7" t="inlineStr">
-        <is>
-          <t>1,062,974,248,973,550</t>
+      <c r="E58" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.1006% </t>
+        </is>
+      </c>
+      <c r="F58" s="6" t="inlineStr">
+        <is>
+          <t>101 Trillion Less</t>
+        </is>
+      </c>
+      <c r="G58" s="7" t="inlineStr">
+        <is>
+          <t>100,567,579,913,450</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="D59" s="6" t="n"/>
-      <c r="E59" s="7" t="inlineStr">
+      <c r="A59" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B59" s="4" t="inlineStr">
+        <is>
+          <t>0x302c44b648f5a84191f08551be26a2d2456a1fa1</t>
+        </is>
+      </c>
+      <c r="C59" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D59" s="5" t="inlineStr">
+        <is>
+          <t>0 Trillion</t>
+        </is>
+      </c>
+      <c r="E59" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.0939% </t>
+        </is>
+      </c>
+      <c r="F59" s="6" t="inlineStr">
+        <is>
+          <t>94 Trillion Less</t>
+        </is>
+      </c>
+      <c r="G59" s="7" t="inlineStr">
+        <is>
+          <t>93,917,447,289,939</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="D61" s="6" t="n"/>
+      <c r="E61" s="7" t="inlineStr">
         <is>
           <t>Total loss / gain from all whales</t>
         </is>
       </c>
-      <c r="F59" s="6" t="inlineStr">
-        <is>
-          <t>-1343 Trillion</t>
-        </is>
-      </c>
-      <c r="G59" s="6" t="inlineStr">
-        <is>
-          <t>-1,342,959,270,487,498</t>
+      <c r="F61" s="6" t="inlineStr">
+        <is>
+          <t>-1501 Trillion</t>
+        </is>
+      </c>
+      <c r="G61" s="6" t="inlineStr">
+        <is>
+          <t>-1,501,237,792,122,109</t>
         </is>
       </c>
     </row>

--- a/whales/holders.xlsx
+++ b/whales/holders.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,7 +512,7 @@
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>774,216,186,127,082</t>
+          <t>774,307,561,983,887</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -522,7 +522,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.7742% </t>
+          <t xml:space="preserve">0.7743% </t>
         </is>
       </c>
       <c r="F2" s="2" t="n"/>
@@ -539,7 +539,7 @@
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>608,650,037,852,732</t>
+          <t>608,708,314,713,528</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>411,090,731,506,089</t>
+          <t>411,136,520,100,173</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
@@ -593,7 +593,7 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>409,442,720,828,911</t>
+          <t>409,488,530,063,438</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
@@ -603,7 +603,7 @@
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.4094% </t>
+          <t xml:space="preserve">0.4095% </t>
         </is>
       </c>
       <c r="F5" s="2" t="n"/>
@@ -620,7 +620,7 @@
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>401,991,199,429,829</t>
+          <t>402,035,974,489,069</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
@@ -637,39 +637,31 @@
       <c r="G6" s="2" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="n">
+      <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>0xbd09e0594fbdbc5f73fe5db01bdc3bc2a19ec2d7</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>387,893,772,035,584</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>387,947,138,413,789</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
         <is>
           <t>388 Trillion</t>
         </is>
       </c>
-      <c r="E7" s="5" t="inlineStr">
+      <c r="E7" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">0.3879% </t>
         </is>
       </c>
-      <c r="F7" s="6" t="inlineStr">
-        <is>
-          <t>30 Trillion Less</t>
-        </is>
-      </c>
-      <c r="G7" s="7" t="inlineStr">
-        <is>
-          <t>29,983,511,181,832</t>
-        </is>
-      </c>
+      <c r="F7" s="2" t="n"/>
+      <c r="G7" s="2" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -682,7 +674,7 @@
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>375,131,643,268,213</t>
+          <t>375,177,377,698,958</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
@@ -692,7 +684,7 @@
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.3751% </t>
+          <t xml:space="preserve">0.3752% </t>
         </is>
       </c>
       <c r="F8" s="2" t="n"/>
@@ -709,7 +701,7 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>316,311,829,818,156</t>
+          <t>316,360,694,942,706</t>
         </is>
       </c>
       <c r="D9" s="5" t="inlineStr">
@@ -719,17 +711,17 @@
       </c>
       <c r="E9" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.3163% </t>
+          <t xml:space="preserve">0.3164% </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>10 Trillion More</t>
+          <t>5 Trillion More</t>
         </is>
       </c>
       <c r="G9" s="5" t="inlineStr">
         <is>
-          <t>9,932,087,203,919</t>
+          <t>4,970,726,217,924</t>
         </is>
       </c>
     </row>
@@ -761,74 +753,58 @@
       <c r="G10" s="2" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="n">
+      <c r="A11" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>0xfdd50de023c9a705d9086bf821d15c7450ee93bf</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr">
+      <c r="C11" s="3" t="inlineStr">
         <is>
           <t>227,648,398,367,749</t>
         </is>
       </c>
-      <c r="D11" s="5" t="inlineStr">
+      <c r="D11" s="3" t="inlineStr">
         <is>
           <t>228 Trillion</t>
         </is>
       </c>
-      <c r="E11" s="5" t="inlineStr">
+      <c r="E11" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">0.2276% </t>
         </is>
       </c>
-      <c r="F11" s="4" t="inlineStr">
-        <is>
-          <t>1 Trillion More</t>
-        </is>
-      </c>
-      <c r="G11" s="5" t="inlineStr">
-        <is>
-          <t>1,153,143,662,657</t>
-        </is>
-      </c>
+      <c r="F11" s="2" t="n"/>
+      <c r="G11" s="2" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="n">
+      <c r="A12" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="inlineStr">
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t>0x112344b8882619f5c8cfa9901d0b88e9eb11a25a</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr">
-        <is>
-          <t>200,307,986,170,445</t>
-        </is>
-      </c>
-      <c r="D12" s="5" t="inlineStr">
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>200,329,664,061,462</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
         <is>
           <t>200 Trillion</t>
         </is>
       </c>
-      <c r="E12" s="5" t="inlineStr">
+      <c r="E12" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">0.2003% </t>
         </is>
       </c>
-      <c r="F12" s="4" t="inlineStr">
-        <is>
-          <t>14 Trillion More</t>
-        </is>
-      </c>
-      <c r="G12" s="5" t="inlineStr">
-        <is>
-          <t>14,261,131,020,044</t>
-        </is>
-      </c>
+      <c r="F12" s="2" t="n"/>
+      <c r="G12" s="2" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -841,7 +817,7 @@
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>190,593,752,012,968</t>
+          <t>190,701,478,480,220</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
@@ -851,7 +827,7 @@
       </c>
       <c r="E13" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1906% </t>
+          <t xml:space="preserve">0.1907% </t>
         </is>
       </c>
       <c r="F13" s="2" t="n"/>
@@ -868,7 +844,7 @@
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>188,093,487,682,416</t>
+          <t>188,199,784,143,419</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
@@ -878,7 +854,7 @@
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1881% </t>
+          <t xml:space="preserve">0.1882% </t>
         </is>
       </c>
       <c r="F14" s="2" t="n"/>
@@ -895,7 +871,7 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>180,049,748,547,878</t>
+          <t>180,061,685,729,809</t>
         </is>
       </c>
       <c r="D15" s="5" t="inlineStr">
@@ -905,7 +881,7 @@
       </c>
       <c r="E15" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1800% </t>
+          <t xml:space="preserve">0.1801% </t>
         </is>
       </c>
       <c r="F15" s="6" t="inlineStr">
@@ -915,7 +891,7 @@
       </c>
       <c r="G15" s="7" t="inlineStr">
         <is>
-          <t>16,708,711,049,687</t>
+          <t>16,849,757,130,762</t>
         </is>
       </c>
     </row>
@@ -930,7 +906,7 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>174,420,634,860,359</t>
+          <t>174,442,294,351,054</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
@@ -974,66 +950,66 @@
       <c r="G17" s="2" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="n">
+      <c r="A18" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="inlineStr">
+      <c r="B18" s="2" t="inlineStr">
         <is>
           <t>0xb05a41293daf0fa7c71e4e035e2f477299fe10a1</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr">
+      <c r="C18" s="3" t="inlineStr">
         <is>
           <t>161,527,403,951,616</t>
         </is>
       </c>
-      <c r="D18" s="5" t="inlineStr">
+      <c r="D18" s="3" t="inlineStr">
         <is>
           <t>162 Trillion</t>
         </is>
       </c>
-      <c r="E18" s="5" t="inlineStr">
+      <c r="E18" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">0.1615% </t>
         </is>
       </c>
-      <c r="F18" s="4" t="inlineStr">
-        <is>
-          <t>51 Trillion More</t>
-        </is>
-      </c>
-      <c r="G18" s="5" t="inlineStr">
-        <is>
-          <t>51,009,307,857,513</t>
-        </is>
-      </c>
+      <c r="F18" s="2" t="n"/>
+      <c r="G18" s="2" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n">
+      <c r="A19" s="4" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>0x7b5b9b8d134bec76023cd6c20358d38714cc5c58</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>154,509,886,822,012</t>
-        </is>
-      </c>
-      <c r="D19" s="3" t="inlineStr">
-        <is>
-          <t>155 Trillion</t>
-        </is>
-      </c>
-      <c r="E19" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.1545% </t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="n"/>
-      <c r="G19" s="2" t="n"/>
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>0xf08ae27b3b1c31d1cfc2879e2ae567d81d42bdeb</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>156,883,028,878,428</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="inlineStr">
+        <is>
+          <t>157 Trillion</t>
+        </is>
+      </c>
+      <c r="E19" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.1569% </t>
+        </is>
+      </c>
+      <c r="F19" s="4" t="inlineStr">
+        <is>
+          <t>11 Trillion More</t>
+        </is>
+      </c>
+      <c r="G19" s="5" t="inlineStr">
+        <is>
+          <t>10,802,619,956,627</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1041,123 +1017,115 @@
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>0x1ae48253b364374d3db52de311302fc501b87895</t>
+          <t>0x7b5b9b8d134bec76023cd6c20358d38714cc5c58</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>153,700,859,113,465</t>
+          <t>154,659,042,382,428</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>154 Trillion</t>
+          <t>155 Trillion</t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1537% </t>
+          <t xml:space="preserve">0.1547% </t>
         </is>
       </c>
       <c r="F20" s="2" t="n"/>
       <c r="G20" s="2" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="n">
+      <c r="A21" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="inlineStr">
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>0x1ae48253b364374d3db52de311302fc501b87895</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>153,720,855,176,997</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>154 Trillion</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.1537% </t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="n"/>
+      <c r="G21" s="2" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
         <is>
           <t>0x497e289791fc2c2b355c259d9516f079d9b52a63</t>
         </is>
       </c>
-      <c r="C21" s="5" t="inlineStr">
-        <is>
-          <t>151,329,188,545,567</t>
-        </is>
-      </c>
-      <c r="D21" s="5" t="inlineStr">
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>151,369,585,024,300</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
         <is>
           <t>151 Trillion</t>
         </is>
       </c>
-      <c r="E21" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.1513% </t>
-        </is>
-      </c>
-      <c r="F21" s="6" t="inlineStr">
-        <is>
-          <t>29 Trillion Less</t>
-        </is>
-      </c>
-      <c r="G21" s="7" t="inlineStr">
-        <is>
-          <t>28,720,318,521,664</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="4" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" s="4" t="inlineStr">
+      <c r="E22" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.1514% </t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="n"/>
+      <c r="G22" s="2" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="inlineStr">
         <is>
           <t>0x4ac84bbb674f62614626f6276296014f1cade575</t>
         </is>
       </c>
-      <c r="C22" s="5" t="inlineStr">
-        <is>
-          <t>148,109,255,191,595</t>
-        </is>
-      </c>
-      <c r="D22" s="5" t="inlineStr">
-        <is>
-          <t>148 Trillion</t>
-        </is>
-      </c>
-      <c r="E22" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.1481% </t>
-        </is>
-      </c>
-      <c r="F22" s="4" t="inlineStr">
-        <is>
-          <t>7 Trillion More</t>
-        </is>
-      </c>
-      <c r="G22" s="5" t="inlineStr">
-        <is>
-          <t>6,846,266,779,468</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2" t="inlineStr">
-        <is>
-          <t>0xf08ae27b3b1c31d1cfc2879e2ae567d81d42bdeb</t>
-        </is>
-      </c>
-      <c r="C23" s="3" t="inlineStr">
-        <is>
-          <t>146,185,236,267,846</t>
-        </is>
-      </c>
-      <c r="D23" s="3" t="inlineStr">
-        <is>
-          <t>146 Trillion</t>
-        </is>
-      </c>
-      <c r="E23" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.1462% </t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="n"/>
-      <c r="G23" s="2" t="n"/>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>149,569,810,762,960</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="inlineStr">
+        <is>
+          <t>150 Trillion</t>
+        </is>
+      </c>
+      <c r="E23" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.1496% </t>
+        </is>
+      </c>
+      <c r="F23" s="4" t="inlineStr">
+        <is>
+          <t>8 Trillion More</t>
+        </is>
+      </c>
+      <c r="G23" s="5" t="inlineStr">
+        <is>
+          <t>8,194,009,460,942</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1187,39 +1155,31 @@
       <c r="G24" s="2" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="n">
+      <c r="A25" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="4" t="inlineStr">
+      <c r="B25" s="2" t="inlineStr">
         <is>
           <t>0x74beaeb59500b4486ec3c83b81552279b79c6728</t>
         </is>
       </c>
-      <c r="C25" s="5" t="inlineStr">
+      <c r="C25" s="3" t="inlineStr">
         <is>
           <t>134,413,919,604,666</t>
         </is>
       </c>
-      <c r="D25" s="5" t="inlineStr">
+      <c r="D25" s="3" t="inlineStr">
         <is>
           <t>134 Trillion</t>
         </is>
       </c>
-      <c r="E25" s="5" t="inlineStr">
+      <c r="E25" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">0.1344% </t>
         </is>
       </c>
-      <c r="F25" s="4" t="inlineStr">
-        <is>
-          <t>26 Trillion More</t>
-        </is>
-      </c>
-      <c r="G25" s="5" t="inlineStr">
-        <is>
-          <t>26,371,433,221,782</t>
-        </is>
-      </c>
+      <c r="F25" s="2" t="n"/>
+      <c r="G25" s="2" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="4" t="n">
@@ -1365,39 +1325,31 @@
       <c r="G30" s="2" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="4" t="n">
+      <c r="A31" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="4" t="inlineStr">
+      <c r="B31" s="2" t="inlineStr">
         <is>
           <t>0x2fcc0ac77971df25d65b9eae9418434ac72be3bc</t>
         </is>
       </c>
-      <c r="C31" s="5" t="inlineStr">
+      <c r="C31" s="3" t="inlineStr">
         <is>
           <t>108,170,757,830,871</t>
         </is>
       </c>
-      <c r="D31" s="5" t="inlineStr">
+      <c r="D31" s="3" t="inlineStr">
         <is>
           <t>108 Trillion</t>
         </is>
       </c>
-      <c r="E31" s="5" t="inlineStr">
+      <c r="E31" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">0.1082% </t>
         </is>
       </c>
-      <c r="F31" s="4" t="inlineStr">
-        <is>
-          <t>6 Trillion More</t>
-        </is>
-      </c>
-      <c r="G31" s="5" t="inlineStr">
-        <is>
-          <t>5,951,202,366,611</t>
-        </is>
-      </c>
+      <c r="F31" s="2" t="n"/>
+      <c r="G31" s="2" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1513,22 +1465,22 @@
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>0xe7af2280c3a70170f9e5cb67c6ea5885680d2838</t>
+          <t>0x0fcb56c9e4f865e48475bab332b4e86f78332a55</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>101,057,958,101,905</t>
+          <t>101,595,431,794,851</t>
         </is>
       </c>
       <c r="D36" s="3" t="inlineStr">
         <is>
-          <t>101 Trillion</t>
+          <t>102 Trillion</t>
         </is>
       </c>
       <c r="E36" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1011% </t>
+          <t xml:space="preserve">0.1016% </t>
         </is>
       </c>
       <c r="F36" s="2" t="n"/>
@@ -1540,22 +1492,22 @@
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>0xa9579390b4b5ac986a16a05c32ad0975e089a857</t>
+          <t>0xe7af2280c3a70170f9e5cb67c6ea5885680d2838</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
         <is>
-          <t>100,126,359,859,271</t>
+          <t>101,057,958,101,905</t>
         </is>
       </c>
       <c r="D37" s="3" t="inlineStr">
         <is>
-          <t>100 Trillion</t>
+          <t>101 Trillion</t>
         </is>
       </c>
       <c r="E37" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1001% </t>
+          <t xml:space="preserve">0.1011% </t>
         </is>
       </c>
       <c r="F37" s="2" t="n"/>
@@ -1567,53 +1519,61 @@
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>0x021bcf7b581b6328c458f13ebb50ea6767c1b16d</t>
+          <t>0xa9579390b4b5ac986a16a05c32ad0975e089a857</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>92,888,524,562,195</t>
+          <t>100,126,359,859,271</t>
         </is>
       </c>
       <c r="D38" s="3" t="inlineStr">
         <is>
-          <t>93 Trillion</t>
+          <t>100 Trillion</t>
         </is>
       </c>
       <c r="E38" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0929% </t>
+          <t xml:space="preserve">0.1001% </t>
         </is>
       </c>
       <c r="F38" s="2" t="n"/>
       <c r="G38" s="2" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n">
+      <c r="A39" s="4" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="2" t="inlineStr">
-        <is>
-          <t>0xf8a002718fbba65dd1ca19e7027c943c54e20220</t>
-        </is>
-      </c>
-      <c r="C39" s="3" t="inlineStr">
-        <is>
-          <t>90,569,119,873,037</t>
-        </is>
-      </c>
-      <c r="D39" s="3" t="inlineStr">
-        <is>
-          <t>91 Trillion</t>
-        </is>
-      </c>
-      <c r="E39" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.0906% </t>
-        </is>
-      </c>
-      <c r="F39" s="2" t="n"/>
-      <c r="G39" s="2" t="n"/>
+      <c r="B39" s="4" t="inlineStr">
+        <is>
+          <t>0x021bcf7b581b6328c458f13ebb50ea6767c1b16d</t>
+        </is>
+      </c>
+      <c r="C39" s="5" t="inlineStr">
+        <is>
+          <t>92,888,524,562,195</t>
+        </is>
+      </c>
+      <c r="D39" s="5" t="inlineStr">
+        <is>
+          <t>93 Trillion</t>
+        </is>
+      </c>
+      <c r="E39" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.0929% </t>
+        </is>
+      </c>
+      <c r="F39" s="4" t="inlineStr">
+        <is>
+          <t>7 Trillion More</t>
+        </is>
+      </c>
+      <c r="G39" s="5" t="inlineStr">
+        <is>
+          <t>7,475,885,161,112</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1621,88 +1581,88 @@
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>0xb501e46d0e187cd9e2e0b3611fe17ed477f998e1</t>
+          <t>0xf8a002718fbba65dd1ca19e7027c943c54e20220</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>87,819,801,364,648</t>
+          <t>90,579,859,718,540</t>
         </is>
       </c>
       <c r="D40" s="3" t="inlineStr">
         <is>
-          <t>88 Trillion</t>
+          <t>91 Trillion</t>
         </is>
       </c>
       <c r="E40" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0878% </t>
+          <t xml:space="preserve">0.0906% </t>
         </is>
       </c>
       <c r="F40" s="2" t="n"/>
       <c r="G40" s="2" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="4" t="n">
+      <c r="A41" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="B41" s="4" t="inlineStr">
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>0xb501e46d0e187cd9e2e0b3611fe17ed477f998e1</t>
+        </is>
+      </c>
+      <c r="C41" s="3" t="inlineStr">
+        <is>
+          <t>87,819,801,364,648</t>
+        </is>
+      </c>
+      <c r="D41" s="3" t="inlineStr">
+        <is>
+          <t>88 Trillion</t>
+        </is>
+      </c>
+      <c r="E41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.0878% </t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="n"/>
+      <c r="G41" s="2" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="4" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="4" t="inlineStr">
         <is>
           <t>0xd8f8110161649178bca78b074cef0864ad9a99a8</t>
         </is>
       </c>
-      <c r="C41" s="5" t="inlineStr">
-        <is>
-          <t>87,159,029,085,616</t>
-        </is>
-      </c>
-      <c r="D41" s="5" t="inlineStr">
+      <c r="C42" s="5" t="inlineStr">
+        <is>
+          <t>87,170,129,309,799</t>
+        </is>
+      </c>
+      <c r="D42" s="5" t="inlineStr">
         <is>
           <t>87 Trillion</t>
         </is>
       </c>
-      <c r="E41" s="5" t="inlineStr">
+      <c r="E42" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">0.0872% </t>
         </is>
       </c>
-      <c r="F41" s="4" t="inlineStr">
+      <c r="F42" s="4" t="inlineStr">
         <is>
           <t>4 Trillion More</t>
         </is>
       </c>
-      <c r="G41" s="5" t="inlineStr">
-        <is>
-          <t>4,243,865,932,513</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B42" s="2" t="inlineStr">
-        <is>
-          <t>0xca1135931ecedc74d402c712678d555286c6dbf8</t>
-        </is>
-      </c>
-      <c r="C42" s="3" t="inlineStr">
-        <is>
-          <t>86,961,842,948,968</t>
-        </is>
-      </c>
-      <c r="D42" s="3" t="inlineStr">
-        <is>
-          <t>87 Trillion</t>
-        </is>
-      </c>
-      <c r="E42" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.0870% </t>
-        </is>
-      </c>
-      <c r="F42" s="2" t="n"/>
-      <c r="G42" s="2" t="n"/>
+      <c r="G42" s="5" t="inlineStr">
+        <is>
+          <t>4,210,279,168,027</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1710,22 +1670,22 @@
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>0xa6864e154b64a8ce94020a8c1b43f191d3523c47</t>
+          <t>0xca1135931ecedc74d402c712678d555286c6dbf8</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>81,128,791,830,716</t>
+          <t>86,961,842,948,968</t>
         </is>
       </c>
       <c r="D43" s="3" t="inlineStr">
         <is>
-          <t>81 Trillion</t>
+          <t>87 Trillion</t>
         </is>
       </c>
       <c r="E43" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0811% </t>
+          <t xml:space="preserve">0.0870% </t>
         </is>
       </c>
       <c r="F43" s="2" t="n"/>
@@ -1737,22 +1697,22 @@
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>0x4e57abe60fdc74c47fc3a86bbd7857b4e24c180d</t>
+          <t>0xa6864e154b64a8ce94020a8c1b43f191d3523c47</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>79,763,629,301,578</t>
+          <t>81,128,791,830,716</t>
         </is>
       </c>
       <c r="D44" s="3" t="inlineStr">
         <is>
-          <t>80 Trillion</t>
+          <t>81 Trillion</t>
         </is>
       </c>
       <c r="E44" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0798% </t>
+          <t xml:space="preserve">0.0811% </t>
         </is>
       </c>
       <c r="F44" s="2" t="n"/>
@@ -1764,22 +1724,22 @@
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>0xe902fd7de8afb5b295f628c1b4f6143005bb0bf6</t>
+          <t>0x4e57abe60fdc74c47fc3a86bbd7857b4e24c180d</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>78,500,122,588,755</t>
+          <t>79,763,629,301,578</t>
         </is>
       </c>
       <c r="D45" s="3" t="inlineStr">
         <is>
-          <t>79 Trillion</t>
+          <t>80 Trillion</t>
         </is>
       </c>
       <c r="E45" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0785% </t>
+          <t xml:space="preserve">0.0798% </t>
         </is>
       </c>
       <c r="F45" s="2" t="n"/>
@@ -1791,22 +1751,22 @@
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>0x28e5d92148aa12b0fccd268ff643be86bbb5265e</t>
+          <t>0xe902fd7de8afb5b295f628c1b4f6143005bb0bf6</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>75,638,511,708,227</t>
+          <t>78,500,122,588,755</t>
         </is>
       </c>
       <c r="D46" s="3" t="inlineStr">
         <is>
-          <t>76 Trillion</t>
+          <t>79 Trillion</t>
         </is>
       </c>
       <c r="E46" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0756% </t>
+          <t xml:space="preserve">0.0785% </t>
         </is>
       </c>
       <c r="F46" s="2" t="n"/>
@@ -1818,22 +1778,22 @@
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>0xffcc995a004c26a059248c15afa92f006b315fab</t>
+          <t>0x28e5d92148aa12b0fccd268ff643be86bbb5265e</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>74,204,183,091,826</t>
+          <t>75,638,511,708,227</t>
         </is>
       </c>
       <c r="D47" s="3" t="inlineStr">
         <is>
-          <t>74 Trillion</t>
+          <t>76 Trillion</t>
         </is>
       </c>
       <c r="E47" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0742% </t>
+          <t xml:space="preserve">0.0756% </t>
         </is>
       </c>
       <c r="F47" s="2" t="n"/>
@@ -1845,22 +1805,22 @@
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>0x9a7e16cc5d152e60ea52d46d8e422d724bdb4dcf</t>
+          <t>0xffcc995a004c26a059248c15afa92f006b315fab</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>72,904,810,003,324</t>
+          <t>74,204,183,091,826</t>
         </is>
       </c>
       <c r="D48" s="3" t="inlineStr">
         <is>
-          <t>73 Trillion</t>
+          <t>74 Trillion</t>
         </is>
       </c>
       <c r="E48" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0729% </t>
+          <t xml:space="preserve">0.0742% </t>
         </is>
       </c>
       <c r="F48" s="2" t="n"/>
@@ -1872,22 +1832,22 @@
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>0x0fcb56c9e4f865e48475bab332b4e86f78332a55</t>
+          <t>0x9a7e16cc5d152e60ea52d46d8e422d724bdb4dcf</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>71,201,112,114,715</t>
+          <t>72,945,667,648,778</t>
         </is>
       </c>
       <c r="D49" s="3" t="inlineStr">
         <is>
-          <t>71 Trillion</t>
+          <t>73 Trillion</t>
         </is>
       </c>
       <c r="E49" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0712% </t>
+          <t xml:space="preserve">0.0729% </t>
         </is>
       </c>
       <c r="F49" s="2" t="n"/>
@@ -1901,27 +1861,27 @@
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>8,743,124,061,599,851</t>
+          <t>8,786,652,264,310,605</t>
         </is>
       </c>
       <c r="D51" s="3" t="inlineStr">
         <is>
-          <t>8743 Trillion</t>
+          <t>8787 Trillion</t>
         </is>
       </c>
       <c r="E51" s="3" t="inlineStr">
         <is>
-          <t>8.74%</t>
+          <t>8.79%</t>
         </is>
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>64 Trillion</t>
+          <t>39 Trillion</t>
         </is>
       </c>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>64,116,523,388,014</t>
+          <t>38,564,388,930,560</t>
         </is>
       </c>
     </row>
@@ -1944,32 +1904,32 @@
       </c>
       <c r="B54" s="4" t="inlineStr">
         <is>
-          <t>0x84d1b0ae25aa0b535552d28455f4d00922baf624</t>
+          <t>0xdce8e975b0dcbec956cddebffcc9f0cfaa5b8415</t>
         </is>
       </c>
       <c r="C54" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>67,737,824,526,138</t>
         </is>
       </c>
       <c r="D54" s="5" t="inlineStr">
         <is>
-          <t>0 Trillion</t>
+          <t>68 Trillion</t>
         </is>
       </c>
       <c r="E54" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1048% </t>
+          <t xml:space="preserve">0.0790% </t>
         </is>
       </c>
       <c r="F54" s="6" t="inlineStr">
         <is>
-          <t>105 Trillion Less</t>
+          <t>11 Trillion Less</t>
         </is>
       </c>
       <c r="G54" s="7" t="inlineStr">
         <is>
-          <t>104,834,199,490,524</t>
+          <t>11,253,872,915,270</t>
         </is>
       </c>
     </row>
@@ -1979,7 +1939,7 @@
       </c>
       <c r="B55" s="4" t="inlineStr">
         <is>
-          <t>0x83cd797812ebcfe418f76a16fb15c7f149eaa2f7</t>
+          <t>0x84d1b0ae25aa0b535552d28455f4d00922baf624</t>
         </is>
       </c>
       <c r="C55" s="5" t="inlineStr">
@@ -1994,17 +1954,17 @@
       </c>
       <c r="E55" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1138% </t>
+          <t xml:space="preserve">0.1048% </t>
         </is>
       </c>
       <c r="F55" s="6" t="inlineStr">
         <is>
-          <t>114 Trillion Less</t>
+          <t>105 Trillion Less</t>
         </is>
       </c>
       <c r="G55" s="7" t="inlineStr">
         <is>
-          <t>113,815,954,518,575</t>
+          <t>104,834,199,490,524</t>
         </is>
       </c>
     </row>
@@ -2014,7 +1974,7 @@
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
-          <t>0x34db618752319744a4a41e6ba4d5d58b3fffff48</t>
+          <t>0x69fe97ce030074b37cbaf3ee46e9f68ca8712099</t>
         </is>
       </c>
       <c r="C56" s="5" t="inlineStr">
@@ -2029,17 +1989,17 @@
       </c>
       <c r="E56" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.0630% </t>
+          <t xml:space="preserve">0.1006% </t>
         </is>
       </c>
       <c r="F56" s="6" t="inlineStr">
         <is>
-          <t>1063 Trillion Less</t>
+          <t>101 Trillion Less</t>
         </is>
       </c>
       <c r="G56" s="7" t="inlineStr">
         <is>
-          <t>1,062,974,248,973,550</t>
+          <t>100,567,579,913,450</t>
         </is>
       </c>
     </row>
@@ -2049,120 +2009,50 @@
       </c>
       <c r="B57" s="4" t="inlineStr">
         <is>
-          <t>0x7b11f31fc0d0a79717ec025d411ac5e899ac7116</t>
+          <t>0x302c44b648f5a84191f08551be26a2d2456a1fa1</t>
         </is>
       </c>
       <c r="C57" s="5" t="inlineStr">
         <is>
-          <t>39,482,797,795,782</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D57" s="5" t="inlineStr">
         <is>
-          <t>39 Trillion</t>
+          <t>0 Trillion</t>
         </is>
       </c>
       <c r="E57" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1287% </t>
+          <t xml:space="preserve">0.0939% </t>
         </is>
       </c>
       <c r="F57" s="6" t="inlineStr">
         <is>
-          <t>89 Trillion Less</t>
+          <t>94 Trillion Less</t>
         </is>
       </c>
       <c r="G57" s="7" t="inlineStr">
         <is>
-          <t>89,244,885,324,085</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="B58" s="4" t="inlineStr">
-        <is>
-          <t>0x69fe97ce030074b37cbaf3ee46e9f68ca8712099</t>
-        </is>
-      </c>
-      <c r="C58" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D58" s="5" t="inlineStr">
-        <is>
-          <t>0 Trillion</t>
-        </is>
-      </c>
-      <c r="E58" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.1006% </t>
-        </is>
-      </c>
-      <c r="F58" s="6" t="inlineStr">
-        <is>
-          <t>101 Trillion Less</t>
-        </is>
-      </c>
-      <c r="G58" s="7" t="inlineStr">
-        <is>
-          <t>100,567,579,913,450</t>
+          <t>93,917,447,289,939</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="B59" s="4" t="inlineStr">
-        <is>
-          <t>0x302c44b648f5a84191f08551be26a2d2456a1fa1</t>
-        </is>
-      </c>
-      <c r="C59" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D59" s="5" t="inlineStr">
-        <is>
-          <t>0 Trillion</t>
-        </is>
-      </c>
-      <c r="E59" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.0939% </t>
+      <c r="D59" s="6" t="n"/>
+      <c r="E59" s="7" t="inlineStr">
+        <is>
+          <t>Total loss / gain from all whales</t>
         </is>
       </c>
       <c r="F59" s="6" t="inlineStr">
         <is>
-          <t>94 Trillion Less</t>
-        </is>
-      </c>
-      <c r="G59" s="7" t="inlineStr">
-        <is>
-          <t>93,917,447,289,939</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="D61" s="6" t="n"/>
-      <c r="E61" s="7" t="inlineStr">
-        <is>
-          <t>Total loss / gain from all whales</t>
-        </is>
-      </c>
-      <c r="F61" s="6" t="inlineStr">
-        <is>
-          <t>-1501 Trillion</t>
-        </is>
-      </c>
-      <c r="G61" s="6" t="inlineStr">
-        <is>
-          <t>-1,501,237,792,122,109</t>
+          <t>-272 Trillion</t>
+        </is>
+      </c>
+      <c r="G59" s="6" t="inlineStr">
+        <is>
+          <t>-272,008,710,678,623</t>
         </is>
       </c>
     </row>

--- a/whales/holders.xlsx
+++ b/whales/holders.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,7 +512,7 @@
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>774,307,561,983,887</t>
+          <t>774,480,272,640,511</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -522,7 +522,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.7743% </t>
+          <t xml:space="preserve">0.7745% </t>
         </is>
       </c>
       <c r="F2" s="2" t="n"/>
@@ -539,7 +539,7 @@
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>608,708,314,713,528</t>
+          <t>608,857,633,629,211</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
@@ -549,7 +549,7 @@
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.6087% </t>
+          <t xml:space="preserve">0.6089% </t>
         </is>
       </c>
       <c r="F3" s="2" t="n"/>
@@ -566,7 +566,7 @@
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>411,136,520,100,173</t>
+          <t>411,210,183,494,178</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
@@ -576,7 +576,7 @@
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.4111% </t>
+          <t xml:space="preserve">0.4112% </t>
         </is>
       </c>
       <c r="F4" s="2" t="n"/>
@@ -593,17 +593,17 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>409,488,530,063,438</t>
+          <t>409,566,915,808,129</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>409 Trillion</t>
+          <t>410 Trillion</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.4095% </t>
+          <t xml:space="preserve">0.4096% </t>
         </is>
       </c>
       <c r="F5" s="2" t="n"/>
@@ -620,7 +620,7 @@
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>402,035,974,489,069</t>
+          <t>402,107,994,244,304</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
@@ -630,7 +630,7 @@
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.4020% </t>
+          <t xml:space="preserve">0.4021% </t>
         </is>
       </c>
       <c r="F6" s="2" t="n"/>
@@ -647,7 +647,7 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>387,947,138,413,789</t>
+          <t>388,016,390,849,750</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.3879% </t>
+          <t xml:space="preserve">0.3880% </t>
         </is>
       </c>
       <c r="F7" s="2" t="n"/>
@@ -674,7 +674,7 @@
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>375,177,377,698,958</t>
+          <t>375,250,217,157,996</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
@@ -684,46 +684,38 @@
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.3752% </t>
+          <t xml:space="preserve">0.3753% </t>
         </is>
       </c>
       <c r="F8" s="2" t="n"/>
       <c r="G8" s="2" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="n">
+      <c r="A9" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>0x0c706e89e383ca020cd5b1d1ffc4cd17a810a2d5</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr">
-        <is>
-          <t>316,360,694,942,706</t>
-        </is>
-      </c>
-      <c r="D9" s="5" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>316,398,456,319,389</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
         <is>
           <t>316 Trillion</t>
         </is>
       </c>
-      <c r="E9" s="5" t="inlineStr">
+      <c r="E9" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">0.3164% </t>
         </is>
       </c>
-      <c r="F9" s="4" t="inlineStr">
-        <is>
-          <t>5 Trillion More</t>
-        </is>
-      </c>
-      <c r="G9" s="5" t="inlineStr">
-        <is>
-          <t>4,970,726,217,924</t>
-        </is>
-      </c>
+      <c r="F9" s="2" t="n"/>
+      <c r="G9" s="2" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -736,7 +728,7 @@
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>252,024,402,246,623</t>
+          <t>252,163,841,014,539</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
@@ -746,7 +738,7 @@
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.2520% </t>
+          <t xml:space="preserve">0.2522% </t>
         </is>
       </c>
       <c r="F10" s="2" t="n"/>
@@ -763,7 +755,7 @@
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>227,648,398,367,749</t>
+          <t>227,788,577,386,779</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
@@ -773,7 +765,7 @@
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.2276% </t>
+          <t xml:space="preserve">0.2278% </t>
         </is>
       </c>
       <c r="F11" s="2" t="n"/>
@@ -790,7 +782,7 @@
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>200,329,664,061,462</t>
+          <t>200,374,446,632,827</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
@@ -800,7 +792,7 @@
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.2003% </t>
+          <t xml:space="preserve">0.2004% </t>
         </is>
       </c>
       <c r="F12" s="2" t="n"/>
@@ -817,7 +809,7 @@
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>190,701,478,480,220</t>
+          <t>190,709,895,359,363</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
@@ -844,7 +836,7 @@
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>188,199,784,143,419</t>
+          <t>188,208,107,426,578</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
@@ -861,39 +853,31 @@
       <c r="G14" s="2" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="n">
+      <c r="A15" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="inlineStr">
+      <c r="B15" s="2" t="inlineStr">
         <is>
           <t>0x7146f34d166379b4ab5220f5eefd7c79835a3c04</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr">
-        <is>
-          <t>180,061,685,729,809</t>
-        </is>
-      </c>
-      <c r="D15" s="5" t="inlineStr">
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>180,079,597,497,564</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
         <is>
           <t>180 Trillion</t>
         </is>
       </c>
-      <c r="E15" s="5" t="inlineStr">
+      <c r="E15" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">0.1801% </t>
         </is>
       </c>
-      <c r="F15" s="6" t="inlineStr">
-        <is>
-          <t>17 Trillion Less</t>
-        </is>
-      </c>
-      <c r="G15" s="7" t="inlineStr">
-        <is>
-          <t>16,849,757,130,762</t>
-        </is>
-      </c>
+      <c r="F15" s="2" t="n"/>
+      <c r="G15" s="2" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -906,7 +890,7 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>174,442,294,351,054</t>
+          <t>174,475,785,108,756</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
@@ -916,7 +900,7 @@
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1744% </t>
+          <t xml:space="preserve">0.1745% </t>
         </is>
       </c>
       <c r="F16" s="2" t="n"/>
@@ -933,7 +917,7 @@
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>171,919,094,110,735</t>
+          <t>171,977,906,555,200</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
@@ -943,7 +927,7 @@
       </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1719% </t>
+          <t xml:space="preserve">0.1720% </t>
         </is>
       </c>
       <c r="F17" s="2" t="n"/>
@@ -960,7 +944,7 @@
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>161,527,403,951,616</t>
+          <t>161,565,604,754,488</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
@@ -970,7 +954,7 @@
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1615% </t>
+          <t xml:space="preserve">0.1616% </t>
         </is>
       </c>
       <c r="F18" s="2" t="n"/>
@@ -987,7 +971,7 @@
       </c>
       <c r="C19" s="5" t="inlineStr">
         <is>
-          <t>156,883,028,878,428</t>
+          <t>156,892,791,024,178</t>
         </is>
       </c>
       <c r="D19" s="5" t="inlineStr">
@@ -1007,7 +991,7 @@
       </c>
       <c r="G19" s="5" t="inlineStr">
         <is>
-          <t>10,802,619,956,627</t>
+          <t>10,707,554,756,332</t>
         </is>
       </c>
     </row>
@@ -1022,7 +1006,7 @@
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>154,659,042,382,428</t>
+          <t>154,692,204,060,373</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
@@ -1049,7 +1033,7 @@
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>153,720,855,176,997</t>
+          <t>153,730,420,554,487</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
@@ -1066,66 +1050,66 @@
       <c r="G21" s="2" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
+      <c r="A22" s="4" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="inlineStr">
-        <is>
-          <t>0x497e289791fc2c2b355c259d9516f079d9b52a63</t>
-        </is>
-      </c>
-      <c r="C22" s="3" t="inlineStr">
-        <is>
-          <t>151,369,585,024,300</t>
-        </is>
-      </c>
-      <c r="D22" s="3" t="inlineStr">
-        <is>
-          <t>151 Trillion</t>
-        </is>
-      </c>
-      <c r="E22" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.1514% </t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="n"/>
-      <c r="G22" s="2" t="n"/>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>0x4ac84bbb674f62614626f6276296014f1cade575</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>149,600,999,374,631</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="inlineStr">
+        <is>
+          <t>150 Trillion</t>
+        </is>
+      </c>
+      <c r="E22" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.1496% </t>
+        </is>
+      </c>
+      <c r="F22" s="4" t="inlineStr">
+        <is>
+          <t>1 Trillion More</t>
+        </is>
+      </c>
+      <c r="G22" s="5" t="inlineStr">
+        <is>
+          <t>1,491,744,183,036</t>
+        </is>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="n">
+      <c r="A23" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="4" t="inlineStr">
-        <is>
-          <t>0x4ac84bbb674f62614626f6276296014f1cade575</t>
-        </is>
-      </c>
-      <c r="C23" s="5" t="inlineStr">
-        <is>
-          <t>149,569,810,762,960</t>
-        </is>
-      </c>
-      <c r="D23" s="5" t="inlineStr">
-        <is>
-          <t>150 Trillion</t>
-        </is>
-      </c>
-      <c r="E23" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.1496% </t>
-        </is>
-      </c>
-      <c r="F23" s="4" t="inlineStr">
-        <is>
-          <t>8 Trillion More</t>
-        </is>
-      </c>
-      <c r="G23" s="5" t="inlineStr">
-        <is>
-          <t>8,194,009,460,942</t>
-        </is>
-      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>0xba8d62918b242917cf67d04c7d68ecaad63df8b3</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>134,737,485,635,812</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>135 Trillion</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.1347% </t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="n"/>
+      <c r="G23" s="2" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1133,22 +1117,22 @@
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>0xba8d62918b242917cf67d04c7d68ecaad63df8b3</t>
+          <t>0xf4eaa3a2eb5e8e654eabc030f4395062fe597db3</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>134,737,485,635,812</t>
+          <t>132,858,715,897,236</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
         <is>
-          <t>135 Trillion</t>
+          <t>133 Trillion</t>
         </is>
       </c>
       <c r="E24" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1347% </t>
+          <t xml:space="preserve">0.1329% </t>
         </is>
       </c>
       <c r="F24" s="2" t="n"/>
@@ -1160,61 +1144,53 @@
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>0x74beaeb59500b4486ec3c83b81552279b79c6728</t>
+          <t>0xf076f6f942eac10b48cea9ed1f25be813304ae42</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>134,413,919,604,666</t>
+          <t>117,805,227,381,517</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
         <is>
-          <t>134 Trillion</t>
+          <t>118 Trillion</t>
         </is>
       </c>
       <c r="E25" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1344% </t>
+          <t xml:space="preserve">0.1178% </t>
         </is>
       </c>
       <c r="F25" s="2" t="n"/>
       <c r="G25" s="2" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="n">
+      <c r="A26" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="4" t="inlineStr">
-        <is>
-          <t>0xf4eaa3a2eb5e8e654eabc030f4395062fe597db3</t>
-        </is>
-      </c>
-      <c r="C26" s="5" t="inlineStr">
-        <is>
-          <t>132,858,715,897,236</t>
-        </is>
-      </c>
-      <c r="D26" s="5" t="inlineStr">
-        <is>
-          <t>133 Trillion</t>
-        </is>
-      </c>
-      <c r="E26" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.1329% </t>
-        </is>
-      </c>
-      <c r="F26" s="4" t="inlineStr">
-        <is>
-          <t>20 Trillion More</t>
-        </is>
-      </c>
-      <c r="G26" s="5" t="inlineStr">
-        <is>
-          <t>19,760,626,096,690</t>
-        </is>
-      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>0x28e87335c43b9b28d658b6825811744c251f5974</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>115,311,066,854,180</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="inlineStr">
+        <is>
+          <t>115 Trillion</t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.1153% </t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="n"/>
+      <c r="G26" s="2" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1222,22 +1198,22 @@
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>0xf076f6f942eac10b48cea9ed1f25be813304ae42</t>
+          <t>0x493d3d63b6e92869098d3ce8d733ce220633b829</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>117,805,227,381,517</t>
+          <t>111,510,350,768,450</t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
         <is>
-          <t>118 Trillion</t>
+          <t>112 Trillion</t>
         </is>
       </c>
       <c r="E27" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1178% </t>
+          <t xml:space="preserve">0.1115% </t>
         </is>
       </c>
       <c r="F27" s="2" t="n"/>
@@ -1249,22 +1225,22 @@
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>0x28e87335c43b9b28d658b6825811744c251f5974</t>
+          <t>0x2fcc0ac77971df25d65b9eae9418434ac72be3bc</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>115,264,502,926,544</t>
+          <t>108,252,833,254,157</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
         <is>
-          <t>115 Trillion</t>
+          <t>108 Trillion</t>
         </is>
       </c>
       <c r="E28" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1153% </t>
+          <t xml:space="preserve">0.1083% </t>
         </is>
       </c>
       <c r="F28" s="2" t="n"/>
@@ -1276,22 +1252,22 @@
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>0x493d3d63b6e92869098d3ce8d733ce220633b829</t>
+          <t>0xb2c5ae080a236fe89a87fdbd1f9d58ad4b57c6b2</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>111,510,350,768,450</t>
+          <t>108,210,934,281,939</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
         <is>
-          <t>112 Trillion</t>
+          <t>108 Trillion</t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1115% </t>
+          <t xml:space="preserve">0.1082% </t>
         </is>
       </c>
       <c r="F29" s="2" t="n"/>
@@ -1303,12 +1279,12 @@
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>0xb2c5ae080a236fe89a87fdbd1f9d58ad4b57c6b2</t>
+          <t>0xf677ecba7a2a3bfc86fc37ac07ffa2fa896bb525</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>108,210,934,281,939</t>
+          <t>107,947,760,069,167</t>
         </is>
       </c>
       <c r="D30" s="3" t="inlineStr">
@@ -1318,65 +1294,81 @@
       </c>
       <c r="E30" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1082% </t>
+          <t xml:space="preserve">0.1079% </t>
         </is>
       </c>
       <c r="F30" s="2" t="n"/>
       <c r="G30" s="2" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n">
+      <c r="A31" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="inlineStr">
-        <is>
-          <t>0x2fcc0ac77971df25d65b9eae9418434ac72be3bc</t>
-        </is>
-      </c>
-      <c r="C31" s="3" t="inlineStr">
-        <is>
-          <t>108,170,757,830,871</t>
-        </is>
-      </c>
-      <c r="D31" s="3" t="inlineStr">
-        <is>
-          <t>108 Trillion</t>
-        </is>
-      </c>
-      <c r="E31" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.1082% </t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="n"/>
-      <c r="G31" s="2" t="n"/>
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>0xca1135931ecedc74d402c712678d555286c6dbf8</t>
+        </is>
+      </c>
+      <c r="C31" s="5" t="inlineStr">
+        <is>
+          <t>106,397,068,637,486</t>
+        </is>
+      </c>
+      <c r="D31" s="5" t="inlineStr">
+        <is>
+          <t>106 Trillion</t>
+        </is>
+      </c>
+      <c r="E31" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.1064% </t>
+        </is>
+      </c>
+      <c r="F31" s="4" t="inlineStr">
+        <is>
+          <t>19 Trillion More</t>
+        </is>
+      </c>
+      <c r="G31" s="5" t="inlineStr">
+        <is>
+          <t>19,435,225,688,518</t>
+        </is>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n">
+      <c r="A32" s="4" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="2" t="inlineStr">
-        <is>
-          <t>0xf677ecba7a2a3bfc86fc37ac07ffa2fa896bb525</t>
-        </is>
-      </c>
-      <c r="C32" s="3" t="inlineStr">
-        <is>
-          <t>107,947,760,069,167</t>
-        </is>
-      </c>
-      <c r="D32" s="3" t="inlineStr">
-        <is>
-          <t>108 Trillion</t>
-        </is>
-      </c>
-      <c r="E32" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.1079% </t>
-        </is>
-      </c>
-      <c r="F32" s="2" t="n"/>
-      <c r="G32" s="2" t="n"/>
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>0x0fcb56c9e4f865e48475bab332b4e86f78332a55</t>
+        </is>
+      </c>
+      <c r="C32" s="5" t="inlineStr">
+        <is>
+          <t>104,684,834,420,309</t>
+        </is>
+      </c>
+      <c r="D32" s="5" t="inlineStr">
+        <is>
+          <t>105 Trillion</t>
+        </is>
+      </c>
+      <c r="E32" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.1047% </t>
+        </is>
+      </c>
+      <c r="F32" s="4" t="inlineStr">
+        <is>
+          <t>33 Trillion More</t>
+        </is>
+      </c>
+      <c r="G32" s="5" t="inlineStr">
+        <is>
+          <t>33,483,722,305,594</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1465,22 +1457,22 @@
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>0x0fcb56c9e4f865e48475bab332b4e86f78332a55</t>
+          <t>0xe7af2280c3a70170f9e5cb67c6ea5885680d2838</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>101,595,431,794,851</t>
+          <t>101,217,451,320,868</t>
         </is>
       </c>
       <c r="D36" s="3" t="inlineStr">
         <is>
-          <t>102 Trillion</t>
+          <t>101 Trillion</t>
         </is>
       </c>
       <c r="E36" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1016% </t>
+          <t xml:space="preserve">0.1012% </t>
         </is>
       </c>
       <c r="F36" s="2" t="n"/>
@@ -1492,22 +1484,22 @@
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>0xe7af2280c3a70170f9e5cb67c6ea5885680d2838</t>
+          <t>0xa9579390b4b5ac986a16a05c32ad0975e089a857</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
         <is>
-          <t>101,057,958,101,905</t>
+          <t>100,281,269,186,480</t>
         </is>
       </c>
       <c r="D37" s="3" t="inlineStr">
         <is>
-          <t>101 Trillion</t>
+          <t>100 Trillion</t>
         </is>
       </c>
       <c r="E37" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1011% </t>
+          <t xml:space="preserve">0.1003% </t>
         </is>
       </c>
       <c r="F37" s="2" t="n"/>
@@ -1519,61 +1511,53 @@
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>0xa9579390b4b5ac986a16a05c32ad0975e089a857</t>
+          <t>0x021bcf7b581b6328c458f13ebb50ea6767c1b16d</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>100,126,359,859,271</t>
+          <t>92,888,524,562,195</t>
         </is>
       </c>
       <c r="D38" s="3" t="inlineStr">
         <is>
-          <t>100 Trillion</t>
+          <t>93 Trillion</t>
         </is>
       </c>
       <c r="E38" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1001% </t>
+          <t xml:space="preserve">0.0929% </t>
         </is>
       </c>
       <c r="F38" s="2" t="n"/>
       <c r="G38" s="2" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="4" t="n">
+      <c r="A39" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="4" t="inlineStr">
-        <is>
-          <t>0x021bcf7b581b6328c458f13ebb50ea6767c1b16d</t>
-        </is>
-      </c>
-      <c r="C39" s="5" t="inlineStr">
-        <is>
-          <t>92,888,524,562,195</t>
-        </is>
-      </c>
-      <c r="D39" s="5" t="inlineStr">
-        <is>
-          <t>93 Trillion</t>
-        </is>
-      </c>
-      <c r="E39" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.0929% </t>
-        </is>
-      </c>
-      <c r="F39" s="4" t="inlineStr">
-        <is>
-          <t>7 Trillion More</t>
-        </is>
-      </c>
-      <c r="G39" s="5" t="inlineStr">
-        <is>
-          <t>7,475,885,161,112</t>
-        </is>
-      </c>
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>0xf8a002718fbba65dd1ca19e7027c943c54e20220</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="inlineStr">
+        <is>
+          <t>90,579,859,718,540</t>
+        </is>
+      </c>
+      <c r="D39" s="3" t="inlineStr">
+        <is>
+          <t>91 Trillion</t>
+        </is>
+      </c>
+      <c r="E39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.0906% </t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="n"/>
+      <c r="G39" s="2" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1581,88 +1565,88 @@
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>0xf8a002718fbba65dd1ca19e7027c943c54e20220</t>
+          <t>0xb501e46d0e187cd9e2e0b3611fe17ed477f998e1</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>90,579,859,718,540</t>
+          <t>87,819,801,364,648</t>
         </is>
       </c>
       <c r="D40" s="3" t="inlineStr">
         <is>
-          <t>91 Trillion</t>
+          <t>88 Trillion</t>
         </is>
       </c>
       <c r="E40" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0906% </t>
+          <t xml:space="preserve">0.0878% </t>
         </is>
       </c>
       <c r="F40" s="2" t="n"/>
       <c r="G40" s="2" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n">
+      <c r="A41" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="B41" s="2" t="inlineStr">
-        <is>
-          <t>0xb501e46d0e187cd9e2e0b3611fe17ed477f998e1</t>
-        </is>
-      </c>
-      <c r="C41" s="3" t="inlineStr">
-        <is>
-          <t>87,819,801,364,648</t>
-        </is>
-      </c>
-      <c r="D41" s="3" t="inlineStr">
+      <c r="B41" s="4" t="inlineStr">
+        <is>
+          <t>0x74beaeb59500b4486ec3c83b81552279b79c6728</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="inlineStr">
+        <is>
+          <t>87,740,626,192,162</t>
+        </is>
+      </c>
+      <c r="D41" s="5" t="inlineStr">
         <is>
           <t>88 Trillion</t>
         </is>
       </c>
-      <c r="E41" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.0878% </t>
-        </is>
-      </c>
-      <c r="F41" s="2" t="n"/>
-      <c r="G41" s="2" t="n"/>
+      <c r="E41" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.0877% </t>
+        </is>
+      </c>
+      <c r="F41" s="6" t="inlineStr">
+        <is>
+          <t>47 Trillion Less</t>
+        </is>
+      </c>
+      <c r="G41" s="7" t="inlineStr">
+        <is>
+          <t>46,673,293,412,504</t>
+        </is>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" s="4" t="n">
+      <c r="A42" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="B42" s="4" t="inlineStr">
+      <c r="B42" s="2" t="inlineStr">
         <is>
           <t>0xd8f8110161649178bca78b074cef0864ad9a99a8</t>
         </is>
       </c>
-      <c r="C42" s="5" t="inlineStr">
-        <is>
-          <t>87,170,129,309,799</t>
-        </is>
-      </c>
-      <c r="D42" s="5" t="inlineStr">
+      <c r="C42" s="3" t="inlineStr">
+        <is>
+          <t>87,177,673,388,639</t>
+        </is>
+      </c>
+      <c r="D42" s="3" t="inlineStr">
         <is>
           <t>87 Trillion</t>
         </is>
       </c>
-      <c r="E42" s="5" t="inlineStr">
+      <c r="E42" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">0.0872% </t>
         </is>
       </c>
-      <c r="F42" s="4" t="inlineStr">
-        <is>
-          <t>4 Trillion More</t>
-        </is>
-      </c>
-      <c r="G42" s="5" t="inlineStr">
-        <is>
-          <t>4,210,279,168,027</t>
-        </is>
-      </c>
+      <c r="F42" s="2" t="n"/>
+      <c r="G42" s="2" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1670,22 +1654,22 @@
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>0xca1135931ecedc74d402c712678d555286c6dbf8</t>
+          <t>0xa6864e154b64a8ce94020a8c1b43f191d3523c47</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>86,961,842,948,968</t>
+          <t>81,128,791,830,716</t>
         </is>
       </c>
       <c r="D43" s="3" t="inlineStr">
         <is>
-          <t>87 Trillion</t>
+          <t>81 Trillion</t>
         </is>
       </c>
       <c r="E43" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0870% </t>
+          <t xml:space="preserve">0.0811% </t>
         </is>
       </c>
       <c r="F43" s="2" t="n"/>
@@ -1697,22 +1681,22 @@
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>0xa6864e154b64a8ce94020a8c1b43f191d3523c47</t>
+          <t>0x4e57abe60fdc74c47fc3a86bbd7857b4e24c180d</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>81,128,791,830,716</t>
+          <t>79,763,629,301,578</t>
         </is>
       </c>
       <c r="D44" s="3" t="inlineStr">
         <is>
-          <t>81 Trillion</t>
+          <t>80 Trillion</t>
         </is>
       </c>
       <c r="E44" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0811% </t>
+          <t xml:space="preserve">0.0798% </t>
         </is>
       </c>
       <c r="F44" s="2" t="n"/>
@@ -1724,22 +1708,22 @@
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>0x4e57abe60fdc74c47fc3a86bbd7857b4e24c180d</t>
+          <t>0xe902fd7de8afb5b295f628c1b4f6143005bb0bf6</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>79,763,629,301,578</t>
+          <t>78,500,122,588,755</t>
         </is>
       </c>
       <c r="D45" s="3" t="inlineStr">
         <is>
-          <t>80 Trillion</t>
+          <t>79 Trillion</t>
         </is>
       </c>
       <c r="E45" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0798% </t>
+          <t xml:space="preserve">0.0785% </t>
         </is>
       </c>
       <c r="F45" s="2" t="n"/>
@@ -1751,22 +1735,22 @@
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>0xe902fd7de8afb5b295f628c1b4f6143005bb0bf6</t>
+          <t>0x28e5d92148aa12b0fccd268ff643be86bbb5265e</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>78,500,122,588,755</t>
+          <t>75,638,511,708,227</t>
         </is>
       </c>
       <c r="D46" s="3" t="inlineStr">
         <is>
-          <t>79 Trillion</t>
+          <t>76 Trillion</t>
         </is>
       </c>
       <c r="E46" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0785% </t>
+          <t xml:space="preserve">0.0756% </t>
         </is>
       </c>
       <c r="F46" s="2" t="n"/>
@@ -1778,22 +1762,22 @@
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>0x28e5d92148aa12b0fccd268ff643be86bbb5265e</t>
+          <t>0xffcc995a004c26a059248c15afa92f006b315fab</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>75,638,511,708,227</t>
+          <t>74,236,908,478,556</t>
         </is>
       </c>
       <c r="D47" s="3" t="inlineStr">
         <is>
-          <t>76 Trillion</t>
+          <t>74 Trillion</t>
         </is>
       </c>
       <c r="E47" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0756% </t>
+          <t xml:space="preserve">0.0742% </t>
         </is>
       </c>
       <c r="F47" s="2" t="n"/>
@@ -1805,22 +1789,22 @@
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>0xffcc995a004c26a059248c15afa92f006b315fab</t>
+          <t>0x9a7e16cc5d152e60ea52d46d8e422d724bdb4dcf</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>74,204,183,091,826</t>
+          <t>72,957,349,694,132</t>
         </is>
       </c>
       <c r="D48" s="3" t="inlineStr">
         <is>
-          <t>74 Trillion</t>
+          <t>73 Trillion</t>
         </is>
       </c>
       <c r="E48" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0742% </t>
+          <t xml:space="preserve">0.0730% </t>
         </is>
       </c>
       <c r="F48" s="2" t="n"/>
@@ -1832,22 +1816,22 @@
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>0x9a7e16cc5d152e60ea52d46d8e422d724bdb4dcf</t>
+          <t>0xdce8e975b0dcbec956cddebffcc9f0cfaa5b8415</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>72,945,667,648,778</t>
+          <t>67,737,824,526,138</t>
         </is>
       </c>
       <c r="D49" s="3" t="inlineStr">
         <is>
-          <t>73 Trillion</t>
+          <t>68 Trillion</t>
         </is>
       </c>
       <c r="E49" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0729% </t>
+          <t xml:space="preserve">0.0677% </t>
         </is>
       </c>
       <c r="F49" s="2" t="n"/>
@@ -1861,27 +1845,27 @@
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>8,786,652,264,310,605</t>
+          <t>8,680,666,017,966,116</t>
         </is>
       </c>
       <c r="D51" s="3" t="inlineStr">
         <is>
-          <t>8787 Trillion</t>
+          <t>8681 Trillion</t>
         </is>
       </c>
       <c r="E51" s="3" t="inlineStr">
         <is>
-          <t>8.79%</t>
+          <t>8.68%</t>
         </is>
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>39 Trillion</t>
+          <t>18 Trillion</t>
         </is>
       </c>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>38,564,388,930,560</t>
+          <t>18,444,953,520,976</t>
         </is>
       </c>
     </row>
@@ -1904,155 +1888,50 @@
       </c>
       <c r="B54" s="4" t="inlineStr">
         <is>
-          <t>0xdce8e975b0dcbec956cddebffcc9f0cfaa5b8415</t>
+          <t>0x497e289791fc2c2b355c259d9516f079d9b52a63</t>
         </is>
       </c>
       <c r="C54" s="5" t="inlineStr">
         <is>
-          <t>67,737,824,526,138</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D54" s="5" t="inlineStr">
         <is>
-          <t>68 Trillion</t>
+          <t>0 Trillion</t>
         </is>
       </c>
       <c r="E54" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0790% </t>
+          <t xml:space="preserve">0.1513% </t>
         </is>
       </c>
       <c r="F54" s="6" t="inlineStr">
         <is>
-          <t>11 Trillion Less</t>
+          <t>151 Trillion Less</t>
         </is>
       </c>
       <c r="G54" s="7" t="inlineStr">
         <is>
-          <t>11,253,872,915,270</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B55" s="4" t="inlineStr">
-        <is>
-          <t>0x84d1b0ae25aa0b535552d28455f4d00922baf624</t>
-        </is>
-      </c>
-      <c r="C55" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D55" s="5" t="inlineStr">
-        <is>
-          <t>0 Trillion</t>
-        </is>
-      </c>
-      <c r="E55" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.1048% </t>
-        </is>
-      </c>
-      <c r="F55" s="6" t="inlineStr">
-        <is>
-          <t>105 Trillion Less</t>
-        </is>
-      </c>
-      <c r="G55" s="7" t="inlineStr">
-        <is>
-          <t>104,834,199,490,524</t>
+          <t>151,329,188,545,561</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B56" s="4" t="inlineStr">
-        <is>
-          <t>0x69fe97ce030074b37cbaf3ee46e9f68ca8712099</t>
-        </is>
-      </c>
-      <c r="C56" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D56" s="5" t="inlineStr">
-        <is>
-          <t>0 Trillion</t>
-        </is>
-      </c>
-      <c r="E56" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.1006% </t>
+      <c r="D56" s="6" t="n"/>
+      <c r="E56" s="7" t="inlineStr">
+        <is>
+          <t>Total loss / gain from all whales</t>
         </is>
       </c>
       <c r="F56" s="6" t="inlineStr">
         <is>
-          <t>101 Trillion Less</t>
-        </is>
-      </c>
-      <c r="G56" s="7" t="inlineStr">
-        <is>
-          <t>100,567,579,913,450</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B57" s="4" t="inlineStr">
-        <is>
-          <t>0x302c44b648f5a84191f08551be26a2d2456a1fa1</t>
-        </is>
-      </c>
-      <c r="C57" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D57" s="5" t="inlineStr">
-        <is>
-          <t>0 Trillion</t>
-        </is>
-      </c>
-      <c r="E57" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.0939% </t>
-        </is>
-      </c>
-      <c r="F57" s="6" t="inlineStr">
-        <is>
-          <t>94 Trillion Less</t>
-        </is>
-      </c>
-      <c r="G57" s="7" t="inlineStr">
-        <is>
-          <t>93,917,447,289,939</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="D59" s="6" t="n"/>
-      <c r="E59" s="7" t="inlineStr">
-        <is>
-          <t>Total loss / gain from all whales</t>
-        </is>
-      </c>
-      <c r="F59" s="6" t="inlineStr">
-        <is>
-          <t>-272 Trillion</t>
-        </is>
-      </c>
-      <c r="G59" s="6" t="inlineStr">
-        <is>
-          <t>-272,008,710,678,623</t>
+          <t>-133 Trillion</t>
+        </is>
+      </c>
+      <c r="G56" s="6" t="inlineStr">
+        <is>
+          <t>-132,884,235,024,585</t>
         </is>
       </c>
     </row>
